--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="162">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -51,10 +51,10 @@
     <t xml:space="preserve">Lza, E</t>
   </si>
   <si>
-    <t xml:space="preserve">Lh, Ed24(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zKG</t>
+    <t xml:space="preserve">Lh, Ed24(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zKG(1)</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -75,6 +75,9 @@
     <t xml:space="preserve">22:40</t>
   </si>
   <si>
+    <t xml:space="preserve">can`t</t>
+  </si>
+  <si>
     <t xml:space="preserve">T</t>
   </si>
   <si>
@@ -126,22 +129,19 @@
     <t xml:space="preserve">Lg, Eh</t>
   </si>
   <si>
-    <t xml:space="preserve">can`t</t>
-  </si>
-  <si>
     <t xml:space="preserve">E1</t>
   </si>
   <si>
     <t xml:space="preserve">22:30</t>
   </si>
   <si>
-    <t xml:space="preserve">Lg, Ed24(2)</t>
+    <t xml:space="preserve">Lg, Ed24(1)</t>
   </si>
   <si>
     <t xml:space="preserve">z, a</t>
   </si>
   <si>
-    <t xml:space="preserve">Lg, Ed8(3)</t>
+    <t xml:space="preserve">Lg, Ed8(2)</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -195,12 +195,18 @@
     <t xml:space="preserve">23:45</t>
   </si>
   <si>
+    <t xml:space="preserve">Lh, Ed24(2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22:45</t>
   </si>
   <si>
     <t xml:space="preserve">23:55</t>
   </si>
   <si>
+    <t xml:space="preserve">ZKG(1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:55</t>
   </si>
   <si>
@@ -414,118 +420,82 @@
     <t xml:space="preserve">l:meals</t>
   </si>
   <si>
-    <t xml:space="preserve">dutyTrue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": 0, "&lt;.4": 50, "&lt;=.2": 100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.22": "2*", "&lt;.23": "0.5*", "&gt;.23": "-1*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 50, "0": -75}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": "30*", "&gt;=.2": "10*", "&lt;.2": 0}</t>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;.23": " -2*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 50, "0": -150}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{9: 0, "True": -25}</t>
   </si>
   <si>
-    <t xml:space="preserve">10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": -50, "P": -50}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "0", "&gt;.0": "-0.5*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.3": "10*"," &gt;=.1": "5*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"9": 100, "True": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
+    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.3": "15*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"9": 50, "True": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.3": "20*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">dutyFalse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;.23": " -2*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 50, "0": -150}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.3": "15*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"9": 50, "True": 0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">DIF_DUTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 1, "2": 1.25, "3": 1.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
+    <t xml:space="preserve">child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'True': '25%*', 'False': '-12%'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25%*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25%*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-50%, -25%, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20%</t>
   </si>
   <si>
     <t xml:space="preserve">logic</t>
@@ -552,7 +522,7 @@
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -590,15 +560,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,50 +570,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF9DC3E6"/>
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFF8181"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFA9D18E"/>
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFF4B183"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFB4C7E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FF8FAADC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -691,16 +648,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -730,7 +687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,10 +721,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -831,83 +784,123 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,16 +980,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8FAADC"/>
-      <rgbColor rgb="FF7030A0"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8181"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1008,17 +1001,17 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF9DC3E6"/>
-      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1041,22 +1034,22 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6"/>
@@ -1081,7 +1074,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="4" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="3" width="8.57"/>
   </cols>
@@ -1259,64 +1252,64 @@
       <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
       <c r="R2" s="7"/>
       <c r="S2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10"/>
+      <c r="X2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="9"/>
       <c r="Z2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="10"/>
       <c r="AG2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI2" s="0" t="n">
         <v>1</v>
@@ -1334,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
@@ -1346,67 +1339,67 @@
       <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>26</v>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="R3" s="7"/>
       <c r="S3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
       <c r="Z3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF3" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="10"/>
       <c r="AG3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI3" s="0" t="n">
         <v>2</v>
@@ -1427,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1441,54 +1434,54 @@
         <v>13</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P4" s="10"/>
       <c r="Q4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R4" s="7"/>
       <c r="S4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="T4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF4" s="11"/>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI4" s="0" t="n">
         <v>2</v>
@@ -1516,67 +1509,67 @@
         <v>38</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="7"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="11"/>
+      <c r="AF5" s="10"/>
       <c r="AG5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI5" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -1602,67 +1595,67 @@
       <c r="H6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="7"/>
       <c r="S6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF6" s="11"/>
+      <c r="AE6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF6" s="10"/>
       <c r="AG6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH6" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="AI6" s="9"/>
     </row>
@@ -1690,65 +1683,65 @@
       <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="X7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="9"/>
       <c r="Z7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AB7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF7" s="11"/>
+      <c r="AF7" s="10"/>
       <c r="AG7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI7" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -1765,7 +1758,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="0" t="s">
@@ -1774,27 +1767,27 @@
       <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1802,47 +1795,47 @@
         <v>41</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10" t="s">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AB8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF8" s="11"/>
+      <c r="AF8" s="10"/>
       <c r="AG8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI8" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -1859,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="0" t="s">
@@ -1868,76 +1861,76 @@
       <c r="H9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AD9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF9" s="11"/>
+      <c r="AF9" s="10"/>
       <c r="AG9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,63 +1957,63 @@
       <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="7"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AD10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF10" s="11"/>
+      <c r="AF10" s="10"/>
       <c r="AG10" s="6"/>
-      <c r="AH10" s="10" t="s">
-        <v>17</v>
+      <c r="AH10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="AI10" s="9"/>
     </row>
@@ -2036,7 +2029,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>49</v>
@@ -2048,7 +2041,7 @@
       <c r="H11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -2057,8 +2050,8 @@
       <c r="K11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>34</v>
+      <c r="L11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>16</v>
@@ -2067,45 +2060,45 @@
         <v>15</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="7"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
       <c r="Z11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AB11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="10"/>
+      <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,28 +2113,28 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="0" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -2151,51 +2144,51 @@
         <v>15</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11" t="s">
-        <v>17</v>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="R12" s="7"/>
       <c r="S12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
       <c r="Z12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="10" t="s">
+      <c r="AE12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AF12" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AG12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10" t="s">
-        <v>20</v>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,7 +2206,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>44</v>
@@ -2221,75 +2214,75 @@
       <c r="H13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="7"/>
       <c r="S13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y13" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="9"/>
       <c r="Z13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="10"/>
       <c r="AG13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI13" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2305,91 +2298,91 @@
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>26</v>
+      <c r="I14" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V14" s="7"/>
       <c r="W14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10" t="s">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF14" s="11" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI14" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,30 +2400,30 @@
         <v>5</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="6"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="11"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="10"/>
       <c r="AG15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,32 +2441,32 @@
         <v>5</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="6"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="10"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="7"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="11"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="10"/>
       <c r="AG16" s="6"/>
-      <c r="AH16" s="10"/>
+      <c r="AH16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -2490,32 +2483,32 @@
         <v>5</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="6"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="11"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="10"/>
       <c r="AG17" s="6"/>
-      <c r="AH17" s="10"/>
+      <c r="AH17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -2529,30 +2522,30 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="6"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="11"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="10"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="9"/>
     </row>
@@ -2568,32 +2561,32 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="6"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="10"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="7"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="11"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="10"/>
       <c r="AG19" s="6"/>
-      <c r="AH19" s="10"/>
+      <c r="AH19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -2610,32 +2603,32 @@
         <v>5</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="6"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="10"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="11"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="10"/>
       <c r="AG20" s="6"/>
-      <c r="AH20" s="10"/>
+      <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,32 +2646,32 @@
         <v>5</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="6"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="11"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="10"/>
       <c r="AG21" s="6"/>
-      <c r="AH21" s="10"/>
+      <c r="AH21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -2695,33 +2688,33 @@
         <v>5</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="6"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="10"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="11"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="10"/>
       <c r="AG22" s="6"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -2738,30 +2731,30 @@
         <v>5</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="6"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="10"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="11"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="10"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -2781,30 +2774,30 @@
         <v>5</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="6"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="10"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
       <c r="R24" s="7"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="11"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="10"/>
       <c r="AG24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,33 +2812,33 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="6"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="10"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="7"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="11"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="10"/>
       <c r="AG25" s="6"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -2859,32 +2852,32 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="6"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
       <c r="R26" s="7"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="10"/>
+      <c r="AE26" s="9"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
-      <c r="AH26" s="10"/>
+      <c r="AH26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -2901,33 +2894,33 @@
         <v>5</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="10"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="6"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="7"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="10"/>
+      <c r="AE27" s="9"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -2944,32 +2937,32 @@
         <v>5</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="10"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
       <c r="R28" s="7"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="11"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="10"/>
       <c r="AG28" s="6"/>
-      <c r="AH28" s="10"/>
+      <c r="AH28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -2986,30 +2979,30 @@
         <v>5</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="6"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="10"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="7"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="11"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="10"/>
       <c r="AG29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,32 +3020,32 @@
         <v>5</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="10"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="6"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
       <c r="R30" s="7"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="11"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="10"/>
       <c r="AG30" s="6"/>
-      <c r="AH30" s="10"/>
+      <c r="AH30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -3069,30 +3062,30 @@
         <v>5</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="I31" s="10"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="6"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="7"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="11"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="10"/>
       <c r="AG31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,34 +3095,34 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="10"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="6"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="10"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
       <c r="R32" s="7"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="11"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="10"/>
       <c r="AG32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AJ3:AK4 M28:S32 B28:B32 V20:AC25 V28:AC32 X2:AK2 J28:K32 X3:AI3 A3:A32 K2:V2 H3:V3 F5:F12 F20:F24 F27:F31 T5:U32 V5:V19 X5:AC19 M11:S25 L9:L32 H9:I32 H5:L8 N5:S10 J9:K25 AD5:AI32 B3:B25 A1:E2 C3:E32 F3:G4 F14:F17 F2:I2 F1:AK1">
+  <conditionalFormatting sqref="AJ3:AK4 M28:S32 B28:B32 V20:AC25 V28:AC32 X2:AK2 J28:K32 X3:AI3 A3:A32 K2:V2 F5:F12 F20:F24 F27:F31 T5:U32 V5:V19 X5:AC19 L9:L32 H9:I32 H5:L8 N5:S10 J9:K25 AD5:AI32 B3:B25 A1:E2 C3:E32 F3:G4 F14:F17 F2:I2 F1:AK1 H3:V3 M11:S25">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3316,865 +3309,865 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="13" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="13" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="14" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="15" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="17" t="e">
+      <c r="C1" s="16" t="e">
         <f aca="false">vedomost!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="J1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="19" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="20" t="n">
         <f aca="false">vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="e">
+      <c r="C2" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="19" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="20" t="n">
         <f aca="false">vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="e">
+      <c r="C3" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="G3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="14" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="21" t="n">
+      <c r="B4" s="20" t="n">
         <f aca="false">vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="e">
+      <c r="C4" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="14" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="20" t="n">
         <f aca="false">vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="e">
+      <c r="C5" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+      <c r="A6" s="19" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="20" t="n">
         <f aca="false">vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="e">
+      <c r="C6" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
+      <c r="D6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="19" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="20" t="n">
         <f aca="false">vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="e">
+      <c r="C7" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="19" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="20" t="n">
         <f aca="false">vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="e">
+      <c r="C8" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="19" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45085</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="20" t="n">
         <f aca="false">vedomost!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="e">
+      <c r="C9" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="19" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45086</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="20" t="n">
         <f aca="false">vedomost!B10</f>
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="e">
+      <c r="C10" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="14" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45087</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="20" t="n">
         <f aca="false">vedomost!B11</f>
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="e">
+      <c r="C11" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
+      <c r="F11" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="14" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45088</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="20" t="n">
         <f aca="false">vedomost!B12</f>
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="e">
+      <c r="C12" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="14" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45089</v>
       </c>
-      <c r="B13" s="21" t="n">
+      <c r="B13" s="20" t="n">
         <f aca="false">vedomost!B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="22" t="e">
+      <c r="C13" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="19" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45090</v>
       </c>
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="20" t="n">
         <f aca="false">vedomost!B14</f>
         <v>2</v>
       </c>
-      <c r="C14" s="22" t="e">
+      <c r="C14" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="D14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="19" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45091</v>
       </c>
-      <c r="B15" s="21" t="n">
+      <c r="B15" s="20" t="n">
         <f aca="false">vedomost!B15</f>
         <v>3</v>
       </c>
-      <c r="C15" s="22" t="e">
+      <c r="C15" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="19" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45092</v>
       </c>
-      <c r="B16" s="21" t="n">
+      <c r="B16" s="20" t="n">
         <f aca="false">vedomost!B16</f>
         <v>4</v>
       </c>
-      <c r="C16" s="22" t="e">
+      <c r="C16" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="G16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="19" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45093</v>
       </c>
-      <c r="B17" s="21" t="n">
+      <c r="B17" s="20" t="n">
         <f aca="false">vedomost!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="22" t="e">
+      <c r="C17" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="14" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45094</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="20" t="n">
         <f aca="false">vedomost!B18</f>
         <v>6</v>
       </c>
-      <c r="C18" s="22" t="e">
+      <c r="C18" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="14" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45095</v>
       </c>
-      <c r="B19" s="21" t="n">
+      <c r="B19" s="20" t="n">
         <f aca="false">vedomost!B19</f>
         <v>7</v>
       </c>
-      <c r="C19" s="22" t="e">
+      <c r="C19" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+      <c r="A20" s="19" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45096</v>
       </c>
-      <c r="B20" s="21" t="n">
+      <c r="B20" s="20" t="n">
         <f aca="false">vedomost!B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="22" t="e">
+      <c r="C20" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
+      <c r="A21" s="19" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45097</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="20" t="n">
         <f aca="false">vedomost!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="22" t="e">
+      <c r="C21" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="19" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45098</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="20" t="n">
         <f aca="false">vedomost!B22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="22" t="e">
+      <c r="C22" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
+      <c r="D22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="19" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45099</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="20" t="n">
         <f aca="false">vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C23" s="22" t="e">
+      <c r="C23" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="19" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45100</v>
       </c>
-      <c r="B24" s="21" t="n">
+      <c r="B24" s="20" t="n">
         <f aca="false">vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C24" s="22" t="e">
+      <c r="C24" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
+      <c r="A25" s="14" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45101</v>
       </c>
-      <c r="B25" s="21" t="n">
+      <c r="B25" s="20" t="n">
         <f aca="false">vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C25" s="22" t="e">
+      <c r="C25" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
+      <c r="A26" s="14" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45102</v>
       </c>
-      <c r="B26" s="21" t="n">
+      <c r="B26" s="20" t="n">
         <f aca="false">vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="22" t="e">
+      <c r="C26" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
+      <c r="A27" s="19" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45103</v>
       </c>
-      <c r="B27" s="21" t="n">
+      <c r="B27" s="20" t="n">
         <f aca="false">vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="22" t="e">
+      <c r="C27" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
+      <c r="A28" s="19" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45104</v>
       </c>
-      <c r="B28" s="21" t="n">
+      <c r="B28" s="20" t="n">
         <f aca="false">vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C28" s="22" t="e">
+      <c r="C28" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
+      <c r="D28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
+      <c r="A29" s="19" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45105</v>
       </c>
-      <c r="B29" s="21" t="n">
+      <c r="B29" s="20" t="n">
         <f aca="false">vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C29" s="22" t="e">
+      <c r="C29" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
+      <c r="A30" s="19" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45106</v>
       </c>
-      <c r="B30" s="21" t="n">
+      <c r="B30" s="20" t="n">
         <f aca="false">vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C30" s="22" t="e">
+      <c r="C30" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
+      <c r="G30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
+      <c r="A31" s="19" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45107</v>
       </c>
-      <c r="B31" s="21" t="n">
+      <c r="B31" s="20" t="n">
         <f aca="false">vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C31" s="22" t="e">
+      <c r="C31" s="21" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4198,1232 +4191,981 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="29.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="39.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="25" width="39.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="25" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="25" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="25" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="25" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="25" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="25" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="25" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="25" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="25" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="25" width="47.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="25" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="25" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="25" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="25" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="25" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="25" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="25" width="45.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="25" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="25" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="25" width="33.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="30" style="25" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="32.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="33.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="33.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="25" t="s">
+    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="L1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="M1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="R1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="S1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="U1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="X1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="Y1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="Z1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AA1" s="26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="AB1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="28" t="s">
+    </row>
+    <row r="2" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>132</v>
       </c>
+      <c r="B2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>134</v>
+      </c>
       <c r="D2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="25" t="n">
+      <c r="H2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="25" t="n">
+      <c r="J2" s="31" t="n">
         <v>50</v>
       </c>
-      <c r="K2" s="28" t="n">
+      <c r="K2" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="28" t="n">
+      <c r="L2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="30" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="S2" s="28" t="s">
+      <c r="R2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="T2" s="28" t="n">
+      <c r="T2" s="30" t="n">
         <v>50</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="U2" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="V2" s="25" t="n">
+      <c r="V2" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="Z2" s="28" t="s">
+    </row>
+    <row r="3" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AA2" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="27" t="n">
+      <c r="B3" s="29" t="n">
         <v>-50</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="28" t="n">
         <v>-50</v>
       </c>
-      <c r="E3" s="27" t="n">
-        <v>0</v>
+      <c r="E3" s="29" t="n">
+        <v>-50</v>
       </c>
       <c r="F3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="28" t="n">
+      <c r="G3" s="30" t="n">
         <v>-50</v>
       </c>
-      <c r="H3" s="28" t="n">
+      <c r="H3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="25" t="n">
+      <c r="I3" s="31" t="n">
         <v>-50</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="28" t="n">
+      <c r="K3" s="30" t="n">
         <v>-50</v>
       </c>
-      <c r="L3" s="27" t="n">
+      <c r="L3" s="30" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="30" t="n">
         <v>-50</v>
       </c>
-      <c r="N3" s="28" t="n">
+      <c r="N3" s="30" t="n">
         <v>-50</v>
       </c>
       <c r="O3" s="28" t="n">
+        <v>-50</v>
+      </c>
+      <c r="P3" s="29" t="n">
+        <v>-50</v>
+      </c>
+      <c r="Q3" s="30" t="n">
+        <v>-50</v>
+      </c>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="27" t="n">
+      <c r="T3" s="30" t="n">
         <v>-50</v>
       </c>
-      <c r="Q3" s="28" t="n">
+      <c r="U3" s="30" t="n">
+        <v>-50</v>
+      </c>
+      <c r="V3" s="31" t="n">
+        <v>-50</v>
+      </c>
+      <c r="W3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="28" t="n">
+      <c r="X3" s="29" t="n">
+        <v>-50</v>
+      </c>
+      <c r="Y3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="Z3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="28" t="n">
+      <c r="AA3" s="30" t="n">
         <v>-50</v>
       </c>
-      <c r="U3" s="25" t="n">
+      <c r="AB3" s="31" t="n">
         <v>-50</v>
       </c>
-      <c r="V3" s="25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="W3" s="30" t="n">
+      <c r="AC3" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="X3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AB3" s="25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AC3" s="30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="27" t="s">
+    </row>
+    <row r="4" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB4" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="X5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC5" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="W6" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="C7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="W7" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC7" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25" t="n">
+      <c r="B8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="X8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB8" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC8" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="W9" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="X9" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB9" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC9" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="U10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="V10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="W10" s="50"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB10" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC10" s="52"/>
+    </row>
+    <row r="11" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" s="50"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="52"/>
+    </row>
+    <row r="12" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="K4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="N4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="T4" s="28" t="n">
+      <c r="J12" s="52"/>
+      <c r="K12" s="52" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="n">
+        <v>30</v>
+      </c>
+      <c r="O12" s="50" t="n">
+        <v>30</v>
+      </c>
+      <c r="P12" s="51" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="V4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA4" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E5" s="27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F5" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="H5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L5" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="O5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="P5" s="27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="Q5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="U5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="V5" s="25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="W5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="27" t="n">
-        <v>-50</v>
-      </c>
-      <c r="Y5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AB5" s="25" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AC5" s="25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="R6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="T6" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="X6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="V7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC7" s="33" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F8" s="35" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I8" s="25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J8" s="25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L8" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="N8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R8" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V8" s="25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X8" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA8" s="34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB8" s="25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC8" s="25" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P9" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R9" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V9" s="25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X9" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA9" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB9" s="25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC9" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J10" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L10" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P10" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R10" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="V10" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="W10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X10" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Z10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA10" s="34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB10" s="25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC10" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C11" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E11" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K11" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M11" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N11" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O11" s="33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC11" s="33" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="12" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="41" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="42" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="T13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="V13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB13" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="25" t="n">
+      <c r="U12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="V12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="I15" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="K15" s="35" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="O15" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="P15" s="35" t="n">
-        <v>30</v>
-      </c>
-      <c r="T15" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="U15" s="25" t="n">
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="V15" s="25" t="n">
+      <c r="AB12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="AA15" s="25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB15" s="25" t="n">
-        <v>25</v>
-      </c>
+      <c r="AC12" s="52"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D13 I14:I15 K14:K15 N14:P15 T14:T15 A6:AC12">
+  <conditionalFormatting sqref="D10 I11:I12 K11:K12 N11:P12 T11:T12 A6:AC9">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="162">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -36,7 +36,10 @@
     <t xml:space="preserve">COM</t>
   </si>
   <si>
-    <t xml:space="preserve">PLACE</t>
+    <t xml:space="preserve">HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUTY</t>
   </si>
   <si>
     <t xml:space="preserve">KG</t>
@@ -51,7 +54,10 @@
     <t xml:space="preserve">Lza, E</t>
   </si>
   <si>
-    <t xml:space="preserve">Lh, Ed24(0)</t>
+    <t xml:space="preserve">Lh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed24(0)</t>
   </si>
   <si>
     <t xml:space="preserve">zKG(1)</t>
@@ -126,7 +132,7 @@
     <t xml:space="preserve">23:40</t>
   </si>
   <si>
-    <t xml:space="preserve">Lg, Eh</t>
+    <t xml:space="preserve">Eh</t>
   </si>
   <si>
     <t xml:space="preserve">E1</t>
@@ -135,13 +141,13 @@
     <t xml:space="preserve">22:30</t>
   </si>
   <si>
-    <t xml:space="preserve">Lg, Ed24(1)</t>
+    <t xml:space="preserve">Ed24(1)</t>
   </si>
   <si>
     <t xml:space="preserve">z, a</t>
   </si>
   <si>
-    <t xml:space="preserve">Lg, Ed8(2)</t>
+    <t xml:space="preserve">Ed8(2)</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -171,9 +177,6 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">Lg, Eg</t>
-  </si>
-  <si>
     <t xml:space="preserve">L4</t>
   </si>
   <si>
@@ -195,16 +198,13 @@
     <t xml:space="preserve">23:45</t>
   </si>
   <si>
-    <t xml:space="preserve">Lh, Ed24(2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:45</t>
   </si>
   <si>
     <t xml:space="preserve">23:55</t>
   </si>
   <si>
-    <t xml:space="preserve">ZKG(1)</t>
+    <t xml:space="preserve">zKG(0.5)</t>
   </si>
   <si>
     <t xml:space="preserve">21:55</t>
@@ -1032,51 +1032,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="23" style="4" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="4" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="3" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="4" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="4" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="7.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1101,125 +1102,128 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="str">
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="str">
         <f aca="false">price!B1</f>
         <v>a:titi</v>
       </c>
-      <c r="I1" s="7" t="str">
+      <c r="J1" s="7" t="str">
         <f aca="false">price!C1</f>
         <v>a:bed</v>
       </c>
-      <c r="J1" s="7" t="str">
+      <c r="K1" s="7" t="str">
         <f aca="false">price!D1</f>
         <v>a:sleeptime</v>
       </c>
-      <c r="K1" s="7" t="str">
+      <c r="L1" s="7" t="str">
         <f aca="false">price!E1</f>
         <v>z:stroll</v>
       </c>
-      <c r="L1" s="7" t="str">
+      <c r="M1" s="7" t="str">
         <f aca="false">price!F1</f>
         <v>z:family_stroll</v>
       </c>
-      <c r="M1" s="7" t="str">
+      <c r="N1" s="7" t="str">
         <f aca="false">price!G1</f>
         <v>z:sleeptime</v>
       </c>
-      <c r="N1" s="7" t="str">
+      <c r="O1" s="7" t="str">
         <f aca="false">price!H1</f>
         <v>z:dreams</v>
       </c>
-      <c r="O1" s="7" t="str">
+      <c r="P1" s="7" t="str">
         <f aca="false">price!I1</f>
         <v>z:teeth</v>
       </c>
-      <c r="P1" s="7" t="str">
+      <c r="Q1" s="7" t="str">
         <f aca="false">price!J1</f>
         <v>z:edu</v>
       </c>
-      <c r="Q1" s="7" t="str">
+      <c r="R1" s="7" t="str">
         <f aca="false">price!K1</f>
         <v>z:tele</v>
       </c>
-      <c r="R1" s="7" t="str">
+      <c r="S1" s="7" t="str">
         <f aca="false">price!L1</f>
         <v>h:vacuum</v>
       </c>
-      <c r="S1" s="7" t="str">
+      <c r="T1" s="7" t="str">
         <f aca="false">price!M1</f>
         <v>h:dishwash</v>
       </c>
-      <c r="T1" s="7" t="str">
+      <c r="U1" s="7" t="str">
         <f aca="false">price!N1</f>
         <v>h:kitchen</v>
       </c>
-      <c r="U1" s="7" t="str">
+      <c r="V1" s="7" t="str">
         <f aca="false">price!O1</f>
         <v>h:vestibule</v>
       </c>
-      <c r="V1" s="7" t="str">
+      <c r="W1" s="7" t="str">
         <f aca="false">price!P1</f>
         <v>e:hygiene</v>
       </c>
-      <c r="W1" s="7" t="str">
+      <c r="X1" s="7" t="str">
         <f aca="false">price!Q1</f>
         <v>e:plan</v>
       </c>
-      <c r="X1" s="7" t="str">
+      <c r="Y1" s="7" t="str">
         <f aca="false">price!R1</f>
         <v>e:silence</v>
       </c>
-      <c r="Y1" s="7" t="str">
+      <c r="Z1" s="7" t="str">
         <f aca="false">price!S1</f>
         <v>e:siesta</v>
       </c>
-      <c r="Z1" s="7" t="str">
+      <c r="AA1" s="7" t="str">
         <f aca="false">price!T1</f>
         <v>e:dev</v>
       </c>
-      <c r="AA1" s="7" t="str">
+      <c r="AB1" s="7" t="str">
         <f aca="false">price!U1</f>
         <v>e:sleeptime</v>
       </c>
-      <c r="AB1" s="7" t="str">
+      <c r="AC1" s="7" t="str">
         <f aca="false">price!V1</f>
         <v>e:diet</v>
       </c>
-      <c r="AC1" s="7" t="str">
+      <c r="AD1" s="7" t="str">
         <f aca="false">price!W1</f>
         <v>e:meals</v>
       </c>
-      <c r="AD1" s="7" t="str">
+      <c r="AE1" s="7" t="str">
         <f aca="false">price!X1</f>
         <v>l:teeth</v>
       </c>
-      <c r="AE1" s="7" t="str">
+      <c r="AF1" s="7" t="str">
         <f aca="false">price!Y1</f>
         <v>l:plan</v>
       </c>
-      <c r="AF1" s="7" t="str">
+      <c r="AG1" s="7" t="str">
         <f aca="false">price!Z1</f>
         <v>l:siesta</v>
       </c>
-      <c r="AG1" s="7" t="str">
+      <c r="AH1" s="7" t="str">
         <f aca="false">price!AA1</f>
         <v>l:sleeptime</v>
       </c>
-      <c r="AH1" s="7" t="str">
+      <c r="AI1" s="7" t="str">
         <f aca="false">price!AB1</f>
         <v>l:diet</v>
       </c>
-      <c r="AI1" s="7" t="str">
+      <c r="AJ1" s="7" t="str">
         <f aca="false">price!AC1</f>
         <v>l:meals</v>
       </c>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="6" t="str">
-        <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AJ1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AJ1,#REF!,0)+1)), "")</f>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="6" t="str">
+        <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AK1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AK1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>45078</v>
       </c>
@@ -1228,94 +1232,97 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="M2" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Q2" s="10"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="X2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>45079</v>
       </c>
@@ -1324,88 +1331,89 @@
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="Z3" s="9"/>
       <c r="AA3" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>45080</v>
       </c>
@@ -1414,80 +1422,81 @@
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="7"/>
       <c r="T4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
-      <c r="AA4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="AC4" s="10"/>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AE4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="AG4" s="10"/>
       <c r="AH4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI4" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>45081</v>
       </c>
@@ -1496,82 +1505,83 @@
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Q5" s="10"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="6"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="AC5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>45082</v>
       </c>
@@ -1580,86 +1590,89 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="7" t="s">
+      <c r="Y6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>45083</v>
       </c>
@@ -1668,82 +1681,83 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="10"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>45084</v>
       </c>
@@ -1752,92 +1766,93 @@
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V8" s="7" t="s">
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>45085</v>
       </c>
@@ -1846,94 +1861,95 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="T9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="7" t="s">
+      <c r="X9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>18</v>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>45086</v>
       </c>
@@ -1942,82 +1958,83 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="10"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="6"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>45087</v>
       </c>
@@ -2026,82 +2043,81 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="10"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="W11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH11" s="9"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="AI11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>45088</v>
       </c>
@@ -2110,88 +2126,89 @@
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="N12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="7"/>
       <c r="T12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="X12" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AB12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG12" s="6" t="s">
+      <c r="AG12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>45089</v>
       </c>
@@ -2200,93 +2217,96 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="O13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="10"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="R13" s="10"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="9"/>
       <c r="AA13" s="6" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AH13" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="AI13" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>45090</v>
       </c>
@@ -2295,97 +2315,98 @@
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="T14" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="Z14" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="AA14" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AG14" s="6" t="s">
+      <c r="AH14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="AI14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>45091</v>
       </c>
@@ -2396,37 +2417,38 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="10"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="6"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="9"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="6"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="9"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>45092</v>
       </c>
@@ -2437,38 +2459,39 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="10"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="9"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="6"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="9"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>45093</v>
       </c>
@@ -2479,38 +2502,39 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="10"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="6"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="9"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="6"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="9"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>45094</v>
       </c>
@@ -2521,35 +2545,36 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="10"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="6"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="9"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="6"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="9"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>45095</v>
       </c>
@@ -2560,35 +2585,36 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="10"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="6"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="9"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="6"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="6"/>
+      <c r="Z19" s="9"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>45096</v>
       </c>
@@ -2599,39 +2625,40 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="6"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="7"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="9"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="7"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="9"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="9"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="6"/>
       <c r="AI20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>45097</v>
       </c>
@@ -2642,38 +2669,39 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="10"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="6"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="7"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="9"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="6"/>
+      <c r="Z21" s="9"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>45098</v>
       </c>
@@ -2684,39 +2712,40 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="10"/>
+      <c r="P22" s="6"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="6"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="7"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="9"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="6"/>
+      <c r="Z22" s="9"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="9"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="6"/>
       <c r="AI22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>45099</v>
       </c>
@@ -2727,39 +2756,40 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="10"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="6"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="9"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="6"/>
+      <c r="Z23" s="9"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="9"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="6"/>
       <c r="AI23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>45100</v>
       </c>
@@ -2770,37 +2800,38 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="10"/>
+      <c r="P24" s="6"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="6"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="9"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="6"/>
+      <c r="Z24" s="9"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>45101</v>
       </c>
@@ -2811,36 +2842,37 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="10"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="6"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="9"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="9"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="9"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="6"/>
       <c r="AI25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>45102</v>
       </c>
@@ -2851,35 +2883,36 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="10"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="6"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="9"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="8"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="9"/>
       <c r="AG26" s="6"/>
-      <c r="AH26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>45103</v>
       </c>
@@ -2890,39 +2923,40 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="10"/>
+      <c r="P27" s="6"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="6"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="9"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="8"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="6"/>
+      <c r="Z27" s="9"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="9"/>
       <c r="AG27" s="6"/>
-      <c r="AH27" s="9"/>
+      <c r="AH27" s="6"/>
       <c r="AI27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AJ27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>45104</v>
       </c>
@@ -2933,38 +2967,39 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="10"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="6"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="9"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="7"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="9"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>45105</v>
       </c>
@@ -2975,37 +3010,38 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="10"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="6"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="7"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="9"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="7"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="9"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>45106</v>
       </c>
@@ -3016,38 +3052,39 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="10"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="6"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="7"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="9"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="7"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="6"/>
+      <c r="Z30" s="9"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>45107</v>
       </c>
@@ -3058,230 +3095,232 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="10"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="6"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="7"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="9"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="7"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="9"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="10"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="6"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="7"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="9"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="7"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
-      <c r="Z32" s="6"/>
+      <c r="Z32" s="9"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AJ3:AK4 M28:S32 B28:B32 V20:AC25 V28:AC32 X2:AK2 J28:K32 X3:AI3 A3:A32 K2:V2 F5:F12 F20:F24 F27:F31 T5:U32 V5:V19 X5:AC19 L9:L32 H9:I32 H5:L8 N5:S10 J9:K25 AD5:AI32 B3:B25 A1:E2 C3:E32 F3:G4 F14:F17 F2:I2 F1:AK1 H3:V3 M11:S25">
+  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G5:G12 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 A1:F2 C3:E32 F3:H4 G14:G17 G2:J2 G1:AL1 I3:W3 N11:T25 F5:F32">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3 W5:W19">
+  <conditionalFormatting sqref="X2:X3 X5:X19">
     <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="1">
-      <formula>LEFT(W2,LEN("!"))="!"</formula>
+      <formula>LEFT(X2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27 M26:S27 V26:AC27 J26:K27">
+  <conditionalFormatting sqref="B26:B27 N26:T27 W26:AD27 K26:L27">
     <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="2">
       <formula>LEFT(B26,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="K2">
     <cfRule type="beginsWith" priority="5" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="3">
-      <formula>LEFT(J2,LEN("!"))="!"</formula>
+      <formula>LEFT(K2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:V4 X4:AI4 M5:M10">
+  <conditionalFormatting sqref="I4:W4 Y4:AJ4 N5:N10">
     <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
-      <formula>LEFT(H4,LEN("!"))="!"</formula>
+      <formula>LEFT(I4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4">
+  <conditionalFormatting sqref="X4">
     <cfRule type="beginsWith" priority="7" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="5">
-      <formula>LEFT(W4,LEN("!"))="!"</formula>
+      <formula>LEFT(X4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="33">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M32:N32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N32:O32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI2:AI32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P3:P32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q3:Q32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;+ если был сон&#10;например: С+" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;+ если был сон&#10;например: С+" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число чашек" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число чашек" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF2:AF31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG2:AG31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG2:AG31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH2:AH31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH2:AH31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI2:AI31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K3:K32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L3:L32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R2:R7 R9:R32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S2:S7 S9:S32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S2:S7 S9:S32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T7 T9:T32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2:J31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P2:P31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2:Q31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R2:R31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение ранее запланированных заданий. Кто сколько сделал:&#10;L1,E5 например" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W2:W19" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение ранее запланированных заданий. Кто сколько сделал:&#10;L1,E5 например" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X2:X19" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V2:V32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE3:AE32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF3:AF32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD2:AD32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий за вычетом невыполненных" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий за вычетом невыполненных" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4193,7 +4232,7 @@
   </sheetPr>
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -4201,7 +4240,7 @@
       <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.72"/>
@@ -4582,7 +4621,7 @@
     </row>
     <row r="5" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>151</v>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="171">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -420,66 +420,87 @@
     <t xml:space="preserve">l:meals</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
+    <t xml:space="preserve">PRICE</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
   </si>
   <si>
-    <t xml:space="preserve">10*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;.23": " -2*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75*</t>
+    <t xml:space="preserve">{"&gt;.0": "10*" , "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "50*", "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "75*", "-": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"1": 50, "0": -150}</t>
   </si>
   <si>
-    <t xml:space="preserve">20*</t>
+    <t xml:space="preserve">{"+": 0, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 50, "-": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 50, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "20*", "-": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{9: 0, "True": -25}</t>
+    <t xml:space="preserve">{"9": 0, "+": -25, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "20*", "-": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
   </si>
   <si>
+    <t xml:space="preserve">{"+": 0, "0": -50}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.3": "15*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"9": 50, "True": 0}</t>
+    <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "20*", "False": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.3": "20*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">child</t>
   </si>
   <si>
-    <t xml:space="preserve">{'True': '25%*', 'False': '-12%'}</t>
+    <t xml:space="preserve">{'True': 25%*, 'False':-12%}</t>
   </si>
   <si>
     <t xml:space="preserve">25%*</t>
   </si>
   <si>
+    <t xml:space="preserve">50%*</t>
+  </si>
+  <si>
     <t xml:space="preserve">-25%*</t>
   </si>
   <si>
+    <t xml:space="preserve">-12%*</t>
+  </si>
+  <si>
     <t xml:space="preserve">duty24</t>
   </si>
   <si>
@@ -501,13 +522,19 @@
     <t xml:space="preserve">logic</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interval</t>
+    <t xml:space="preserve">every N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
   </si>
 </sst>
 </file>
@@ -519,7 +546,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="d/m;@"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
   <fonts count="6">
@@ -570,14 +597,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFF8181"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFA9D18E"/>
       </patternFill>
     </fill>
     <fill>
@@ -607,11 +634,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -661,6 +688,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -687,7 +721,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -796,7 +830,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,11 +846,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,10 +859,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,10 +878,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -865,10 +887,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,10 +902,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -900,7 +914,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,7 +927,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -963,11 +977,88 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -1008,10 +1099,10 @@
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1039,18 +1130,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6"/>
@@ -2418,9 +2508,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G15" s="6"/>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
       <c r="K15" s="6"/>
@@ -2460,9 +2548,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G16" s="6"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
       <c r="K16" s="6"/>
@@ -2503,9 +2589,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
       <c r="K17" s="6"/>
@@ -2626,9 +2710,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="K20" s="6"/>
@@ -2670,9 +2752,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
       <c r="K21" s="6"/>
@@ -2713,9 +2793,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
       <c r="K22" s="6"/>
@@ -2757,9 +2835,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G23" s="6"/>
       <c r="I23" s="8"/>
       <c r="J23" s="9"/>
       <c r="K23" s="6"/>
@@ -2801,9 +2877,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G24" s="6"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
       <c r="K24" s="6"/>
@@ -2924,9 +2998,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
       <c r="K27" s="6"/>
@@ -2968,9 +3040,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G28" s="6"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
       <c r="K28" s="6"/>
@@ -3011,9 +3081,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
       <c r="K29" s="6"/>
@@ -3053,9 +3121,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="I30" s="8"/>
       <c r="J30" s="9"/>
       <c r="K30" s="6"/>
@@ -3096,9 +3162,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="G31" s="6"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
       <c r="K31" s="6"/>
@@ -3161,7 +3225,7 @@
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G5:G12 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 A1:F2 C3:E32 F3:H4 G14:G17 G2:J2 G1:AL1 I3:W3 N11:T25 F5:F32">
+  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 C15:F32 F3:H4 G2:G17 H2:J2 H1:AL1 I3:W3 N11:T25 A1:G2 C3:E14 F5:F14">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3191,7 +3255,7 @@
       <formula>LEFT(X4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="33">
+  <dataValidations count="32">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3244,7 +3308,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L3:L32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3293,10 +3357,6 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4233,38 +4293,40 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="AC6" activeCellId="0" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="32.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="24.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="33.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="40.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="36.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="39.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="33.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.09"/>
   </cols>
   <sheetData>
     <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,7 +4418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
         <v>132</v>
       </c>
@@ -4372,840 +4434,821 @@
       <c r="E2" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="28" t="s">
         <v>135</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="31" t="n">
+      <c r="I2" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB3" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="T4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="V4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC4" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="W5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="W6" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="V8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="X8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB8" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC8" s="44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC9" s="47"/>
+    </row>
+    <row r="10" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="47"/>
+    </row>
+    <row r="11" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="45" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47" t="n">
         <v>50</v>
       </c>
-      <c r="K2" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA2" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="29" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="E3" s="29" t="n">
-        <v>-50</v>
-      </c>
-      <c r="F3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="H3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="31" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J3" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="N3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="O3" s="28" t="n">
-        <v>-50</v>
-      </c>
-      <c r="P3" s="29" t="n">
-        <v>-50</v>
-      </c>
-      <c r="Q3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="U3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="V3" s="31" t="n">
-        <v>-50</v>
-      </c>
-      <c r="W3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="29" t="n">
-        <v>-50</v>
-      </c>
-      <c r="Y3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="30" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AB3" s="31" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AC3" s="31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB4" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC4" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="V5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="X5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB5" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC5" s="35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="U6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="V6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="W6" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="X6" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB6" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC6" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="U7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="V7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="W7" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB7" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC7" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="R8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="T8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="U8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="X8" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB8" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC8" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="R9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="U9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="V9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="W9" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="X9" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB9" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC9" s="48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="P10" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="U10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="V10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="W10" s="50"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB10" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC10" s="52"/>
-    </row>
-    <row r="11" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" s="50"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="52"/>
-    </row>
-    <row r="12" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="50" t="n">
+      <c r="J11" s="47"/>
+      <c r="K11" s="47" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47" t="n">
+        <v>30</v>
+      </c>
+      <c r="O11" s="45" t="n">
+        <v>30</v>
+      </c>
+      <c r="P11" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="U11" s="47" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52" t="n">
+      <c r="V11" s="47" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="O12" s="50" t="n">
-        <v>30</v>
-      </c>
-      <c r="P12" s="51" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="U12" s="52" t="n">
+      <c r="W11" s="45"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47" t="n">
         <v>25</v>
       </c>
-      <c r="V12" s="52" t="n">
+      <c r="AB11" s="47" t="n">
         <v>25</v>
       </c>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB12" s="52" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC12" s="52"/>
+      <c r="AC11" s="47"/>
+    </row>
+    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D10 I11:I12 K11:K12 N11:P12 T11:T12 A6:AC9">
+  <conditionalFormatting sqref="D9 I10:I11 K10:K11 N10:P11 T10:T11 A5:AC8">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": "50*", "-": -50}</t>
+    <t xml:space="preserve">{"&gt;.0": "25*", "-": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;.0": "75*", "-": -50}</t>
@@ -486,7 +486,7 @@
     <t xml:space="preserve">child</t>
   </si>
   <si>
-    <t xml:space="preserve">{'True': 25%*, 'False':-12%}</t>
+    <t xml:space="preserve">{"True": "25%*", "False": "-12%*"}</t>
   </si>
   <si>
     <t xml:space="preserve">25%*</t>
@@ -549,7 +549,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -586,6 +586,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -721,7 +727,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -858,6 +864,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -882,11 +892,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1125,15 +1139,15 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -4292,19 +4306,19 @@
   </sheetPr>
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC6" activeCellId="0" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.51"/>
@@ -4507,47 +4521,47 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>154</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="F3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="34" t="s">
+      <c r="L3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="35" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="32" t="s">
@@ -4556,22 +4570,22 @@
       <c r="P3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" s="34" t="s">
+      <c r="Q3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="V3" s="35" t="s">
         <v>155</v>
       </c>
       <c r="W3" s="32" t="s">
@@ -4580,19 +4594,19 @@
       <c r="X3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="Y3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB3" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC3" s="34" t="s">
+      <c r="Y3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="35" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4603,7 +4617,7 @@
       <c r="B4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -4612,31 +4626,31 @@
       <c r="E4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="35" t="s">
         <v>157</v>
       </c>
       <c r="O4" s="32" t="s">
@@ -4645,22 +4659,22 @@
       <c r="P4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="35" t="s">
         <v>157</v>
       </c>
       <c r="W4" s="32" t="s">
@@ -4669,516 +4683,516 @@
       <c r="X4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AB4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="W5" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB5" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC5" s="37" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="T5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="U5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="V5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="W5" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB5" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC5" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="T6" s="37" t="s">
+      <c r="T6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="U6" s="37" t="s">
+      <c r="U6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="V6" s="37" t="s">
+      <c r="V6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="X6" s="36" t="s">
+      <c r="X6" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="37" t="s">
+      <c r="Y6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="Z6" s="37" t="s">
+      <c r="Z6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AA6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AC6" s="37" t="s">
+      <c r="AC6" s="38" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="T7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="V7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="W7" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB7" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC7" s="41" t="s">
+      <c r="C7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="T7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="W7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="42" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44" t="s">
+      <c r="S8" s="46"/>
+      <c r="T8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="W8" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="X8" s="43" t="s">
+      <c r="X8" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="44" t="s">
+      <c r="Y8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44" t="s">
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="AB8" s="44" t="s">
+      <c r="AB8" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="AC8" s="44" t="s">
+      <c r="AC8" s="46" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+    <row r="9" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="45" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="45" t="s">
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="45" t="s">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="U9" s="45" t="s">
+      <c r="U9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="V9" s="45" t="s">
+      <c r="V9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="45" t="s">
+      <c r="W9" s="47"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="AB9" s="45" t="s">
+      <c r="AB9" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="AC9" s="47"/>
-    </row>
-    <row r="10" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="AC9" s="49"/>
+    </row>
+    <row r="10" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="45" t="n">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47" t="n">
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47" t="n">
+      <c r="H10" s="49"/>
+      <c r="I10" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47" t="n">
+      <c r="J10" s="49"/>
+      <c r="K10" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47" t="n">
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="45" t="n">
+      <c r="O10" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="46" t="n">
+      <c r="P10" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47" t="n">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="47" t="n">
+      <c r="U10" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="47" t="n">
+      <c r="V10" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47" t="n">
+      <c r="W10" s="47"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="47" t="n">
+      <c r="AB10" s="49" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="47"/>
-    </row>
-    <row r="11" s="48" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+      <c r="AC10" s="49"/>
+    </row>
+    <row r="11" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="45" t="n">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="47" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47" t="n">
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47" t="n">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47" t="n">
+      <c r="J11" s="49"/>
+      <c r="K11" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47" t="n">
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="45" t="n">
+      <c r="O11" s="47" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="46" t="n">
+      <c r="P11" s="48" t="n">
         <v>30</v>
       </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47" t="s">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="U11" s="47" t="n">
+      <c r="U11" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="V11" s="47" t="n">
+      <c r="V11" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47" t="n">
+      <c r="W11" s="47"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="AB11" s="47" t="n">
+      <c r="AB11" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="AC11" s="47"/>
+      <c r="AC11" s="49"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="173">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -99,6 +99,9 @@
     <t xml:space="preserve">22:10</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.5</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
     <t xml:space="preserve">E4</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">23:30</t>
   </si>
   <si>
@@ -480,7 +486,7 @@
     <t xml:space="preserve">{"&gt;.0": "20*", "False": -50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.3": "20*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
+    <t xml:space="preserve">{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">child</t>
@@ -592,6 +598,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1140,11 +1147,11 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="Y9" activeCellId="0" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1410,14 +1417,14 @@
         <v>13</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>20</v>
@@ -1438,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
@@ -1452,13 +1459,13 @@
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="6" t="s">
@@ -1476,15 +1483,17 @@
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
+      <c r="W3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="X3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
@@ -1492,23 +1501,23 @@
         <v>20</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" s="10"/>
       <c r="AH3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>20</v>
@@ -1532,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1567,19 +1576,21 @@
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="V4" s="10"/>
-      <c r="W4" s="7"/>
+      <c r="W4" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
@@ -1591,7 +1602,7 @@
       </c>
       <c r="AG4" s="10"/>
       <c r="AH4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>20</v>
@@ -1616,11 +1627,11 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>22</v>
@@ -1656,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
@@ -1671,14 +1682,14 @@
         <v>22</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AG5" s="10"/>
       <c r="AH5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>20</v>
@@ -1700,23 +1711,23 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>19</v>
@@ -1735,7 +1746,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="7"/>
       <c r="T6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>20</v>
@@ -1755,7 +1766,7 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>20</v>
@@ -1769,7 +1780,7 @@
       </c>
       <c r="AG6" s="10"/>
       <c r="AH6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>20</v>
@@ -1792,20 +1803,20 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>19</v>
@@ -1840,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>20</v>
@@ -1854,7 +1865,7 @@
       </c>
       <c r="AG7" s="10"/>
       <c r="AH7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>20</v>
@@ -1876,21 +1887,21 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>19</v>
@@ -1911,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>20</v>
@@ -1927,13 +1938,13 @@
       </c>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>20</v>
@@ -1942,14 +1953,14 @@
         <v>22</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AH8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI8" s="9" t="s">
         <v>20</v>
@@ -1971,15 +1982,15 @@
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>14</v>
@@ -2008,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>20</v>
@@ -2020,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
@@ -2028,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>20</v>
@@ -2037,14 +2048,14 @@
         <v>13</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AH9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>20</v>
@@ -2069,20 +2080,20 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>19</v>
@@ -2109,7 +2120,7 @@
         <v>21</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
@@ -2117,16 +2128,16 @@
         <v>20</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF10" s="9" t="s">
         <v>19</v>
@@ -2150,25 +2161,25 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>19</v>
@@ -2200,23 +2211,23 @@
         <v>20</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
@@ -2233,15 +2244,15 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>22</v>
@@ -2250,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>19</v>
@@ -2259,7 +2270,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>17</v>
@@ -2271,7 +2282,7 @@
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>20</v>
@@ -2281,7 +2292,7 @@
         <v>21</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -2289,23 +2300,23 @@
         <v>20</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AG12" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9" t="s">
@@ -2324,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>13</v>
@@ -2351,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>17</v>
@@ -2375,33 +2386,33 @@
         <v>21</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="AG13" s="10"/>
       <c r="AH13" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AI13" s="9" t="s">
         <v>20</v>
@@ -2422,32 +2433,32 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>19</v>
@@ -2463,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>20</v>
@@ -2471,19 +2482,21 @@
       <c r="V14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="X14" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>20</v>
@@ -2492,16 +2505,16 @@
         <v>13</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="AG14" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI14" s="9" t="s">
         <v>20</v>
@@ -3239,7 +3252,7 @@
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 C15:F32 F3:H4 G2:G17 H2:J2 H1:AL1 I3:W3 N11:T25 A1:G2 C3:E14 F5:F14">
+  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 AF2:AL2 K28:L32 AF3:AJ3 A3:A32 L2:W2 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 C15:F32 F3:H4 G2:G17 H2:J2 H1:AL1 I3:W3 N11:T25 A1:G2 C3:E14 F5:F14 Y2:AE3">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3259,7 +3272,7 @@
       <formula>LEFT(K2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:W4 Y4:AJ4 N5:N10">
+  <conditionalFormatting sqref="I4:W4 N5:N10 Y4:AJ4">
     <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
       <formula>LEFT(I4,LEN("!"))="!"</formula>
     </cfRule>
@@ -3269,7 +3282,7 @@
       <formula>LEFT(X4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="32">
+  <dataValidations count="33">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3382,7 +3395,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE15:AE32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3395,6 +3408,10 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J31" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3448,28 +3465,28 @@
         <v>#NAME?</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,12 +3505,12 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="22"/>
       <c r="I2" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="22"/>
@@ -3512,14 +3529,14 @@
         <v>#NAME?</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="22"/>
@@ -3539,15 +3556,15 @@
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="22"/>
       <c r="I4" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="22"/>
@@ -3568,12 +3585,12 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="22"/>
       <c r="I5" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="22"/>
@@ -3592,16 +3609,16 @@
         <v>#NAME?</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22"/>
       <c r="I6" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="22"/>
@@ -3622,12 +3639,12 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
@@ -3648,12 +3665,12 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="22"/>
       <c r="I8" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="22"/>
@@ -3673,15 +3690,15 @@
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
@@ -3702,12 +3719,12 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="22"/>
       <c r="I10" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
@@ -3726,12 +3743,12 @@
         <v>#NAME?</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="22"/>
       <c r="I11" s="23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
@@ -3752,12 +3769,12 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -3778,7 +3795,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="22"/>
@@ -3799,20 +3816,20 @@
         <v>#NAME?</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
@@ -3833,7 +3850,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="22"/>
@@ -3856,17 +3873,17 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
@@ -3887,12 +3904,12 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="22"/>
       <c r="I17" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
@@ -3913,12 +3930,12 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="22"/>
       <c r="I18" s="23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J18" s="21"/>
       <c r="K18" s="22"/>
@@ -3939,12 +3956,12 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="22"/>
@@ -3965,12 +3982,12 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
@@ -3991,12 +4008,12 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="22"/>
@@ -4015,18 +4032,18 @@
         <v>#NAME?</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="22"/>
       <c r="I22" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="22"/>
@@ -4047,12 +4064,12 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="22"/>
       <c r="I23" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
@@ -4073,12 +4090,12 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="22"/>
       <c r="I24" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
@@ -4099,12 +4116,12 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
@@ -4125,12 +4142,12 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="22"/>
@@ -4151,16 +4168,16 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="22"/>
@@ -4179,18 +4196,18 @@
         <v>#NAME?</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="22"/>
       <c r="I28" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="22"/>
@@ -4211,7 +4228,7 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="22"/>
@@ -4235,10 +4252,10 @@
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
@@ -4261,7 +4278,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="22"/>
@@ -4307,14 +4324,14 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="AC2" activeCellId="0" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.89"/>
@@ -4345,269 +4362,269 @@
   <sheetData>
     <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T1" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W1" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Z1" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA1" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AB1" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AC1" s="26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F2" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>135</v>
-      </c>
       <c r="H2" s="30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>139</v>
-      </c>
       <c r="O2" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P2" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="S2" s="30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="U2" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="V2" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="29" t="s">
+      <c r="AA2" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA2" s="30" t="s">
-        <v>148</v>
-      </c>
       <c r="AB2" s="30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AC2" s="30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC3" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,93 +4632,93 @@
         <v>6</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AA4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AB4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AC4" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="38"/>
@@ -4718,371 +4735,371 @@
       <c r="N5" s="38"/>
       <c r="O5" s="39"/>
       <c r="P5" s="37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W5" s="39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X5" s="37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC5" s="38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O6" s="39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P6" s="37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AB6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC6" s="38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W7" s="40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X7" s="43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC7" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P8" s="45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S8" s="46"/>
       <c r="T8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="V8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="W8" s="44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="X8" s="45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Z8" s="46"/>
       <c r="AA8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AC8" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49"/>
       <c r="D9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="49"/>
       <c r="G9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H9" s="49"/>
       <c r="I9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J9" s="49"/>
       <c r="K9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
       <c r="N9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="49"/>
       <c r="R9" s="49"/>
       <c r="S9" s="49"/>
       <c r="T9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="V9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W9" s="47"/>
       <c r="X9" s="48"/>
       <c r="Y9" s="49"/>
       <c r="Z9" s="49"/>
       <c r="AA9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB9" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AC9" s="49"/>
     </row>
     <row r="10" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="49"/>
@@ -5139,7 +5156,7 @@
     </row>
     <row r="11" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
@@ -5174,7 +5191,7 @@
       <c r="R11" s="49"/>
       <c r="S11" s="49"/>
       <c r="T11" s="49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U11" s="49" t="n">
         <v>25</v>
@@ -5196,13 +5213,13 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="173">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -486,28 +486,31 @@
     <t xml:space="preserve">child</t>
   </si>
   <si>
-    <t xml:space="preserve">{"True": "25%*", "False": "-12%*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25%*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12%*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-50%, -25%, 0]</t>
+    <t xml:space="preserve">{"True": "0.25*", "False": "0.12*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"True": "+0.25*", "False": "-0.12*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"True": "+0.5*", "False": "-0.12*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.5, -0.25, 0]</t>
   </si>
   <si>
     <t xml:space="preserve">weak</t>
@@ -516,7 +519,10 @@
     <t xml:space="preserve">sleep</t>
   </si>
   <si>
-    <t xml:space="preserve">20%</t>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.2</t>
   </si>
   <si>
     <t xml:space="preserve">logic</t>
@@ -727,7 +733,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,18 +866,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,6 +902,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,11 +922,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,6 +935,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4311,20 +4349,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.57"/>
@@ -4528,96 +4566,96 @@
       <c r="B3" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>154</v>
+      <c r="C3" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>156</v>
       </c>
       <c r="L3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="36" t="s">
         <v>155</v>
       </c>
       <c r="P3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="36" t="s">
         <v>155</v>
       </c>
       <c r="X3" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Y3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AA3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -4626,583 +4664,583 @@
       <c r="E4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="36" t="s">
         <v>157</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="36" t="s">
         <v>157</v>
       </c>
       <c r="X4" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Y4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="AA4" s="35" t="s">
+      <c r="AA4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="AB4" s="35" t="s">
+      <c r="AB4" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+    <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="37" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="X5" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC5" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="V6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB6" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC6" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="D7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="E7" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="F7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="G7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="H7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="I7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="J7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="K7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="Y5" s="38" t="s">
+      <c r="L7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="Z5" s="38" t="s">
+      <c r="M7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AA5" s="38" t="s">
+      <c r="N7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AB5" s="38" t="s">
+      <c r="O7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AC5" s="38" t="s">
+      <c r="P7" s="46" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="P6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="S6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="U6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="V6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="W6" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC6" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="Q7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="R7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="S7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="T7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="U7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="V7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="W7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="X7" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="Y7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="Z7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="AA7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="AB7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O7" s="40" t="s">
+      <c r="AC7" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="R7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="V7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="W7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB7" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC7" s="42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="45" t="s">
+    </row>
+    <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="V8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="W8" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="X8" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB8" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC8" s="46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
+      <c r="B8" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="47" t="s">
+      <c r="D8" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="47" t="s">
+      <c r="E8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="47" t="s">
+      <c r="F8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="47" t="s">
+      <c r="G8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="H8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="I8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="47" t="s">
+      <c r="J8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="U9" s="47" t="s">
+      <c r="K8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="V9" s="47" t="s">
+      <c r="L8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="W9" s="47"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="47" t="s">
+      <c r="M8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="AB9" s="47" t="s">
+      <c r="N8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="AC9" s="49"/>
-    </row>
-    <row r="10" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
+      <c r="O8" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" s="54"/>
+      <c r="T8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="W8" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="X8" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB8" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC8" s="51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="47" t="n">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="57"/>
+      <c r="K9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49" t="n">
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49" t="n">
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49" t="n">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49" t="n">
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="47" t="n">
+      <c r="O10" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="48" t="n">
+      <c r="P10" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49" t="n">
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="49" t="n">
+      <c r="U10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="49" t="n">
+      <c r="V10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="47"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49" t="n">
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="49" t="n">
+      <c r="AB10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="49"/>
-    </row>
-    <row r="11" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="47" t="n">
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49" t="n">
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49" t="n">
+      <c r="H11" s="57"/>
+      <c r="I11" s="57" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49" t="n">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49" t="n">
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="47" t="n">
+      <c r="O11" s="55" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="48" t="n">
+      <c r="P11" s="56" t="n">
         <v>30</v>
       </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="U11" s="49" t="n">
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="V11" s="49" t="n">
+      <c r="V11" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="47"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49" t="n">
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="AB11" s="49" t="n">
+      <c r="AB11" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="AC11" s="49"/>
+      <c r="AC11" s="57"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="173">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -471,7 +471,7 @@
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.3": "15*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
+    <t xml:space="preserve">{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
@@ -480,7 +480,7 @@
     <t xml:space="preserve">{"&gt;.0": "20*", "False": -50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.3": "20*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
+    <t xml:space="preserve">{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">child</t>
@@ -555,7 +555,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -579,6 +579,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -598,6 +604,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -733,7 +740,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -778,35 +785,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,19 +845,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,11 +881,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,7 +893,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,15 +917,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,15 +933,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -938,15 +953,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1177,12 +1192,12 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="AJ4" activeCellId="0" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1416,9 +1431,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="T2" s="6"/>
       <c r="U2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1447,9 @@
       <c r="Y2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="9"/>
+      <c r="Z2" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="AA2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1468,9 @@
       <c r="AF2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="10"/>
+      <c r="AG2" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH2" s="6" t="s">
         <v>26</v>
       </c>
@@ -1525,7 +1542,9 @@
         <v>25</v>
       </c>
       <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
+      <c r="Z3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1563,9 @@
       <c r="AF3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="10"/>
+      <c r="AG3" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1614,7 +1635,9 @@
       <c r="W4" s="7"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10" t="s">
         <v>38</v>
@@ -1627,7 +1650,9 @@
       <c r="AF4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AG4" s="10"/>
+      <c r="AG4" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1697,7 +1722,9 @@
         <v>34</v>
       </c>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
+      <c r="Z5" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="s">
         <v>19</v>
@@ -1714,7 +1741,9 @@
       <c r="AF5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG5" s="10"/>
+      <c r="AG5" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1819,9 @@
       <c r="Y6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="9"/>
+      <c r="Z6" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6" t="s">
         <v>44</v>
@@ -1805,7 +1836,9 @@
       <c r="AF6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG6" s="10"/>
+      <c r="AG6" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1893,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="13"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -1873,7 +1906,9 @@
       <c r="Y7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1890,7 +1925,9 @@
       <c r="AF7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AG7" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1985,7 +2022,9 @@
       <c r="AF8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="10"/>
+      <c r="AG8" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2061,7 +2100,9 @@
         <v>49</v>
       </c>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA9" s="6" t="s">
         <v>20</v>
       </c>
@@ -2080,7 +2121,9 @@
       <c r="AF9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG9" s="10"/>
+      <c r="AG9" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2150,7 +2193,9 @@
         <v>34</v>
       </c>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
+      <c r="Z10" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2169,7 +2214,9 @@
       <c r="AF10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG10" s="10"/>
+      <c r="AG10" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="9" t="s">
         <v>20</v>
@@ -2233,7 +2280,9 @@
         <v>13</v>
       </c>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
+      <c r="Z11" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA11" s="6" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +2301,9 @@
       <c r="AF11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG11" s="10"/>
+      <c r="AG11" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2373,9 @@
         <v>54</v>
       </c>
       <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2392,7 @@
       <c r="AF12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AG12" s="10" t="s">
+      <c r="AG12" s="6" t="s">
         <v>56</v>
       </c>
       <c r="AH12" s="6" t="s">
@@ -2418,7 +2471,9 @@
       <c r="Y13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="AA13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2437,7 +2492,9 @@
       <c r="AF13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AG13" s="10"/>
+      <c r="AG13" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="AH13" s="6" t="s">
         <v>59</v>
       </c>
@@ -2535,7 +2592,7 @@
       <c r="AF14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AG14" s="10" t="s">
+      <c r="AG14" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AH14" s="6" t="s">
@@ -2585,7 +2642,7 @@
       <c r="AD15" s="6"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="10"/>
+      <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2682,7 @@
       <c r="AD16" s="6"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="9"/>
-      <c r="AG16" s="10"/>
+      <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="9"/>
     </row>
@@ -2666,7 +2723,7 @@
       <c r="AD17" s="6"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="9"/>
-      <c r="AG17" s="10"/>
+      <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="9"/>
     </row>
@@ -2706,7 +2763,7 @@
       <c r="AD18" s="6"/>
       <c r="AE18" s="8"/>
       <c r="AF18" s="9"/>
-      <c r="AG18" s="10"/>
+      <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="9"/>
     </row>
@@ -2746,7 +2803,7 @@
       <c r="AD19" s="6"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="9"/>
-      <c r="AG19" s="10"/>
+      <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="9"/>
     </row>
@@ -2787,7 +2844,7 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="9"/>
-      <c r="AG20" s="10"/>
+      <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
@@ -2829,7 +2886,7 @@
       <c r="AD21" s="6"/>
       <c r="AE21" s="8"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="10"/>
+      <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="9"/>
     </row>
@@ -2870,7 +2927,7 @@
       <c r="AD22" s="6"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="9"/>
-      <c r="AG22" s="10"/>
+      <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
@@ -2912,7 +2969,7 @@
       <c r="AD23" s="6"/>
       <c r="AE23" s="8"/>
       <c r="AF23" s="9"/>
-      <c r="AG23" s="10"/>
+      <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
@@ -2954,7 +3011,7 @@
       <c r="AD24" s="6"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="9"/>
-      <c r="AG24" s="10"/>
+      <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +3050,7 @@
       <c r="AD25" s="6"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="9"/>
-      <c r="AG25" s="10"/>
+      <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
@@ -3117,7 +3174,7 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="9"/>
-      <c r="AG28" s="10"/>
+      <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="9"/>
     </row>
@@ -3158,7 +3215,7 @@
       <c r="AD29" s="6"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="9"/>
-      <c r="AG29" s="10"/>
+      <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,7 +3255,7 @@
       <c r="AD30" s="6"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="9"/>
-      <c r="AG30" s="10"/>
+      <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="9"/>
     </row>
@@ -3239,7 +3296,7 @@
       <c r="AD31" s="6"/>
       <c r="AE31" s="8"/>
       <c r="AF31" s="9"/>
-      <c r="AG31" s="10"/>
+      <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,865 +3517,865 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="13" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="13" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="13" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="13" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="15" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="str">
+      <c r="A1" s="16" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="15" t="str">
+      <c r="B1" s="17" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="16" t="e">
+      <c r="C1" s="18" t="e">
         <f aca="false">vedomost!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="21" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="20" t="n">
+      <c r="B2" s="22" t="n">
         <f aca="false">vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="e">
+      <c r="C2" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="21" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="22" t="n">
         <f aca="false">vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="21" t="e">
+      <c r="C3" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="16" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="22" t="n">
         <f aca="false">vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="21" t="e">
+      <c r="C4" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="16" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="20" t="n">
+      <c r="B5" s="22" t="n">
         <f aca="false">vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="e">
+      <c r="C5" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
+      <c r="A6" s="21" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="20" t="n">
+      <c r="B6" s="22" t="n">
         <f aca="false">vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="e">
+      <c r="C6" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+      <c r="A7" s="21" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="20" t="n">
+      <c r="B7" s="22" t="n">
         <f aca="false">vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="e">
+      <c r="C7" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="n">
+      <c r="A8" s="21" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="20" t="n">
+      <c r="B8" s="22" t="n">
         <f aca="false">vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="e">
+      <c r="C8" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="n">
+      <c r="A9" s="21" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45085</v>
       </c>
-      <c r="B9" s="20" t="n">
+      <c r="B9" s="22" t="n">
         <f aca="false">vedomost!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="e">
+      <c r="C9" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="n">
+      <c r="A10" s="21" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45086</v>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="B10" s="22" t="n">
         <f aca="false">vedomost!B10</f>
         <v>5</v>
       </c>
-      <c r="C10" s="21" t="e">
+      <c r="C10" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="16" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45087</v>
       </c>
-      <c r="B11" s="20" t="n">
+      <c r="B11" s="22" t="n">
         <f aca="false">vedomost!B11</f>
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="e">
+      <c r="C11" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="16" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45088</v>
       </c>
-      <c r="B12" s="20" t="n">
+      <c r="B12" s="22" t="n">
         <f aca="false">vedomost!B12</f>
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="e">
+      <c r="C12" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="16" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45089</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="22" t="n">
         <f aca="false">vedomost!B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="21" t="e">
+      <c r="C13" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="n">
+      <c r="A14" s="21" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45090</v>
       </c>
-      <c r="B14" s="20" t="n">
+      <c r="B14" s="22" t="n">
         <f aca="false">vedomost!B14</f>
         <v>2</v>
       </c>
-      <c r="C14" s="21" t="e">
+      <c r="C14" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="n">
+      <c r="A15" s="21" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45091</v>
       </c>
-      <c r="B15" s="20" t="n">
+      <c r="B15" s="22" t="n">
         <f aca="false">vedomost!B15</f>
         <v>3</v>
       </c>
-      <c r="C15" s="21" t="e">
+      <c r="C15" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="n">
+      <c r="A16" s="21" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45092</v>
       </c>
-      <c r="B16" s="20" t="n">
+      <c r="B16" s="22" t="n">
         <f aca="false">vedomost!B16</f>
         <v>4</v>
       </c>
-      <c r="C16" s="21" t="e">
+      <c r="C16" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="n">
+      <c r="A17" s="21" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45093</v>
       </c>
-      <c r="B17" s="20" t="n">
+      <c r="B17" s="22" t="n">
         <f aca="false">vedomost!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="21" t="e">
+      <c r="C17" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="16" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45094</v>
       </c>
-      <c r="B18" s="20" t="n">
+      <c r="B18" s="22" t="n">
         <f aca="false">vedomost!B18</f>
         <v>6</v>
       </c>
-      <c r="C18" s="21" t="e">
+      <c r="C18" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="16" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45095</v>
       </c>
-      <c r="B19" s="20" t="n">
+      <c r="B19" s="22" t="n">
         <f aca="false">vedomost!B19</f>
         <v>7</v>
       </c>
-      <c r="C19" s="21" t="e">
+      <c r="C19" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="n">
+      <c r="A20" s="21" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45096</v>
       </c>
-      <c r="B20" s="20" t="n">
+      <c r="B20" s="22" t="n">
         <f aca="false">vedomost!B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="21" t="e">
+      <c r="C20" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="n">
+      <c r="A21" s="21" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45097</v>
       </c>
-      <c r="B21" s="20" t="n">
+      <c r="B21" s="22" t="n">
         <f aca="false">vedomost!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="21" t="e">
+      <c r="C21" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="n">
+      <c r="A22" s="21" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45098</v>
       </c>
-      <c r="B22" s="20" t="n">
+      <c r="B22" s="22" t="n">
         <f aca="false">vedomost!B22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="21" t="e">
+      <c r="C22" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="21" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45099</v>
       </c>
-      <c r="B23" s="20" t="n">
+      <c r="B23" s="22" t="n">
         <f aca="false">vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C23" s="21" t="e">
+      <c r="C23" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="13" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="n">
+      <c r="A24" s="21" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45100</v>
       </c>
-      <c r="B24" s="20" t="n">
+      <c r="B24" s="22" t="n">
         <f aca="false">vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C24" s="21" t="e">
+      <c r="C24" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="16" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45101</v>
       </c>
-      <c r="B25" s="20" t="n">
+      <c r="B25" s="22" t="n">
         <f aca="false">vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C25" s="21" t="e">
+      <c r="C25" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="16" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45102</v>
       </c>
-      <c r="B26" s="20" t="n">
+      <c r="B26" s="22" t="n">
         <f aca="false">vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="21" t="e">
+      <c r="C26" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="n">
+      <c r="A27" s="21" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45103</v>
       </c>
-      <c r="B27" s="20" t="n">
+      <c r="B27" s="22" t="n">
         <f aca="false">vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="21" t="e">
+      <c r="C27" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="n">
+      <c r="A28" s="21" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45104</v>
       </c>
-      <c r="B28" s="20" t="n">
+      <c r="B28" s="22" t="n">
         <f aca="false">vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C28" s="21" t="e">
+      <c r="C28" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="13" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="n">
+      <c r="A29" s="21" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45105</v>
       </c>
-      <c r="B29" s="20" t="n">
+      <c r="B29" s="22" t="n">
         <f aca="false">vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C29" s="21" t="e">
+      <c r="C29" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="n">
+      <c r="A30" s="21" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45106</v>
       </c>
-      <c r="B30" s="20" t="n">
+      <c r="B30" s="22" t="n">
         <f aca="false">vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C30" s="21" t="e">
+      <c r="C30" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="n">
+      <c r="A31" s="21" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45107</v>
       </c>
-      <c r="B31" s="20" t="n">
+      <c r="B31" s="22" t="n">
         <f aca="false">vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C31" s="21" t="e">
+      <c r="C31" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4344,12 +4401,12 @@
   </sheetPr>
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4368,869 +4425,869 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="41.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="40.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="36.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="47.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="40.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="28" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="X3" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="36" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="AB4" s="34" t="s">
+      <c r="AB4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="36" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="39" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="W5" s="43" t="s">
+      <c r="W5" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="X5" s="44" t="s">
+      <c r="X5" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AC5" s="42" t="s">
+      <c r="AC5" s="44" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="U6" s="42" t="s">
+      <c r="U6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="X6" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="Y6" s="42" t="s">
+      <c r="Y6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="Z6" s="42" t="s">
+      <c r="Z6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="AA6" s="42" t="s">
+      <c r="AA6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="AB6" s="42" t="s">
+      <c r="AB6" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="AC6" s="42" t="s">
+      <c r="AC6" s="44" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="V7" s="47" t="s">
+      <c r="V7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="W7" s="48" t="s">
+      <c r="W7" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="X7" s="46" t="s">
+      <c r="X7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Y7" s="47" t="s">
+      <c r="Y7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="Z7" s="47" t="s">
+      <c r="Z7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AA7" s="47" t="s">
+      <c r="AA7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AB7" s="47" t="s">
+      <c r="AB7" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="47" t="s">
+      <c r="AC7" s="49" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="51" t="s">
+      <c r="S8" s="56"/>
+      <c r="T8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="V8" s="51" t="s">
+      <c r="V8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="W8" s="52" t="s">
+      <c r="W8" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="X8" s="53" t="s">
+      <c r="X8" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="51" t="s">
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="AB8" s="51" t="s">
+      <c r="AB8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="51" t="s">
+      <c r="AC8" s="53" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="s">
+    <row r="9" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="55" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="55" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="55" t="s">
+      <c r="J9" s="59"/>
+      <c r="K9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="55" t="s">
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="U9" s="55" t="s">
+      <c r="U9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="55" t="s">
+      <c r="W9" s="57"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="AB9" s="55" t="s">
+      <c r="AB9" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55" t="s">
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55" t="n">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57" t="n">
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57" t="n">
+      <c r="H10" s="59"/>
+      <c r="I10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57" t="n">
+      <c r="J10" s="59"/>
+      <c r="K10" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57" t="n">
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="55" t="n">
+      <c r="O10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="56" t="n">
+      <c r="P10" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57" t="n">
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="57" t="n">
+      <c r="U10" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="57" t="n">
+      <c r="V10" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57" t="n">
+      <c r="W10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="57" t="n">
+      <c r="AB10" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55" t="s">
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="55" t="n">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57" t="n">
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57" t="n">
+      <c r="H11" s="59"/>
+      <c r="I11" s="59" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57" t="n">
+      <c r="J11" s="59"/>
+      <c r="K11" s="59" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57" t="n">
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="55" t="n">
+      <c r="O11" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="56" t="n">
+      <c r="P11" s="58" t="n">
         <v>30</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57" t="s">
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="U11" s="57" t="n">
+      <c r="U11" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="V11" s="57" t="n">
+      <c r="V11" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57" t="n">
+      <c r="W11" s="57"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="AB11" s="57" t="n">
+      <c r="AB11" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="AC11" s="57"/>
+      <c r="AC11" s="59"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="172">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -87,6 +87,12 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
     <t xml:space="preserve">L4</t>
   </si>
   <si>
@@ -465,9 +474,6 @@
     <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 0, "0": -50}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
@@ -489,10 +495,7 @@
     <t xml:space="preserve">{"True": "0.25*", "False": "0.12*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"True": "+0.25*", "False": "-0.12*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"True": "+0.5*", "False": "-0.12*"}</t>
+    <t xml:space="preserve">{"True": "0.25*", "False": "-0.12*"}</t>
   </si>
   <si>
     <t xml:space="preserve">-0.25*</t>
@@ -504,7 +507,7 @@
     <t xml:space="preserve">d24</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.25*</t>
+    <t xml:space="preserve">0.25*</t>
   </si>
   <si>
     <t xml:space="preserve">d8</t>
@@ -522,9 +525,6 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">logic</t>
   </si>
   <si>
@@ -538,9 +538,6 @@
   </si>
   <si>
     <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
   </si>
 </sst>
 </file>
@@ -583,6 +580,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -604,7 +602,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -740,7 +737,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -781,19 +778,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,6 +878,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -889,18 +890,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -917,6 +922,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -925,7 +934,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1193,11 +1210,11 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ4" activeCellId="0" sqref="AJ4"/>
+      <selection pane="bottomRight" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1428,10 +1445,18 @@
       <c r="P2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="6"/>
+      <c r="Q2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="U2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1439,13 +1464,13 @@
         <v>20</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>19</v>
@@ -1454,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>20</v>
@@ -1466,13 +1491,13 @@
         <v>20</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI2" s="9" t="s">
         <v>20</v>
@@ -1493,10 +1518,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
@@ -1507,17 +1532,19 @@
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="N3" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>19</v>
@@ -1525,49 +1552,59 @@
       <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="7"/>
+      <c r="Q3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="T3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
+      <c r="V3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="X3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>20</v>
@@ -1591,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1620,41 +1657,59 @@
       <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="T4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
+      <c r="V4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="AE4" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>20</v>
@@ -1679,14 +1734,14 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>14</v>
@@ -1698,7 +1753,7 @@
         <v>19</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>19</v>
@@ -1709,23 +1764,39 @@
       <c r="P5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="W5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="6"/>
+      <c r="Z5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="AB5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1733,24 +1804,26 @@
         <v>20</v>
       </c>
       <c r="AD5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -1767,29 +1840,29 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>19</v>
@@ -1797,12 +1870,20 @@
       <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="7"/>
+      <c r="P6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="T6" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>20</v>
@@ -1811,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>17</v>
@@ -1819,12 +1900,14 @@
       <c r="Y6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="6"/>
+      <c r="Z6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="AB6" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>20</v>
@@ -1832,20 +1915,24 @@
       <c r="AD6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="AF6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AG6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH6" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ6" s="9"/>
+      <c r="AJ6" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -1863,26 +1950,26 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>19</v>
@@ -1890,15 +1977,29 @@
       <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="W7" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>17</v>
@@ -1906,35 +2007,39 @@
       <c r="Y7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -1951,27 +2056,27 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>19</v>
@@ -1979,14 +2084,20 @@
       <c r="O8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>20</v>
@@ -1995,43 +2106,47 @@
         <v>20</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="Z8" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -2048,15 +2163,15 @@
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>14</v>
@@ -2068,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>19</v>
@@ -2079,13 +2194,17 @@
       <c r="P9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="7" t="s">
+      <c r="Q9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>20</v>
@@ -2094,20 +2213,22 @@
         <v>20</v>
       </c>
       <c r="W9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>20</v>
@@ -2121,17 +2242,17 @@
       <c r="AF9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AJ9" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,26 +2271,26 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>19</v>
@@ -2180,33 +2301,47 @@
       <c r="P10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="Q10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="W10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE10" s="8" t="s">
         <v>20</v>
@@ -2214,14 +2349,18 @@
       <c r="AF10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH10" s="6"/>
+      <c r="AG10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="AI10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ10" s="9"/>
+      <c r="AJ10" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -2235,25 +2374,25 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>19</v>
@@ -2267,33 +2406,47 @@
       <c r="P11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="W11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="12" t="s">
+      <c r="Y11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="8" t="s">
         <v>20</v>
@@ -2301,14 +2454,16 @@
       <c r="AF11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
+      <c r="AJ11" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -2322,24 +2477,24 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>19</v>
@@ -2348,59 +2503,71 @@
         <v>17</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="7"/>
+      <c r="P12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="T12" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="6"/>
+      <c r="V12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="W12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="12" t="s">
+      <c r="Z12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE12" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="AF12" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,16 +2582,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>13</v>
@@ -2433,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>19</v>
@@ -2442,7 +2609,7 @@
         <v>17</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>17</v>
@@ -2450,9 +2617,15 @@
       <c r="P13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="7"/>
+      <c r="Q13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="T13" s="6" t="s">
         <v>14</v>
       </c>
@@ -2463,40 +2636,40 @@
         <v>20</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AA13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG13" s="10" t="s">
         <v>19</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AI13" s="9" t="s">
         <v>20</v>
@@ -2517,32 +2690,32 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>19</v>
@@ -2550,15 +2723,17 @@
       <c r="P14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>20</v>
@@ -2566,19 +2741,23 @@
       <c r="V14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="7"/>
+      <c r="W14" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="X14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="Z14" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>20</v>
@@ -2590,19 +2769,19 @@
         <v>20</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AI14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AJ14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,9 +2805,9 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="7"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="8"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -2666,9 +2845,9 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="7"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="8"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -2707,9 +2886,9 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="7"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="8"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -2747,9 +2926,9 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="7"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -2787,9 +2966,9 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="7"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -2828,9 +3007,9 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="7"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -2870,9 +3049,9 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="7"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="8"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -2911,9 +3090,9 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="7"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="8"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
@@ -2953,9 +3132,9 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="7"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="8"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
@@ -2995,9 +3174,9 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="7"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="8"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
@@ -3034,9 +3213,9 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="7"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="8"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -3075,8 +3254,8 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="7"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
@@ -3116,8 +3295,8 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
       <c r="S27" s="7"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -3158,9 +3337,9 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="7"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
@@ -3199,9 +3378,9 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="7"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3239,9 +3418,9 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="7"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
@@ -3280,9 +3459,9 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="7"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
@@ -3314,9 +3493,9 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="7"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -3330,11 +3509,11 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="9"/>
-      <c r="AG32" s="10"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 C15:F32 F3:H4 G2:G17 H2:J2 H1:AL1 I3:W3 N11:T25 A1:G2 C3:E14 F5:F14">
+  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 R5:T14 K9:L25 AE5:AJ32 B3:B25 C15:F32 F3:H4 G2:G17 H2:J2 H1:AL1 R3:W3 N15:T25 A1:G2 C3:E14 F5:F14 O5:P10 I3:P3 N11:P14 Q3:Q14">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
@@ -3354,7 +3533,7 @@
       <formula>LEFT(K2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:W4 Y4:AJ4 N5:N10">
+  <conditionalFormatting sqref="R4:W4 Y4:AJ4 N5:N10 I4:P4">
     <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
       <formula>LEFT(I4,LEN("!"))="!"</formula>
     </cfRule>
@@ -3393,7 +3572,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q3:Q32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q15:Q32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3473,7 +3652,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2:Q14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3543,28 +3722,28 @@
         <v>#NAME?</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,12 +3762,12 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="24"/>
       <c r="I2" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
@@ -3607,14 +3786,14 @@
         <v>#NAME?</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
@@ -3634,15 +3813,15 @@
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -3663,12 +3842,12 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
@@ -3687,16 +3866,16 @@
         <v>#NAME?</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
@@ -3717,12 +3896,12 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="24"/>
       <c r="I7" s="25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
@@ -3743,12 +3922,12 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
@@ -3768,15 +3947,15 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
@@ -3797,12 +3976,12 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
@@ -3821,12 +4000,12 @@
         <v>#NAME?</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
@@ -3847,12 +4026,12 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="24"/>
@@ -3873,7 +4052,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
@@ -3894,20 +4073,20 @@
         <v>#NAME?</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="24"/>
@@ -3928,7 +4107,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="24"/>
@@ -3951,17 +4130,17 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
@@ -3982,12 +4161,12 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
@@ -4008,12 +4187,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
@@ -4034,12 +4213,12 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
@@ -4060,12 +4239,12 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="24"/>
@@ -4086,12 +4265,12 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
@@ -4110,18 +4289,18 @@
         <v>#NAME?</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
@@ -4142,12 +4321,12 @@
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="24"/>
       <c r="I23" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="24"/>
@@ -4168,12 +4347,12 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="24"/>
@@ -4194,12 +4373,12 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="24"/>
@@ -4220,12 +4399,12 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="24"/>
@@ -4246,16 +4425,16 @@
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="24"/>
@@ -4274,18 +4453,18 @@
         <v>#NAME?</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="24"/>
       <c r="I28" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="24"/>
@@ -4306,7 +4485,7 @@
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="24"/>
@@ -4330,10 +4509,10 @@
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
@@ -4356,7 +4535,7 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="24"/>
@@ -4402,11 +4581,11 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="AE4" activeCellId="0" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4440,864 +4619,864 @@
   <sheetData>
     <row r="1" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="T1" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Y1" s="28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AA1" s="28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AC1" s="28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L2" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>139</v>
-      </c>
       <c r="O2" s="30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="S2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="S2" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>147</v>
-      </c>
       <c r="U2" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="W2" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="AA2" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>148</v>
-      </c>
       <c r="AB2" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AC2" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="36" t="s">
         <v>156</v>
       </c>
+      <c r="C3" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="L3" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>157</v>
       </c>
       <c r="W3" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC3" s="36" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+      <c r="X3" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>157</v>
+      <c r="B4" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="D4" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>157</v>
+      <c r="F4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC4" s="39" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41" t="s">
+      <c r="A5" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="W5" s="45" t="s">
-        <v>160</v>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>161</v>
       </c>
       <c r="X5" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC5" s="44" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="Y5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="M6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="U6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="V6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="X6" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC6" s="44" t="s">
-        <v>162</v>
+      <c r="B6" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="S6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="U6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="V6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="X6" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB6" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC6" s="49" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="P7" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="T7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="V7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC7" s="49" t="s">
-        <v>155</v>
+      <c r="A7" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="U7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="V7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="X7" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB7" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC7" s="54" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="D8" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="G8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="H8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="J8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="K8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="L8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="M8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="O8" s="54" t="s">
+      <c r="N8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="O8" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="P8" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="Q8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="53" t="s">
+      <c r="R8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="S8" s="61"/>
+      <c r="T8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="V8" s="53" t="s">
+      <c r="U8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="W8" s="54" t="s">
+      <c r="V8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="X8" s="55" t="s">
+      <c r="W8" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="Y8" s="53" t="s">
+      <c r="X8" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="53" t="s">
+      <c r="Y8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="AB8" s="53" t="s">
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="53" t="s">
+      <c r="AB8" s="58" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="AC8" s="58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" s="65" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="57" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57" t="s">
+      <c r="J9" s="64"/>
+      <c r="K9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="57" t="s">
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="O9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="57" t="s">
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="U9" s="57" t="s">
+      <c r="U9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="57" t="s">
+      <c r="W9" s="62"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="AB9" s="57" t="s">
+      <c r="AB9" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="AC9" s="59"/>
-    </row>
-    <row r="10" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
+      <c r="AC9" s="64"/>
+    </row>
+    <row r="10" s="65" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57" t="n">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59" t="n">
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59" t="n">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59" t="n">
+      <c r="J10" s="64"/>
+      <c r="K10" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59" t="n">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="57" t="n">
+      <c r="O10" s="62" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="58" t="n">
+      <c r="P10" s="63" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59" t="n">
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="59" t="n">
+      <c r="U10" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="59" t="n">
+      <c r="V10" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59" t="n">
+      <c r="W10" s="62"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="59" t="n">
+      <c r="AB10" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="59"/>
-    </row>
-    <row r="11" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
+      <c r="AC10" s="64"/>
+    </row>
+    <row r="11" s="65" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57" t="n">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="62" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59" t="n">
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59" t="n">
+      <c r="H11" s="64"/>
+      <c r="I11" s="64" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59" t="n">
+      <c r="J11" s="64"/>
+      <c r="K11" s="64" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="n">
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="57" t="n">
+      <c r="O11" s="62" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="58" t="n">
+      <c r="P11" s="63" t="n">
         <v>30</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="s">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="U11" s="59" t="n">
+      <c r="U11" s="64" t="n">
         <v>25</v>
       </c>
-      <c r="V11" s="59" t="n">
+      <c r="V11" s="64" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59" t="n">
+      <c r="W11" s="62"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64" t="n">
         <v>25</v>
       </c>
-      <c r="AB11" s="59" t="n">
+      <c r="AB11" s="64" t="n">
         <v>25</v>
       </c>
-      <c r="AC11" s="59"/>
+      <c r="AC11" s="64"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="195">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -63,6 +63,9 @@
     <t xml:space="preserve">zKG(1)</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -81,21 +84,24 @@
     <t xml:space="preserve">22:40</t>
   </si>
   <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">can`t</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:10</t>
   </si>
   <si>
@@ -165,58 +171,130 @@
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">22:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed8(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zKG(0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:20</t>
+  </si>
+  <si>
     <t xml:space="preserve">+D</t>
   </si>
   <si>
-    <t xml:space="preserve">22:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zKG(0.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1,L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-C</t>
+    <t xml:space="preserve">23:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">увлажнители</t>
@@ -426,16 +504,16 @@
     <t xml:space="preserve">{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": "10*" , "-": -50}</t>
+    <t xml:space="preserve">{"&gt;.0": "10*" , "0": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": "25*", "-": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "75*", "-": -50}</t>
+    <t xml:space="preserve">{"&gt;.0": "25*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "75*", "0": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"1": 50, "0": -150}</t>
@@ -450,7 +528,7 @@
     <t xml:space="preserve">{"+": 50, "-": -50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": "20*", "-": 0}</t>
+    <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
@@ -459,27 +537,24 @@
     <t xml:space="preserve">{"9": 0, "+": -25, "-": -50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": "20*", "-": -50}</t>
+    <t xml:space="preserve">{"&gt;.0": "10*", "0": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 0, "0": -50}</t>
+    <t xml:space="preserve">{"&lt;.23": "1.5*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "20*", "False": -50}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
@@ -489,12 +564,6 @@
     <t xml:space="preserve">{"True": "0.25*", "False": "0.12*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"True": "+0.25*", "False": "-0.12*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"True": "+0.5*", "False": "-0.12*"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.25*</t>
   </si>
   <si>
@@ -504,13 +573,13 @@
     <t xml:space="preserve">d24</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.25*</t>
+    <t xml:space="preserve">0.25*</t>
   </si>
   <si>
     <t xml:space="preserve">d8</t>
   </si>
   <si>
-    <t xml:space="preserve">[-0.5, -0.25, 0]</t>
+    <t xml:space="preserve">[-0.25, 0, 0.25]</t>
   </si>
   <si>
     <t xml:space="preserve">weak</t>
@@ -522,9 +591,6 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">logic</t>
   </si>
   <si>
@@ -537,10 +603,10 @@
     <t xml:space="preserve">bonus</t>
   </si>
   <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
     <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
   </si>
 </sst>
 </file>
@@ -740,7 +806,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -777,11 +843,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,11 +851,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,10 +955,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,6 +988,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -994,35 +1068,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1055,6 +1101,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1193,11 +1260,9 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AG1" activeCellId="0" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ4" activeCellId="0" sqref="AJ4"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,7 +1272,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6"/>
@@ -1403,78 +1468,88 @@
       <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="6"/>
       <c r="U2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="7" t="s">
-        <v>21</v>
+      <c r="W2" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>19</v>
+      <c r="Y2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>19</v>
+      <c r="AF2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AJ2" s="0" t="n">
@@ -1493,83 +1568,99 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="N3" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="7"/>
+      <c r="Q3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="T3" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
+      <c r="V3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="X3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>19</v>
+      <c r="AF3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AH3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AJ3" s="0" t="n">
@@ -1591,70 +1682,94 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="T4" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
+      <c r="V4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="AE4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>20</v>
@@ -1677,80 +1792,102 @@
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="X5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="7" t="s">
+      <c r="AE5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -1767,85 +1904,101 @@
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="L6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="7" t="s">
+      <c r="AE6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -1861,80 +2014,102 @@
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="L7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="7" t="s">
+      <c r="AE7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -1951,87 +2126,101 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="7" t="s">
+      <c r="AE8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -2048,44 +2237,52 @@
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="T9" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>20</v>
@@ -2093,45 +2290,47 @@
       <c r="V9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="W9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="12" t="s">
-        <v>19</v>
+      <c r="Z9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>19</v>
+      <c r="AF9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ9" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,80 +2347,102 @@
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="T10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="X10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="12" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AF10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ10" s="9"/>
+      <c r="AF10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -2235,80 +2456,104 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="7" t="s">
+      <c r="Y11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="12" t="s">
-        <v>19</v>
+      <c r="Z11" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AF11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>19</v>
+      <c r="AF11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -2322,85 +2567,103 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="6"/>
-      <c r="W12" s="7" t="s">
+      <c r="X12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="12" t="s">
-        <v>19</v>
+      <c r="Z12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AA12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="AE12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,94 +2678,103 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>19</v>
+      <c r="AG13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ13" s="9" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,92 +2789,103 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="7"/>
-      <c r="X14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ14" s="9" t="s">
-        <v>23</v>
+      <c r="AI14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2613,37 +2896,108 @@
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -2653,38 +3007,108 @@
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-      <c r="AI16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -2694,38 +3118,108 @@
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="9"/>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -2735,37 +3229,108 @@
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -2775,37 +3340,108 @@
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="9"/>
+      <c r="C19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -2815,39 +3451,108 @@
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
+      <c r="C20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -2857,38 +3562,108 @@
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="9"/>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -2898,39 +3673,108 @@
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -2940,39 +3784,108 @@
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -2982,37 +3895,108 @@
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -3022,38 +4006,108 @@
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -3063,37 +4117,108 @@
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="6"/>
-      <c r="AH26" s="6"/>
-      <c r="AI26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ26" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -3103,39 +4228,108 @@
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -3145,38 +4339,108 @@
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="9"/>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ28" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -3187,34 +4451,45 @@
         <v>3</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="6"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="8"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="7"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="9"/>
+      <c r="AF29" s="11"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
     </row>
@@ -3232,32 +4507,32 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="6"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="8"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="9"/>
+      <c r="AF30" s="11"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
-      <c r="AI30" s="9"/>
+      <c r="AI30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -3273,29 +4548,29 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="6"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="7"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="7"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="8"/>
-      <c r="AF31" s="9"/>
+      <c r="AF31" s="11"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
     </row>
@@ -3307,64 +4582,74 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="9"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="7"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="10"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AK3:AL4 N28:T32 B28:B32 W20:AD25 W28:AD32 Y2:AL2 K28:L32 Y3:AJ3 A3:A32 L2:W2 G20:G24 G27:G31 U5:V32 W5:W19 Y5:AD19 M9:M32 I9:J32 I5:M8 O5:T10 K9:L25 AE5:AJ32 B3:B25 C15:F32 F3:H4 G2:G17 H2:J2 H1:AL1 I3:W3 N11:T25 A1:G2 C3:E14 F5:F14">
+  <conditionalFormatting sqref="AK3:AL4 N29:T32 B28:B32 W29:AD32 AK2:AL2 K29:L32 A3:A32 U29:V32 M3:M32 I29:J32 AE29:AJ32 B3:B25 C30:F32 F3:H4 H1:AL1 A1:G2 C3:E14 F5:F15 H2 G22:G31 D15:E16 C17:F17 D18:E23 G2:G20 C21:C26 F22:F23 E25:F25 C30:E32 D24:D29 E24 E26:E29">
     <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B27 X4">
+    <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="1">
+      <formula>LEFT(B4,LEN("!"))="!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:T28 W24:AD25 W28:AD28 K28:L28 U24:V28 AE25:AJ28 I24:J28 M24:M28 N24:T25 K24:K25 AE24 AG24:AJ24 C27:C29 C15:C16 C23:D23 C18:C20">
+    <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="2">
+      <formula>LEFT(C15,LEN("!"))="!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26:T27 W26:AD27 K26:L27">
+    <cfRule type="beginsWith" priority="5" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="3">
+      <formula>LEFT(K26,LEN("!"))="!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20:AD23 Y2:AJ3 L2:W2 I3:W3 I2:J2 U5:V23 W5:W19 Y5:AD19 N11:T21 I5:M20 M21 M22:T22 I21:L22 I23:T23 AE5:AJ23 AF24 L24:L25 O5:T10">
+    <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
+      <formula>LEFT(I2,LEN("!"))="!"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3 X5:X19">
-    <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="1">
+    <cfRule type="beginsWith" priority="7" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="5">
       <formula>LEFT(X2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27 N26:T27 W26:AD27 K26:L27">
-    <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="2">
-      <formula>LEFT(B26,LEN("!"))="!"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="beginsWith" priority="5" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="3">
+    <cfRule type="beginsWith" priority="8" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="6">
       <formula>LEFT(K2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:W4 Y4:AJ4 N5:N10">
-    <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
+    <cfRule type="beginsWith" priority="9" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="7">
       <formula>LEFT(I4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="beginsWith" priority="7" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="5">
-      <formula>LEFT(X4,LEN("!"))="!"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="32">
+  <dataValidations count="53">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3389,11 +4674,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ29:AJ32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q3:Q32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q29:Q32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3405,47 +4690,143 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG2:AG31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG29:AG31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH2:AH31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH29:AH31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI2:AI31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI29:AI31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2:L32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L29:L32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S2:S7 S9:S32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S29:S32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T7 T9:T32" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T29:T32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K29:K31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N29:N31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O29:O31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P2:P31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P29:P31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R2:R31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R29:R31" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M29:M32" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V29:V32" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF29:AF32" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U29:U32" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE29:AE32" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I29:I31" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J29:J31" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L3:L28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P2:P28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q3:Q28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R2:R28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S2:S7 S9:S28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T7 T9:T28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V2:V28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3453,35 +4834,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V2:V32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF3:AF32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE32" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3489,7 +4842,23 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J31" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF3:AF28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG2:AG28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH2:AH28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI2:AI28" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3543,28 +4912,28 @@
         <v>#NAME?</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,12 +4952,12 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="24"/>
       <c r="I2" s="25" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
@@ -3607,14 +4976,14 @@
         <v>#NAME?</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="25" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
@@ -3634,15 +5003,15 @@
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
@@ -3663,12 +5032,12 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
@@ -3687,16 +5056,16 @@
         <v>#NAME?</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
@@ -3717,12 +5086,12 @@
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="24"/>
       <c r="I7" s="25" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J7" s="23"/>
       <c r="K7" s="24"/>
@@ -3743,12 +5112,12 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="24"/>
@@ -3768,15 +5137,15 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="24"/>
@@ -3797,12 +5166,12 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="24"/>
@@ -3821,12 +5190,12 @@
         <v>#NAME?</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="24"/>
@@ -3847,12 +5216,12 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="24"/>
@@ -3873,7 +5242,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
@@ -3894,20 +5263,20 @@
         <v>#NAME?</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="24"/>
@@ -3928,7 +5297,7 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="24"/>
@@ -3951,17 +5320,17 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="20" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="24"/>
@@ -3982,12 +5351,12 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="24"/>
       <c r="I17" s="25" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
@@ -4008,12 +5377,12 @@
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="24"/>
@@ -4034,12 +5403,12 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="24"/>
       <c r="I19" s="25" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
@@ -4060,12 +5429,12 @@
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="24"/>
@@ -4086,12 +5455,12 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="24"/>
       <c r="I21" s="25" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="24"/>
@@ -4110,18 +5479,18 @@
         <v>#NAME?</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
@@ -4142,12 +5511,12 @@
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="24"/>
       <c r="I23" s="15" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="24"/>
@@ -4168,12 +5537,12 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="24"/>
@@ -4194,12 +5563,12 @@
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="24"/>
@@ -4220,12 +5589,12 @@
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="24"/>
@@ -4246,16 +5615,16 @@
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="24"/>
@@ -4274,18 +5643,18 @@
         <v>#NAME?</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="24"/>
       <c r="I28" s="15" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="24"/>
@@ -4306,7 +5675,7 @@
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="24"/>
@@ -4330,10 +5699,10 @@
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
@@ -4356,7 +5725,7 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="24"/>
@@ -4402,11 +5771,11 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="bottomRight" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4440,924 +5809,922 @@
   <sheetData>
     <row r="1" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="T1" s="28" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="Y1" s="28" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="AA1" s="28" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="AC1" s="28" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="W2" s="30" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="AA2" s="32" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="AB2" s="32" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="32" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="R3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="S3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="T3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="U3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="V3" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="38" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="X3" s="35" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="Y3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="Z3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AB3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AC3" s="36" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>157</v>
+      <c r="B4" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>157</v>
+        <v>180</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="T4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>157</v>
+        <v>180</v>
+      </c>
+      <c r="W4" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="X4" s="35" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="Y4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="Z4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AA4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AB4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="AC4" s="36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="W5" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="X5" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC5" s="44" t="s">
-        <v>160</v>
+      <c r="A5" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="U5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="V5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC5" s="43" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="M6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="U6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="V6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="X6" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC6" s="44" t="s">
-        <v>162</v>
+      <c r="A6" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="W6" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB6" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC6" s="46" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="P7" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="T7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="V7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="W7" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC7" s="49" t="s">
-        <v>155</v>
+      <c r="A7" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="X7" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC7" s="51" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="P8" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="R8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="U8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="V8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="W8" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="X8" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB8" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC8" s="53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="O9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="P9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="U9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="V9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC9" s="59"/>
-    </row>
-    <row r="10" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57" t="n">
+      <c r="A8" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="58"/>
+      <c r="T8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="U8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="V8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="W8" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="X8" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB8" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC8" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="61"/>
+      <c r="K9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB9" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59" t="n">
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59" t="n">
+      <c r="H10" s="61"/>
+      <c r="I10" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59" t="n">
+      <c r="J10" s="61"/>
+      <c r="K10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59" t="n">
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="57" t="n">
+      <c r="O10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="58" t="n">
+      <c r="P10" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59" t="n">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="59" t="n">
+      <c r="U10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="59" t="n">
+      <c r="V10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59" t="n">
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="59" t="n">
+      <c r="AB10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="59"/>
-    </row>
-    <row r="11" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59" t="n">
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="59" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59" t="n">
+      <c r="J11" s="61"/>
+      <c r="K11" s="61" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="n">
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="57" t="n">
+      <c r="O11" s="59" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="58" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="U11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="V11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC11" s="59"/>
+      <c r="P11" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="U11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="61"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9 I10:I11 K10:K11 N10:P11 T10:T11 A5:AC8">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -546,7 +546,7 @@
     <t xml:space="preserve">{"&lt;.23": "1.5*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
+    <t xml:space="preserve">{"&gt;=.3": "12*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
@@ -621,7 +621,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -649,6 +649,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -664,13 +665,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -806,7 +800,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,10 +842,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,15 +937,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,18 +969,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1007,15 +985,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1027,15 +1005,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1259,10 +1237,10 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="AJ7" activeCellId="0" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1757,7 +1735,7 @@
         <v>13</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE4" s="8" t="s">
         <v>22</v>
@@ -4216,7 +4194,7 @@
       <c r="AI26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ26" s="12" t="s">
+      <c r="AJ26" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4590,7 +4568,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="13"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -4605,7 +4583,7 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="11"/>
-      <c r="AG32" s="13"/>
+      <c r="AG32" s="12"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
@@ -4886,865 +4864,865 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="14" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="15" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="16" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="18" t="e">
+      <c r="C1" s="17" t="e">
         <f aca="false">vedomost!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="20" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <f aca="false">vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="e">
+      <c r="C2" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="20" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="21" t="n">
         <f aca="false">vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="e">
+      <c r="C3" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="15" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="21" t="n">
         <f aca="false">vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="e">
+      <c r="C4" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="15" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="21" t="n">
         <f aca="false">vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="e">
+      <c r="C5" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="20" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="21" t="n">
         <f aca="false">vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="e">
+      <c r="C6" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="20" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="21" t="n">
         <f aca="false">vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="e">
+      <c r="C7" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="20" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="21" t="n">
         <f aca="false">vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="e">
+      <c r="C8" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="20" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45085</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="21" t="n">
         <f aca="false">vedomost!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="e">
+      <c r="C9" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="20" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45086</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="21" t="n">
         <f aca="false">vedomost!B10</f>
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="e">
+      <c r="C10" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="15" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45087</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="21" t="n">
         <f aca="false">vedomost!B11</f>
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="e">
+      <c r="C11" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="15" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45088</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="21" t="n">
         <f aca="false">vedomost!B12</f>
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="e">
+      <c r="C12" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="15" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45089</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="21" t="n">
         <f aca="false">vedomost!B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="23" t="e">
+      <c r="C13" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="20" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45090</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="21" t="n">
         <f aca="false">vedomost!B14</f>
         <v>2</v>
       </c>
-      <c r="C14" s="23" t="e">
+      <c r="C14" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="20" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45091</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="21" t="n">
         <f aca="false">vedomost!B15</f>
         <v>3</v>
       </c>
-      <c r="C15" s="23" t="e">
+      <c r="C15" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="20" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45092</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="21" t="n">
         <f aca="false">vedomost!B16</f>
         <v>4</v>
       </c>
-      <c r="C16" s="23" t="e">
+      <c r="C16" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="20" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45093</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="21" t="n">
         <f aca="false">vedomost!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="23" t="e">
+      <c r="C17" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="15" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45094</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="21" t="n">
         <f aca="false">vedomost!B18</f>
         <v>6</v>
       </c>
-      <c r="C18" s="23" t="e">
+      <c r="C18" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="15" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45095</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="21" t="n">
         <f aca="false">vedomost!B19</f>
         <v>7</v>
       </c>
-      <c r="C19" s="23" t="e">
+      <c r="C19" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
+      <c r="A20" s="20" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45096</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="21" t="n">
         <f aca="false">vedomost!B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="23" t="e">
+      <c r="C20" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="20" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45097</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="21" t="n">
         <f aca="false">vedomost!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="e">
+      <c r="C21" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="20" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45098</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="21" t="n">
         <f aca="false">vedomost!B22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="23" t="e">
+      <c r="C22" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+      <c r="A23" s="20" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45099</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="21" t="n">
         <f aca="false">vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C23" s="23" t="e">
+      <c r="C23" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="15" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
+      <c r="A24" s="20" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45100</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="21" t="n">
         <f aca="false">vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C24" s="23" t="e">
+      <c r="C24" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="15" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45101</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="21" t="n">
         <f aca="false">vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C25" s="23" t="e">
+      <c r="C25" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="15" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45102</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="21" t="n">
         <f aca="false">vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="23" t="e">
+      <c r="C26" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
+      <c r="A27" s="20" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45103</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="21" t="n">
         <f aca="false">vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="23" t="e">
+      <c r="C27" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
+      <c r="A28" s="20" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45104</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B28" s="21" t="n">
         <f aca="false">vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C28" s="23" t="e">
+      <c r="C28" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="15" t="s">
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="n">
+      <c r="A29" s="20" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45105</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="21" t="n">
         <f aca="false">vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C29" s="23" t="e">
+      <c r="C29" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="20" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45106</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="21" t="n">
         <f aca="false">vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C30" s="23" t="e">
+      <c r="C30" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="20" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45107</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="21" t="n">
         <f aca="false">vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C31" s="23" t="e">
+      <c r="C31" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5770,12 +5748,12 @@
   </sheetPr>
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" activeCellId="0" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="W18" activeCellId="0" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5807,854 +5785,854 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.09"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="27" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="V3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="X3" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Y3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="Z3" s="36" t="s">
+      <c r="Z3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="AB3" s="36" t="s">
+      <c r="AB3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AC3" s="35" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="U4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" s="36" t="s">
+      <c r="Z4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="40" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="U5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="V5" s="43" t="s">
+      <c r="V5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="X5" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="Y5" s="43" t="s">
+      <c r="Y5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Z5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AA5" s="43" t="s">
+      <c r="AA5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" s="43" t="s">
+      <c r="AC5" s="42" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="N6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="46" t="s">
+      <c r="Q6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="S6" s="46" t="s">
+      <c r="S6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46" t="s">
+      <c r="U6" s="42"/>
+      <c r="V6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="W6" s="47" t="s">
+      <c r="W6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="X6" s="48" t="s">
+      <c r="X6" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="Y6" s="46" t="s">
+      <c r="Y6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="Z6" s="46" t="s">
+      <c r="Z6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AA6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="46" t="s">
+      <c r="AC6" s="42" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="51" t="s">
+      <c r="K7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="R7" s="51" t="s">
+      <c r="R7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="T7" s="51" t="s">
+      <c r="T7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="U7" s="51" t="s">
+      <c r="U7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="V7" s="51" t="s">
+      <c r="V7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="W7" s="52" t="s">
+      <c r="W7" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="X7" s="50" t="s">
+      <c r="X7" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="Y7" s="51" t="s">
+      <c r="Y7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" s="51" t="s">
+      <c r="Z7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" s="51" t="s">
+      <c r="AA7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" s="51" t="s">
+      <c r="AB7" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="AC7" s="51" t="s">
+      <c r="AC7" s="47" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="55" t="s">
+      <c r="S8" s="54"/>
+      <c r="T8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="55" t="s">
+      <c r="U8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="V8" s="55" t="s">
+      <c r="V8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="W8" s="56" t="s">
+      <c r="W8" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="X8" s="57" t="s">
+      <c r="X8" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="Y8" s="55" t="s">
+      <c r="Y8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="55" t="s">
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" s="55" t="s">
+      <c r="AB8" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AC8" s="51" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
+    <row r="9" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="59" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="59" t="s">
+      <c r="H9" s="57"/>
+      <c r="I9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="59" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="59" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="59" t="s">
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="W9" s="59"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="59" t="s">
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" s="59" t="s">
+      <c r="AB9" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" s="61"/>
-    </row>
-    <row r="10" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59" t="n">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="n">
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61" t="n">
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61" t="n">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61" t="n">
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="59" t="n">
+      <c r="O10" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="60" t="n">
+      <c r="P10" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61" t="n">
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="61" t="n">
+      <c r="U10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="61" t="n">
+      <c r="V10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61" t="n">
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="61" t="n">
+      <c r="AB10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="61"/>
-    </row>
-    <row r="11" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61" t="n">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61" t="n">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61" t="n">
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="59" t="n">
+      <c r="O11" s="55" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61" t="s">
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="U11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="V11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="W11" s="59"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC11" s="61"/>
+      <c r="U11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="57"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\учимся жить\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="работа по дому" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="price" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="vedomost" sheetId="1" r:id="rId1"/>
+    <sheet name="работа по дому" sheetId="2" r:id="rId2"/>
+    <sheet name="price" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,606 +26,621 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="195">
-  <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lza, E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed24(0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zKG(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can`t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lza, Eza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lh, Eh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1,E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed24(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z, a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed8(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1,L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed8(0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1,L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1, E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1, E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zKG(0.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">увлажнители</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">шмотки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">утварь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лимонка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">штрафы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">е</t>
-  </si>
-  <si>
-    <t xml:space="preserve">л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ст / суш / гл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОСКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">холод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАБЫВАШКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУГАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РАСПРАВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧАШКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОЛОСЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОЖАЛЕНИЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В МАСЛЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЬЕ В МАШИНЕ, МОКРОТА ЗА РЕЗНКОЮ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЫЛЕСОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РАЗГОВОРЫ О 3м</t>
-  </si>
-  <si>
-    <t xml:space="preserve">плита</t>
-  </si>
-  <si>
-    <t xml:space="preserve">краны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поощрения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">долгий ящик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">категория</t>
-  </si>
-  <si>
-    <t xml:space="preserve">днюха у златы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">что там с зубами у златы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уборка авто</t>
-  </si>
-  <si>
-    <t xml:space="preserve">посади Злату на велик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">поручения Леры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">подход к плесени</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сортировка игрушек (с выбросом плесени)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переборка круп, сухофруктов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">приборка в кладовке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">стиралка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">компьютер почисть</t>
-  </si>
-  <si>
-    <t xml:space="preserve">сборы в дорогу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a:titi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a:bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:stroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:family_stroll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:dreams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:teeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z:tele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:vacuum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:dishwash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:kitchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h:vestibule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:hygiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:silence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:siesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e:meals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:teeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:siesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:sleeptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l:meals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "10*" , "0": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "25*", "0": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "75*", "0": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 50, "0": -150}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": 0, "-": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": 50, "-": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": 50, "-": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"9": 0, "+": -25, "-": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "10*", "0": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "1.5*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.3": "12*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"True": "0.25*", "False": "0.12*"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.25, 0, 0.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">every N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="201">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>DUTY</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>WEAK</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Lza, E</t>
+  </si>
+  <si>
+    <t>Lh</t>
+  </si>
+  <si>
+    <t>Ed24(0)</t>
+  </si>
+  <si>
+    <t>zKG(1)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>22:20</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22:40</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>can`t</t>
+  </si>
+  <si>
+    <t>22:10</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>Lza, Eza</t>
+  </si>
+  <si>
+    <t>Lh, Eh</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>22:01</t>
+  </si>
+  <si>
+    <t>L1,E1</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>23:30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>23:40</t>
+  </si>
+  <si>
+    <t>Eh</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>Ed24(1)</t>
+  </si>
+  <si>
+    <t>z, a</t>
+  </si>
+  <si>
+    <t>Ed8(2)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>22:11</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>22:03</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>20:59</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>22:35</t>
+  </si>
+  <si>
+    <t>+C</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
+    <t>21:55</t>
+  </si>
+  <si>
+    <t>E1,L2</t>
+  </si>
+  <si>
+    <t>-D</t>
+  </si>
+  <si>
+    <t>-C</t>
+  </si>
+  <si>
+    <t>Ed8(0)</t>
+  </si>
+  <si>
+    <t>E1,L1</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>L1, E2</t>
+  </si>
+  <si>
+    <t>21:02</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>L1, E4</t>
+  </si>
+  <si>
+    <t>23:15</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>zKG(0.5)</t>
+  </si>
+  <si>
+    <t>21:20</t>
+  </si>
+  <si>
+    <t>+D</t>
+  </si>
+  <si>
+    <t>23:10</t>
+  </si>
+  <si>
+    <t>-P</t>
+  </si>
+  <si>
+    <t>22:47</t>
+  </si>
+  <si>
+    <t>23:58</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>23:25</t>
+  </si>
+  <si>
+    <t>22:28</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>увлажнители</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>шмотки</t>
+  </si>
+  <si>
+    <t>утварь</t>
+  </si>
+  <si>
+    <t>лимонка</t>
+  </si>
+  <si>
+    <t>штрафы</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>л</t>
+  </si>
+  <si>
+    <t>ст / суш / гл</t>
+  </si>
+  <si>
+    <t>НОСКИ</t>
+  </si>
+  <si>
+    <t>холод</t>
+  </si>
+  <si>
+    <t>ЗАБЫВАШКА</t>
+  </si>
+  <si>
+    <t>РУГАНЬ</t>
+  </si>
+  <si>
+    <t>РАСПРАВА</t>
+  </si>
+  <si>
+    <t>ЧАШКА</t>
+  </si>
+  <si>
+    <t>ВОЛОСЫ</t>
+  </si>
+  <si>
+    <t>СОЖАЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>В МАСЛЕ</t>
+  </si>
+  <si>
+    <t>БЕЛЬЕ В МАШИНЕ, МОКРОТА ЗА РЕЗНКОЮ</t>
+  </si>
+  <si>
+    <t>ПЫЛЕСОС</t>
+  </si>
+  <si>
+    <t>РАЗГОВОРЫ О 3м</t>
+  </si>
+  <si>
+    <t>плита</t>
+  </si>
+  <si>
+    <t>краны</t>
+  </si>
+  <si>
+    <t>поощрения</t>
+  </si>
+  <si>
+    <t>долгий ящик</t>
+  </si>
+  <si>
+    <t>категория</t>
+  </si>
+  <si>
+    <t>днюха у златы</t>
+  </si>
+  <si>
+    <t>что там с зубами у златы</t>
+  </si>
+  <si>
+    <t>уборка авто</t>
+  </si>
+  <si>
+    <t>посади Злату на велик</t>
+  </si>
+  <si>
+    <t>поручения Леры</t>
+  </si>
+  <si>
+    <t>подход к плесени</t>
+  </si>
+  <si>
+    <t>сортировка игрушек (с выбросом плесени)</t>
+  </si>
+  <si>
+    <t>переборка круп, сухофруктов</t>
+  </si>
+  <si>
+    <t>приборка в кладовке</t>
+  </si>
+  <si>
+    <t>стиралка</t>
+  </si>
+  <si>
+    <t>компьютер почисть</t>
+  </si>
+  <si>
+    <t>сборы в дорогу</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>a:titi</t>
+  </si>
+  <si>
+    <t>a:bed</t>
+  </si>
+  <si>
+    <t>a:sleeptime</t>
+  </si>
+  <si>
+    <t>z:stroll</t>
+  </si>
+  <si>
+    <t>z:family_stroll</t>
+  </si>
+  <si>
+    <t>z:sleeptime</t>
+  </si>
+  <si>
+    <t>z:dreams</t>
+  </si>
+  <si>
+    <t>z:teeth</t>
+  </si>
+  <si>
+    <t>z:edu</t>
+  </si>
+  <si>
+    <t>z:tele</t>
+  </si>
+  <si>
+    <t>h:vacuum</t>
+  </si>
+  <si>
+    <t>h:dishwash</t>
+  </si>
+  <si>
+    <t>h:kitchen</t>
+  </si>
+  <si>
+    <t>h:vestibule</t>
+  </si>
+  <si>
+    <t>e:hygiene</t>
+  </si>
+  <si>
+    <t>e:plan</t>
+  </si>
+  <si>
+    <t>e:silence</t>
+  </si>
+  <si>
+    <t>e:siesta</t>
+  </si>
+  <si>
+    <t>e:dev</t>
+  </si>
+  <si>
+    <t>e:sleeptime</t>
+  </si>
+  <si>
+    <t>e:diet</t>
+  </si>
+  <si>
+    <t>e:meals</t>
+  </si>
+  <si>
+    <t>l:teeth</t>
+  </si>
+  <si>
+    <t>l:plan</t>
+  </si>
+  <si>
+    <t>l:siesta</t>
+  </si>
+  <si>
+    <t>l:sleeptime</t>
+  </si>
+  <si>
+    <t>l:diet</t>
+  </si>
+  <si>
+    <t>l:meals</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
+  </si>
+  <si>
+    <t>{"&gt;.0": "10*" , "0": -50}</t>
+  </si>
+  <si>
+    <t>{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
+  </si>
+  <si>
+    <t>{"&gt;.0": "25*", "0": -50}</t>
+  </si>
+  <si>
+    <t>{"&gt;.0": "75*", "0": -50}</t>
+  </si>
+  <si>
+    <t>{"1": 50, "0": -150}</t>
+  </si>
+  <si>
+    <t>{"+": 0, "-": -50}</t>
+  </si>
+  <si>
+    <t>{"+": 50, "-": 0}</t>
+  </si>
+  <si>
+    <t>{"+": 50, "-": -50}</t>
+  </si>
+  <si>
+    <t>{"&gt;.0": "20*", "0": 0}</t>
+  </si>
+  <si>
+    <t>{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
+  </si>
+  <si>
+    <t>{"9": 0, "+": -25, "-": -50}</t>
+  </si>
+  <si>
+    <t>{"&gt;.0": "10*", "0": -50}</t>
+  </si>
+  <si>
+    <t>{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
+  </si>
+  <si>
+    <t>{"&lt;.23": "1.5*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t>{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
+  </si>
+  <si>
+    <t>{"9": 50, "+": 0, "-": -50}</t>
+  </si>
+  <si>
+    <t>{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t>{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>{"True": "0.25*", "False": "0.12*"}</t>
+  </si>
+  <si>
+    <t>-0.25*</t>
+  </si>
+  <si>
+    <t>-0.12*</t>
+  </si>
+  <si>
+    <t>d24</t>
+  </si>
+  <si>
+    <t>0.25*</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>[-0.25, 0, 0.25]</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>every N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>22:55</t>
+  </si>
+  <si>
+    <t>21:15</t>
+  </si>
+  <si>
+    <t>21:42</t>
+  </si>
+  <si>
+    <t>0:05</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>E5,L1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m;@"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="169" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -630,26 +649,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -659,12 +662,19 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -718,346 +728,237 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="63">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF8181"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1127,46 +1028,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF8181"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1225,62 +1099,335 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="AJ7" activeCellId="0" sqref="AJ7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="4" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="4" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="7.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="8.57"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="3" customWidth="1"/>
+    <col min="24" max="26" width="9.85546875" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.28515625" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="31" max="31" width="7" style="3" customWidth="1"/>
+    <col min="32" max="33" width="7" style="4" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" customWidth="1"/>
+    <col min="35" max="35" width="5.7109375" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1306,129 +1453,129 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="str">
-        <f aca="false">price!B1</f>
+        <f>price!B1</f>
         <v>a:titi</v>
       </c>
       <c r="J1" s="7" t="str">
-        <f aca="false">price!C1</f>
+        <f>price!C1</f>
         <v>a:bed</v>
       </c>
       <c r="K1" s="7" t="str">
-        <f aca="false">price!D1</f>
+        <f>price!D1</f>
         <v>a:sleeptime</v>
       </c>
       <c r="L1" s="7" t="str">
-        <f aca="false">price!E1</f>
+        <f>price!E1</f>
         <v>z:stroll</v>
       </c>
       <c r="M1" s="7" t="str">
-        <f aca="false">price!F1</f>
+        <f>price!F1</f>
         <v>z:family_stroll</v>
       </c>
       <c r="N1" s="7" t="str">
-        <f aca="false">price!G1</f>
+        <f>price!G1</f>
         <v>z:sleeptime</v>
       </c>
       <c r="O1" s="7" t="str">
-        <f aca="false">price!H1</f>
+        <f>price!H1</f>
         <v>z:dreams</v>
       </c>
       <c r="P1" s="7" t="str">
-        <f aca="false">price!I1</f>
+        <f>price!I1</f>
         <v>z:teeth</v>
       </c>
       <c r="Q1" s="7" t="str">
-        <f aca="false">price!J1</f>
+        <f>price!J1</f>
         <v>z:edu</v>
       </c>
       <c r="R1" s="7" t="str">
-        <f aca="false">price!K1</f>
+        <f>price!K1</f>
         <v>z:tele</v>
       </c>
       <c r="S1" s="7" t="str">
-        <f aca="false">price!L1</f>
+        <f>price!L1</f>
         <v>h:vacuum</v>
       </c>
       <c r="T1" s="7" t="str">
-        <f aca="false">price!M1</f>
+        <f>price!M1</f>
         <v>h:dishwash</v>
       </c>
       <c r="U1" s="7" t="str">
-        <f aca="false">price!N1</f>
+        <f>price!N1</f>
         <v>h:kitchen</v>
       </c>
       <c r="V1" s="7" t="str">
-        <f aca="false">price!O1</f>
+        <f>price!O1</f>
         <v>h:vestibule</v>
       </c>
       <c r="W1" s="7" t="str">
-        <f aca="false">price!P1</f>
+        <f>price!P1</f>
         <v>e:hygiene</v>
       </c>
       <c r="X1" s="7" t="str">
-        <f aca="false">price!Q1</f>
+        <f>price!Q1</f>
         <v>e:plan</v>
       </c>
       <c r="Y1" s="7" t="str">
-        <f aca="false">price!R1</f>
+        <f>price!R1</f>
         <v>e:silence</v>
       </c>
       <c r="Z1" s="7" t="str">
-        <f aca="false">price!S1</f>
+        <f>price!S1</f>
         <v>e:siesta</v>
       </c>
       <c r="AA1" s="7" t="str">
-        <f aca="false">price!T1</f>
+        <f>price!T1</f>
         <v>e:dev</v>
       </c>
       <c r="AB1" s="7" t="str">
-        <f aca="false">price!U1</f>
+        <f>price!U1</f>
         <v>e:sleeptime</v>
       </c>
       <c r="AC1" s="7" t="str">
-        <f aca="false">price!V1</f>
+        <f>price!V1</f>
         <v>e:diet</v>
       </c>
       <c r="AD1" s="7" t="str">
-        <f aca="false">price!W1</f>
+        <f>price!W1</f>
         <v>e:meals</v>
       </c>
       <c r="AE1" s="7" t="str">
-        <f aca="false">price!X1</f>
+        <f>price!X1</f>
         <v>l:teeth</v>
       </c>
       <c r="AF1" s="7" t="str">
-        <f aca="false">price!Y1</f>
+        <f>price!Y1</f>
         <v>l:plan</v>
       </c>
       <c r="AG1" s="7" t="str">
-        <f aca="false">price!Z1</f>
+        <f>price!Z1</f>
         <v>l:siesta</v>
       </c>
       <c r="AH1" s="7" t="str">
-        <f aca="false">price!AA1</f>
+        <f>price!AA1</f>
         <v>l:sleeptime</v>
       </c>
       <c r="AI1" s="7" t="str">
-        <f aca="false">price!AB1</f>
+        <f>price!AB1</f>
         <v>l:diet</v>
       </c>
       <c r="AJ1" s="7" t="str">
-        <f aca="false">price!AC1</f>
+        <f>price!AC1</f>
         <v>l:meals</v>
       </c>
       <c r="AK1" s="7"/>
       <c r="AL1" s="6" t="str">
-        <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AK1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AK1,#REF!,0)+1)), "")</f>
+        <f>IFERROR(IF(INDEX(#REF!,MATCH(AK1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AK1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>45078</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
+      <c r="B2" s="6">
+        <f t="shared" ref="B2:B31" si="0">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1530,16 +1677,16 @@
       <c r="AI2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AJ2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>45079</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
+      <c r="B3" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1641,16 +1788,16 @@
       <c r="AI3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AJ3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>45080</v>
       </c>
-      <c r="B4" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1735,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE4" s="8" t="s">
         <v>22</v>
@@ -1752,16 +1899,16 @@
       <c r="AI4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AJ4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>45081</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1779,7 +1926,7 @@
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1867,12 +2014,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>45082</v>
       </c>
-      <c r="B6" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1890,7 +2037,7 @@
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1978,12 +2125,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>45083</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2001,7 +2148,7 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2089,12 +2236,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>45084</v>
       </c>
-      <c r="B8" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2112,7 +2259,7 @@
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -2200,12 +2347,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>45085</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2223,7 +2370,7 @@
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -2311,12 +2458,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>45086</v>
       </c>
-      <c r="B10" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2334,7 +2481,7 @@
       <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -2422,12 +2569,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>45087</v>
       </c>
-      <c r="B11" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2445,7 +2592,7 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -2533,12 +2680,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>45088</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2556,7 +2703,7 @@
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -2644,12 +2791,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>45089</v>
       </c>
-      <c r="B13" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2667,7 +2814,7 @@
       <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -2755,12 +2902,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>45090</v>
       </c>
-      <c r="B14" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2778,7 +2925,7 @@
       <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -2866,12 +3013,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>45091</v>
       </c>
-      <c r="B15" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2889,7 +3036,7 @@
       <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -2977,12 +3124,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>45092</v>
       </c>
-      <c r="B16" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3000,7 +3147,7 @@
       <c r="G16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -3084,16 +3231,16 @@
       <c r="AI16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AJ16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>45093</v>
       </c>
-      <c r="B17" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3111,7 +3258,7 @@
       <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -3195,16 +3342,16 @@
       <c r="AI17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AJ17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>45094</v>
       </c>
-      <c r="B18" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3222,7 +3369,7 @@
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -3306,16 +3453,16 @@
       <c r="AI18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AJ18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>45095</v>
       </c>
-      <c r="B19" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3333,7 +3480,7 @@
       <c r="G19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -3417,16 +3564,16 @@
       <c r="AI19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AJ19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>45096</v>
       </c>
-      <c r="B20" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -3444,7 +3591,7 @@
       <c r="G20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -3532,12 +3679,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>45097</v>
       </c>
-      <c r="B21" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -3552,10 +3699,10 @@
       <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="0" t="s">
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -3643,12 +3790,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>45098</v>
       </c>
-      <c r="B22" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -3666,7 +3813,7 @@
       <c r="G22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -3754,12 +3901,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>45099</v>
       </c>
-      <c r="B23" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3777,7 +3924,7 @@
       <c r="G23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -3865,12 +4012,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>45100</v>
       </c>
-      <c r="B24" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -3888,7 +4035,7 @@
       <c r="G24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -3972,16 +4119,16 @@
       <c r="AI24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ24" s="0" t="n">
+      <c r="AJ24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>45101</v>
       </c>
-      <c r="B25" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -3999,7 +4146,7 @@
       <c r="G25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -4087,12 +4234,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>45102</v>
       </c>
-      <c r="B26" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -4110,7 +4257,7 @@
       <c r="G26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -4194,16 +4341,16 @@
       <c r="AI26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ26" s="11" t="s">
+      <c r="AJ26" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>45103</v>
       </c>
-      <c r="B27" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -4215,13 +4362,13 @@
       <c r="E27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -4309,12 +4456,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>45104</v>
       </c>
-      <c r="B28" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4332,7 +4479,7 @@
       <c r="G28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>13</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -4416,19 +4563,21 @@
       <c r="AI28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AJ28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>45105</v>
       </c>
-      <c r="B29" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
@@ -4441,118 +4590,317 @@
       <c r="G29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>45106</v>
       </c>
-      <c r="B30" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>45107</v>
       </c>
-      <c r="B31" s="6" t="n">
-        <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4568,7 +4916,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="12"/>
+      <c r="R32" s="13"/>
       <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -4583,2058 +4931,2041 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="11"/>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AK3:AL4 N29:T32 B28:B32 W29:AD32 AK2:AL2 K29:L32 A3:A32 U29:V32 M3:M32 I29:J32 AE29:AJ32 B3:B25 C30:F32 F3:H4 H1:AL1 A1:G2 C3:E14 F5:F15 H2 G22:G31 D15:E16 C17:F17 D18:E23 G2:G20 C21:C26 F22:F23 E25:F25 C30:E32 D24:D29 E24 E26:E29">
-    <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
+  <conditionalFormatting sqref="B28:B32 AK2:AL4 A3:A32 M3:M32 I29:L32 N29:AJ32 B3:B25 F3:H4 H1:AL1 A1:G2 C3:E14 F5:F15 H2 D15:E16 C17:F17 D18:E23 G2:G20 C21:C26 F22:F23 E25:F25 C32:F32 D24:D29 E24 E26:E29 C30:E31 G22:G31">
+    <cfRule type="beginsWith" dxfId="19" priority="2" operator="beginsWith" text="!">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 X4">
-    <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="1">
+    <cfRule type="beginsWith" dxfId="18" priority="3" operator="beginsWith" text="!">
       <formula>LEFT(B4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:T28 W24:AD25 W28:AD28 K28:L28 U24:V28 AE25:AJ28 I24:J28 M24:M28 N24:T25 K24:K25 AE24 AG24:AJ24 C27:C29 C15:C16 C23:D23 C18:C20">
-    <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="2">
+    <cfRule type="beginsWith" dxfId="17" priority="4" operator="beginsWith" text="!">
       <formula>LEFT(C15,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:T27 W26:AD27 K26:L27">
-    <cfRule type="beginsWith" priority="5" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="3">
+    <cfRule type="beginsWith" dxfId="16" priority="5" operator="beginsWith" text="!">
       <formula>LEFT(K26,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AD23 Y2:AJ3 L2:W2 I3:W3 I2:J2 U5:V23 W5:W19 Y5:AD19 N11:T21 I5:M20 M21 M22:T22 I21:L22 I23:T23 AE5:AJ23 AF24 L24:L25 O5:T10">
-    <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
+    <cfRule type="beginsWith" dxfId="15" priority="6" operator="beginsWith" text="!">
       <formula>LEFT(I2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3 X5:X19">
-    <cfRule type="beginsWith" priority="7" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="5">
+    <cfRule type="beginsWith" dxfId="14" priority="7" operator="beginsWith" text="!">
       <formula>LEFT(X2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="beginsWith" priority="8" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="6">
+    <cfRule type="beginsWith" dxfId="13" priority="8" operator="beginsWith" text="!">
       <formula>LEFT(K2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:W4 Y4:AJ4 N5:N10">
-    <cfRule type="beginsWith" priority="9" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="7">
+    <cfRule type="beginsWith" dxfId="12" priority="9" operator="beginsWith" text="!">
       <formula>LEFT(I4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="53">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число,число" prompt="Время сна Арины" sqref="K32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N32:O32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число,число" prompt="Время сна Златы" sqref="N32:O32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Златы. _x000a_T - да_x000a_F - нет" sqref="P32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без телевизера_x000a_T - да_x000a_F - нет" sqref="R32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число,число" prompt="Время сна Леры" sqref="AH32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без перекусов, Лера!_x000a_T - да_x000a_F - нет" sqref="AI32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ29:AJ32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число приемов пищи без сладостей, бутиков и т.д" sqref="AJ29:AJ32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q29:Q32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Выполнение задания_x000a_E - ЕГР_x000a_L - ЛЕРА" sqref="Q29:Q32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;+ если был сон&#10;например: С+" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" prompt="Кодируем дефицит сна_x000a_C - не выспался из-за детей_x000a_D - не выспался на дежурстве_x000a_I - бессонница_x000a_F - не выспался по сем. делам_x000a_P - не выспался, развлекался_x000a__x000a_+ если был сон_x000a_например: С+" sqref="AG32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число чашек" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="число чашек" sqref="I32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG29:AG31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" prompt="Кодируем дефицит сна_x000a_C - не выспался из-за детей_x000a_D - не выспался на дежурстве_x000a_I - бессонница_x000a_F - не выспался по сем. делам_x000a_P - не выспался, развлекался_x000a__x000a_&quot;+&quot; если был сон, &quot;-&quot; ели не было_x000a_например: +С" sqref="AG29:AG31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH29:AH31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Леры" sqref="AH29:AH31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI29:AI31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без перекусов, Лера!_x000a_T - да" sqref="AI29:AI31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L29:L32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Прогулки кодируем так:_x000a_Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:_x000a_L2,E1" sqref="L29:L32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S29:S32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число убранных комнат пылесосом" sqref="S29:S32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T29:T32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Мытье посуды:_x000a_Имя родителя, число подходов в день (без пробела)_x000a_Например: _x000a_L2,E3" sqref="T29:T32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K29:K31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Арины" sqref="K29:K31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N29:N31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Златы" sqref="N29:N31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O29:O31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Сколько снов у Златы" sqref="O29:O31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P29:P31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Златы. _x000a_T - да_x000a_" sqref="P29:P31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R29:R31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без телевизера_x000a_T - да" sqref="R29:R31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M29:M32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="число всесемейных прогулок" sqref="M29:M32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V29:V32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик_x000a_T - да" sqref="V29:V32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF29:AF32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число выполненных заданий" sqref="AF29:AF32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U29:U32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)_x000a_T - да" sqref="U29:U32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Приучаем чертовку к кровати:_x000a_Имя родителя, число процедур в день. _x000a_Напирмер: L2,E1" sqref="J32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE29:AE32" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Леры. _x000a_T - да_x000a_9 - чистка до 9 утра" sqref="AE29:AE32">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I29:I31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" sqref="I29:I31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J29:J31" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Приучаем чертовку к кровати:_x000a_Имя родителя, число укладываний в сутки. _x000a_Напирмер: L2,E1" sqref="J29:J31">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" sqref="I2:I28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Приучаем чертовку к кровати:_x000a_Имя родителя, число укладываний в сутки. _x000a_Напирмер: L2,E1" sqref="J3:J28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Арины" sqref="K2:K28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Прогулки кодируем так:_x000a_Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:_x000a_L2,E1" sqref="L2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L3:L28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Прогулки кодируем так:_x000a_Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:_x000a_L2,E1" sqref="L3:L28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="число всесемейных прогулок" sqref="M2:M28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Златы" sqref="N2:N28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Сколько снов у Златы" sqref="O2:O28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P2:P28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Златы. _x000a_T - да_x000a_" sqref="P2:P28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги_x000a_E - ЕГР_x000a_L - ЛЕРА" sqref="Q2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q3:Q28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Выполнение задания_x000a_E - ЕГР_x000a_L - ЛЕРА" sqref="Q3:Q28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R2:R28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без телевизера_x000a_T - да" sqref="R2:R28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S2:S7 S9:S28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число убранных комнат пылесосом" sqref="S2:S7 S9:S28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T7 T9:T28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Мытье посуды:_x000a_Имя родителя, число подходов в день (без пробела)_x000a_Например: _x000a_L2,E3" sqref="T2:T7 T9:T28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)_x000a_T - да" sqref="U2:U28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V2:V28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик_x000a_T - да" sqref="V2:V28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение ранее запланированных заданий. Кто сколько сделал:&#10;L1,E5 например" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X2:X19" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Выполнение ранее запланированных заданий. Кто сколько сделал:_x000a_L1,E5 например" sqref="X2:X19">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Леры. _x000a_T - да_x000a_9 - чистка до 9 утра" sqref="AE2:AE28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий за вычетом невыполненных" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF2" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число выполненных заданий за вычетом невыполненных" sqref="AF2">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF3:AF28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число выполненных заданий" sqref="AF3:AF28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG2:AG28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" prompt="Кодируем дефицит сна_x000a_C - не выспался из-за детей_x000a_D - не выспался на дежурстве_x000a_I - бессонница_x000a_F - не выспался по сем. делам_x000a_P - не выспался, развлекался_x000a__x000a_&quot;+&quot; если был сон, &quot;-&quot; ели не было_x000a_например: +С" sqref="AG2:AG28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH2:AH28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Леры" sqref="AH2:AH28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI2:AI28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без перекусов, Лера!_x000a_T - да" sqref="AI2:AI28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ28" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число приемов пищи без сладостей, бутиков и т.д" sqref="AJ2:AJ28">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="14" width="9.14"/>
+    <col min="1" max="1" width="11.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="15"/>
+    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9" style="15" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" style="15" customWidth="1"/>
+    <col min="10" max="1024" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="str">
-        <f aca="false">vedomost!A1</f>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="str">
+        <f>vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="16" t="str">
-        <f aca="false">vedomost!B1</f>
+      <c r="B1" s="17" t="str">
+        <f>vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="17" t="e">
-        <f aca="false">vedomost!#ref!</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="18" t="e">
+        <f>vedomost!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
-        <f aca="false">vedomost!A2</f>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <f>vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="21" t="n">
-        <f aca="false">vedomost!B2</f>
+      <c r="B2" s="22">
+        <f>vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
-        <f aca="false">vedomost!A3</f>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <f>vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="21" t="n">
-        <f aca="false">vedomost!B3</f>
+      <c r="B3" s="22">
+        <f>vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
-        <f aca="false">vedomost!A4</f>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <f>vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="21" t="n">
-        <f aca="false">vedomost!B4</f>
+      <c r="B4" s="22">
+        <f>vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
-        <f aca="false">vedomost!A5</f>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <f>vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="21" t="n">
-        <f aca="false">vedomost!B5</f>
+      <c r="B5" s="22">
+        <f>vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
+      <c r="C5" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
-        <f aca="false">vedomost!A6</f>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <f>vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="21" t="n">
-        <f aca="false">vedomost!B6</f>
+      <c r="B6" s="22">
+        <f>vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
-        <f aca="false">vedomost!A7</f>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <f>vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="21" t="n">
-        <f aca="false">vedomost!B7</f>
+      <c r="B7" s="22">
+        <f>vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
-        <f aca="false">vedomost!A8</f>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <f>vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="21" t="n">
-        <f aca="false">vedomost!B8</f>
+      <c r="B8" s="22">
+        <f>vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
+      <c r="C8" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
-        <f aca="false">vedomost!A9</f>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <f>vedomost!A9</f>
         <v>45085</v>
       </c>
-      <c r="B9" s="21" t="n">
-        <f aca="false">vedomost!B9</f>
+      <c r="B9" s="22">
+        <f>vedomost!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
-        <f aca="false">vedomost!A10</f>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <f>vedomost!A10</f>
         <v>45086</v>
       </c>
-      <c r="B10" s="21" t="n">
-        <f aca="false">vedomost!B10</f>
+      <c r="B10" s="22">
+        <f>vedomost!B10</f>
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
+      <c r="C10" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
-        <f aca="false">vedomost!A11</f>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <f>vedomost!A11</f>
         <v>45087</v>
       </c>
-      <c r="B11" s="21" t="n">
-        <f aca="false">vedomost!B11</f>
+      <c r="B11" s="22">
+        <f>vedomost!B11</f>
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="C11" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
-        <f aca="false">vedomost!A12</f>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f>vedomost!A12</f>
         <v>45088</v>
       </c>
-      <c r="B12" s="21" t="n">
-        <f aca="false">vedomost!B12</f>
+      <c r="B12" s="22">
+        <f>vedomost!B12</f>
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
+      <c r="C12" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
-        <f aca="false">vedomost!A13</f>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <f>vedomost!A13</f>
         <v>45089</v>
       </c>
-      <c r="B13" s="21" t="n">
-        <f aca="false">vedomost!B13</f>
+      <c r="B13" s="22">
+        <f>vedomost!B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
+      <c r="C13" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
-        <f aca="false">vedomost!A14</f>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <f>vedomost!A14</f>
         <v>45090</v>
       </c>
-      <c r="B14" s="21" t="n">
-        <f aca="false">vedomost!B14</f>
+      <c r="B14" s="22">
+        <f>vedomost!B14</f>
         <v>2</v>
       </c>
-      <c r="C14" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
-        <f aca="false">vedomost!A15</f>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <f>vedomost!A15</f>
         <v>45091</v>
       </c>
-      <c r="B15" s="21" t="n">
-        <f aca="false">vedomost!B15</f>
+      <c r="B15" s="22">
+        <f>vedomost!B15</f>
         <v>3</v>
       </c>
-      <c r="C15" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="C15" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
-        <f aca="false">vedomost!A16</f>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <f>vedomost!A16</f>
         <v>45092</v>
       </c>
-      <c r="B16" s="21" t="n">
-        <f aca="false">vedomost!B16</f>
+      <c r="B16" s="22">
+        <f>vedomost!B16</f>
         <v>4</v>
       </c>
-      <c r="C16" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
-        <f aca="false">vedomost!A17</f>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <f>vedomost!A17</f>
         <v>45093</v>
       </c>
-      <c r="B17" s="21" t="n">
-        <f aca="false">vedomost!B17</f>
+      <c r="B17" s="22">
+        <f>vedomost!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
+      <c r="C17" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
-        <f aca="false">vedomost!A18</f>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <f>vedomost!A18</f>
         <v>45094</v>
       </c>
-      <c r="B18" s="21" t="n">
-        <f aca="false">vedomost!B18</f>
+      <c r="B18" s="22">
+        <f>vedomost!B18</f>
         <v>6</v>
       </c>
-      <c r="C18" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
+      <c r="C18" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
-        <f aca="false">vedomost!A19</f>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <f>vedomost!A19</f>
         <v>45095</v>
       </c>
-      <c r="B19" s="21" t="n">
-        <f aca="false">vedomost!B19</f>
+      <c r="B19" s="22">
+        <f>vedomost!B19</f>
         <v>7</v>
       </c>
-      <c r="C19" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="C19" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
-        <f aca="false">vedomost!A20</f>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <f>vedomost!A20</f>
         <v>45096</v>
       </c>
-      <c r="B20" s="21" t="n">
-        <f aca="false">vedomost!B20</f>
+      <c r="B20" s="22">
+        <f>vedomost!B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="C20" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
-        <f aca="false">vedomost!A21</f>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <f>vedomost!A21</f>
         <v>45097</v>
       </c>
-      <c r="B21" s="21" t="n">
-        <f aca="false">vedomost!B21</f>
+      <c r="B21" s="22">
+        <f>vedomost!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="C21" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
-        <f aca="false">vedomost!A22</f>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <f>vedomost!A22</f>
         <v>45098</v>
       </c>
-      <c r="B22" s="21" t="n">
-        <f aca="false">vedomost!B22</f>
+      <c r="B22" s="22">
+        <f>vedomost!B22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
-        <f aca="false">vedomost!A23</f>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <f>vedomost!A23</f>
         <v>45099</v>
       </c>
-      <c r="B23" s="21" t="n">
-        <f aca="false">vedomost!B23</f>
+      <c r="B23" s="22">
+        <f>vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C23" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
+      <c r="C23" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="14" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
-        <f aca="false">vedomost!A24</f>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <f>vedomost!A24</f>
         <v>45100</v>
       </c>
-      <c r="B24" s="21" t="n">
-        <f aca="false">vedomost!B24</f>
+      <c r="B24" s="22">
+        <f>vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C24" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
+      <c r="C24" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24" t="s">
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
-        <f aca="false">vedomost!A25</f>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <f>vedomost!A25</f>
         <v>45101</v>
       </c>
-      <c r="B25" s="21" t="n">
-        <f aca="false">vedomost!B25</f>
+      <c r="B25" s="22">
+        <f>vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C25" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
+      <c r="C25" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
-        <f aca="false">vedomost!A26</f>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <f>vedomost!A26</f>
         <v>45102</v>
       </c>
-      <c r="B26" s="21" t="n">
-        <f aca="false">vedomost!B26</f>
+      <c r="B26" s="22">
+        <f>vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
+      <c r="C26" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24" t="s">
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
-        <f aca="false">vedomost!A27</f>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <f>vedomost!A27</f>
         <v>45103</v>
       </c>
-      <c r="B27" s="21" t="n">
-        <f aca="false">vedomost!B27</f>
+      <c r="B27" s="22">
+        <f>vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
+      <c r="C27" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
-        <f aca="false">vedomost!A28</f>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <f>vedomost!A28</f>
         <v>45104</v>
       </c>
-      <c r="B28" s="21" t="n">
-        <f aca="false">vedomost!B28</f>
+      <c r="B28" s="22">
+        <f>vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C28" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="14" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
-        <f aca="false">vedomost!A29</f>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <f>vedomost!A29</f>
         <v>45105</v>
       </c>
-      <c r="B29" s="21" t="n">
-        <f aca="false">vedomost!B29</f>
+      <c r="B29" s="22">
+        <f>vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C29" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
+      <c r="C29" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
-        <f aca="false">vedomost!A30</f>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <f>vedomost!A30</f>
         <v>45106</v>
       </c>
-      <c r="B30" s="21" t="n">
-        <f aca="false">vedomost!B30</f>
+      <c r="B30" s="22">
+        <f>vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C30" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
-        <f aca="false">vedomost!A31</f>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <f>vedomost!A31</f>
         <v>45107</v>
       </c>
-      <c r="B31" s="21" t="n">
-        <f aca="false">vedomost!B31</f>
+      <c r="B31" s="22">
+        <f>vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C31" s="22" t="e">
-        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
+      <c r="C31" s="23" t="e">
+        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J19:J22" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J19:J22">
       <formula1>$M$2:$M$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.747916666666667" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W18" activeCellId="0" sqref="W18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="24.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="41.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="40.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="36.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="47.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="40.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.09"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="5" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36" customWidth="1"/>
+    <col min="14" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" customWidth="1"/>
+    <col min="17" max="18" width="23.85546875" customWidth="1"/>
+    <col min="19" max="19" width="41.5703125" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="21" max="21" width="40" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" customWidth="1"/>
+    <col min="23" max="23" width="36.140625" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" customWidth="1"/>
+    <col min="25" max="25" width="23.85546875" customWidth="1"/>
+    <col min="26" max="26" width="47.140625" customWidth="1"/>
+    <col min="27" max="27" width="40" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" customWidth="1"/>
+    <col min="29" max="29" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="W3" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Y3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AA3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="36" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="X4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Y4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" s="35" t="s">
+      <c r="AA4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" s="35" t="s">
+      <c r="AB4" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="39" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="W5" s="43" t="s">
+      <c r="W5" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="X5" s="44" t="s">
+      <c r="X5" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" s="42" t="s">
+      <c r="AC5" s="43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42" t="s">
+      <c r="U6" s="46"/>
+      <c r="V6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="X6" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="Y6" s="42" t="s">
+      <c r="Y6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="Z6" s="42" t="s">
+      <c r="Z6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" s="42" t="s">
+      <c r="AA6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" s="42" t="s">
+      <c r="AB6" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" s="42" t="s">
+      <c r="AC6" s="46" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="S7" s="47" t="s">
+      <c r="S7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="V7" s="47" t="s">
+      <c r="V7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="W7" s="48" t="s">
+      <c r="W7" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="X7" s="46" t="s">
+      <c r="X7" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="Y7" s="47" t="s">
+      <c r="Y7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="Z7" s="47" t="s">
+      <c r="Z7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AA7" s="47" t="s">
+      <c r="AA7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" s="47" t="s">
+      <c r="AB7" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AC7" s="47" t="s">
+      <c r="AC7" s="51" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="51" t="s">
+      <c r="S8" s="58"/>
+      <c r="T8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="51" t="s">
+      <c r="U8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="V8" s="51" t="s">
+      <c r="V8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="W8" s="52" t="s">
+      <c r="W8" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="X8" s="53" t="s">
+      <c r="X8" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="51" t="s">
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" s="51" t="s">
+      <c r="AB8" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AC8" s="51" t="s">
+      <c r="AC8" s="55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:29" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="55" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="55" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="55" t="s">
+      <c r="J9" s="61"/>
+      <c r="K9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="55" t="s">
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55" t="s">
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="U9" s="55" t="s">
+      <c r="U9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="55" t="s">
+      <c r="W9" s="59"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" s="55" t="s">
+      <c r="AB9" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55" t="s">
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" spans="1:29" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55" t="n">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="59">
         <v>3</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57" t="n">
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61">
         <v>3</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57" t="n">
+      <c r="H10" s="61"/>
+      <c r="I10" s="61">
         <v>3</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57" t="n">
+      <c r="J10" s="61"/>
+      <c r="K10" s="61">
         <v>2</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57" t="n">
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61">
         <v>3</v>
       </c>
-      <c r="O10" s="55" t="n">
+      <c r="O10" s="59">
         <v>3</v>
       </c>
-      <c r="P10" s="56" t="n">
+      <c r="P10" s="60">
         <v>3</v>
       </c>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57" t="n">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61">
         <v>3</v>
       </c>
-      <c r="U10" s="57" t="n">
+      <c r="U10" s="61">
         <v>2</v>
       </c>
-      <c r="V10" s="57" t="n">
+      <c r="V10" s="61">
         <v>2</v>
       </c>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57" t="n">
+      <c r="W10" s="59"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61">
         <v>2</v>
       </c>
-      <c r="AB10" s="57" t="n">
+      <c r="AB10" s="61">
         <v>2</v>
       </c>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55" t="s">
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" spans="1:29" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="55" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57" t="n">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="59">
+        <v>25</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61">
+        <v>25</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61">
         <v>50</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57" t="n">
+      <c r="J11" s="61"/>
+      <c r="K11" s="61">
         <v>100</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57" t="n">
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61">
         <v>30</v>
       </c>
-      <c r="O11" s="55" t="n">
+      <c r="O11" s="59">
         <v>30</v>
       </c>
-      <c r="P11" s="56" t="s">
+      <c r="P11" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57" t="s">
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="U11" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="V11" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="57" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U11" s="61">
+        <v>25</v>
+      </c>
+      <c r="V11" s="61">
+        <v>25</v>
+      </c>
+      <c r="W11" s="59"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="61">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="61"/>
+    </row>
+    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K12" s="4" t="s">
         <v>52</v>
       </c>
@@ -6647,71 +6978,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9 I10:I11 K10:K11 N10:P11 T10:T11 A5:AC8">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\учимся жить\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="vedomost" sheetId="1" r:id="rId1"/>
-    <sheet name="работа по дому" sheetId="2" r:id="rId2"/>
-    <sheet name="price" sheetId="3" r:id="rId3"/>
+    <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="работа по дому" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="price" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,622 +22,665 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="201">
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>DAY</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>DUTY</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>WEAK</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Lza, E</t>
-  </si>
-  <si>
-    <t>Lh</t>
-  </si>
-  <si>
-    <t>Ed24(0)</t>
-  </si>
-  <si>
-    <t>zKG(1)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>22:20</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22:40</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>can`t</t>
-  </si>
-  <si>
-    <t>22:10</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>Lza, Eza</t>
-  </si>
-  <si>
-    <t>Lh, Eh</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>22:01</t>
-  </si>
-  <si>
-    <t>L1,E1</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>23:40</t>
-  </si>
-  <si>
-    <t>Eh</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>Ed24(1)</t>
-  </si>
-  <si>
-    <t>z, a</t>
-  </si>
-  <si>
-    <t>Ed8(2)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>22:11</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>22:03</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>20:59</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>22:35</t>
-  </si>
-  <si>
-    <t>+C</t>
-  </si>
-  <si>
-    <t>23:45</t>
-  </si>
-  <si>
-    <t>22:45</t>
-  </si>
-  <si>
-    <t>23:55</t>
-  </si>
-  <si>
-    <t>21:55</t>
-  </si>
-  <si>
-    <t>E1,L2</t>
-  </si>
-  <si>
-    <t>-D</t>
-  </si>
-  <si>
-    <t>-C</t>
-  </si>
-  <si>
-    <t>Ed8(0)</t>
-  </si>
-  <si>
-    <t>E1,L1</t>
-  </si>
-  <si>
-    <t>22:50</t>
-  </si>
-  <si>
-    <t>L1, E2</t>
-  </si>
-  <si>
-    <t>21:02</t>
-  </si>
-  <si>
-    <t>22:15</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>21:50</t>
-  </si>
-  <si>
-    <t>L1, E4</t>
-  </si>
-  <si>
-    <t>23:15</t>
-  </si>
-  <si>
-    <t>23:50</t>
-  </si>
-  <si>
-    <t>zKG(0.5)</t>
-  </si>
-  <si>
-    <t>21:20</t>
-  </si>
-  <si>
-    <t>+D</t>
-  </si>
-  <si>
-    <t>23:10</t>
-  </si>
-  <si>
-    <t>-P</t>
-  </si>
-  <si>
-    <t>22:47</t>
-  </si>
-  <si>
-    <t>23:58</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>22:05</t>
-  </si>
-  <si>
-    <t>23:20</t>
-  </si>
-  <si>
-    <t>22:25</t>
-  </si>
-  <si>
-    <t>23:25</t>
-  </si>
-  <si>
-    <t>22:28</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>увлажнители</t>
-  </si>
-  <si>
-    <t>пол</t>
-  </si>
-  <si>
-    <t>шмотки</t>
-  </si>
-  <si>
-    <t>утварь</t>
-  </si>
-  <si>
-    <t>лимонка</t>
-  </si>
-  <si>
-    <t>штрафы</t>
-  </si>
-  <si>
-    <t>е</t>
-  </si>
-  <si>
-    <t>л</t>
-  </si>
-  <si>
-    <t>ст / суш / гл</t>
-  </si>
-  <si>
-    <t>НОСКИ</t>
-  </si>
-  <si>
-    <t>холод</t>
-  </si>
-  <si>
-    <t>ЗАБЫВАШКА</t>
-  </si>
-  <si>
-    <t>РУГАНЬ</t>
-  </si>
-  <si>
-    <t>РАСПРАВА</t>
-  </si>
-  <si>
-    <t>ЧАШКА</t>
-  </si>
-  <si>
-    <t>ВОЛОСЫ</t>
-  </si>
-  <si>
-    <t>СОЖАЛЕНИЕ</t>
-  </si>
-  <si>
-    <t>В МАСЛЕ</t>
-  </si>
-  <si>
-    <t>БЕЛЬЕ В МАШИНЕ, МОКРОТА ЗА РЕЗНКОЮ</t>
-  </si>
-  <si>
-    <t>ПЫЛЕСОС</t>
-  </si>
-  <si>
-    <t>РАЗГОВОРЫ О 3м</t>
-  </si>
-  <si>
-    <t>плита</t>
-  </si>
-  <si>
-    <t>краны</t>
-  </si>
-  <si>
-    <t>поощрения</t>
-  </si>
-  <si>
-    <t>долгий ящик</t>
-  </si>
-  <si>
-    <t>категория</t>
-  </si>
-  <si>
-    <t>днюха у златы</t>
-  </si>
-  <si>
-    <t>что там с зубами у златы</t>
-  </si>
-  <si>
-    <t>уборка авто</t>
-  </si>
-  <si>
-    <t>посади Злату на велик</t>
-  </si>
-  <si>
-    <t>поручения Леры</t>
-  </si>
-  <si>
-    <t>подход к плесени</t>
-  </si>
-  <si>
-    <t>сортировка игрушек (с выбросом плесени)</t>
-  </si>
-  <si>
-    <t>переборка круп, сухофруктов</t>
-  </si>
-  <si>
-    <t>приборка в кладовке</t>
-  </si>
-  <si>
-    <t>стиралка</t>
-  </si>
-  <si>
-    <t>компьютер почисть</t>
-  </si>
-  <si>
-    <t>сборы в дорогу</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>a:titi</t>
-  </si>
-  <si>
-    <t>a:bed</t>
-  </si>
-  <si>
-    <t>a:sleeptime</t>
-  </si>
-  <si>
-    <t>z:stroll</t>
-  </si>
-  <si>
-    <t>z:family_stroll</t>
-  </si>
-  <si>
-    <t>z:sleeptime</t>
-  </si>
-  <si>
-    <t>z:dreams</t>
-  </si>
-  <si>
-    <t>z:teeth</t>
-  </si>
-  <si>
-    <t>z:edu</t>
-  </si>
-  <si>
-    <t>z:tele</t>
-  </si>
-  <si>
-    <t>h:vacuum</t>
-  </si>
-  <si>
-    <t>h:dishwash</t>
-  </si>
-  <si>
-    <t>h:kitchen</t>
-  </si>
-  <si>
-    <t>h:vestibule</t>
-  </si>
-  <si>
-    <t>e:hygiene</t>
-  </si>
-  <si>
-    <t>e:plan</t>
-  </si>
-  <si>
-    <t>e:silence</t>
-  </si>
-  <si>
-    <t>e:siesta</t>
-  </si>
-  <si>
-    <t>e:dev</t>
-  </si>
-  <si>
-    <t>e:sleeptime</t>
-  </si>
-  <si>
-    <t>e:diet</t>
-  </si>
-  <si>
-    <t>e:meals</t>
-  </si>
-  <si>
-    <t>l:teeth</t>
-  </si>
-  <si>
-    <t>l:plan</t>
-  </si>
-  <si>
-    <t>l:siesta</t>
-  </si>
-  <si>
-    <t>l:sleeptime</t>
-  </si>
-  <si>
-    <t>l:diet</t>
-  </si>
-  <si>
-    <t>l:meals</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>{"&gt;=.4": -50, "&lt;.4": 25, "&lt;=.2": 50}</t>
-  </si>
-  <si>
-    <t>{"&gt;.0": "10*" , "0": -50}</t>
-  </si>
-  <si>
-    <t>{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
-  </si>
-  <si>
-    <t>{"&gt;.0": "25*", "0": -50}</t>
-  </si>
-  <si>
-    <t>{"&gt;.0": "75*", "0": -50}</t>
-  </si>
-  <si>
-    <t>{"1": 50, "0": -150}</t>
-  </si>
-  <si>
-    <t>{"+": 0, "-": -50}</t>
-  </si>
-  <si>
-    <t>{"+": 50, "-": 0}</t>
-  </si>
-  <si>
-    <t>{"+": 50, "-": -50}</t>
-  </si>
-  <si>
-    <t>{"&gt;.0": "20*", "0": 0}</t>
-  </si>
-  <si>
-    <t>{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
-  </si>
-  <si>
-    <t>{"9": 0, "+": -25, "-": -50}</t>
-  </si>
-  <si>
-    <t>{"&gt;.0": "10*", "0": -50}</t>
-  </si>
-  <si>
-    <t>{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
-  </si>
-  <si>
-    <t>{"&lt;.23": "1.5*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
-  </si>
-  <si>
-    <t>{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t>{"9": 50, "+": 0, "-": -50}</t>
-  </si>
-  <si>
-    <t>{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
-  </si>
-  <si>
-    <t>{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>{"True": "0.25*", "False": "0.12*"}</t>
-  </si>
-  <si>
-    <t>-0.25*</t>
-  </si>
-  <si>
-    <t>-0.12*</t>
-  </si>
-  <si>
-    <t>d24</t>
-  </si>
-  <si>
-    <t>0.25*</t>
-  </si>
-  <si>
-    <t>d8</t>
-  </si>
-  <si>
-    <t>[-0.25, 0, 0.25]</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
-    <t>every N</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>22:55</t>
-  </si>
-  <si>
-    <t>21:15</t>
-  </si>
-  <si>
-    <t>21:42</t>
-  </si>
-  <si>
-    <t>0:05</t>
-  </si>
-  <si>
-    <t>21:01</t>
-  </si>
-  <si>
-    <t>E5,L1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="202">
+  <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lza, E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed24(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zKG(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can`t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lza, Eza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lh, Eh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1,E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed24(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z, a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed8(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed8(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1, E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zKG(0.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5,L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">увлажнители</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шмотки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">утварь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лимонка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">штрафы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ст / суш / гл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОСКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">холод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАБЫВАШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУГАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАСПРАВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧАШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЛОСЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЖАЛЕНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В МАСЛЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЬЕ В МАШИНЕ, МОКРОТА ЗА РЕЗНКОЮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЫЛЕСОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РАЗГОВОРЫ О 3м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">плита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">краны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поощрения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">долгий ящик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">категория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">днюха у златы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">что там с зубами у златы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уборка авто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">посади Злату на велик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поручения Леры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подход к плесени</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сортировка игрушек (с выбросом плесени)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">переборка круп, сухофруктов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">приборка в кладовке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стиралка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">компьютер почисть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сборы в дорогу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a:titi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a:bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:stroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:family_stroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:teeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z:tele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:vacuum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:dishwash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:kitchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h:vestibule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:siesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e:meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:teeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:siesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:sleeptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:diet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l:meals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;=.2": 50, "&lt;.4": 25, "&gt;=.4": -50 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "10*" , "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "25*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "75*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 50, "0": -150}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 0, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 50, "-": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 50, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"9": 0, "+": -25, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "10*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": {"CDIF": 100, "P": 50}, "-": {"CDIFP": 0}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "1.5*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.3": "15*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"9": 50, "+": 0, "-": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.23": "2*", "&gt;.23": "-0.5*", "&gt;.0": "-1.5*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"True": "0.25*", "False": "0.12*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m;@"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -653,28 +692,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -728,177 +745,407 @@
     </fill>
   </fills>
   <borders count="8">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="63">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -983,64 +1230,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1099,335 +1289,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
-  <a:themeElements>
-    <a:clrScheme name="Стандартная">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Стандартная">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="AC30" activeCellId="0" sqref="AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" customWidth="1"/>
-    <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="3" customWidth="1"/>
-    <col min="24" max="26" width="9.85546875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="6" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="29" width="6.28515625" customWidth="1"/>
-    <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="7" style="3" customWidth="1"/>
-    <col min="32" max="33" width="7" style="4" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" customWidth="1"/>
-    <col min="35" max="35" width="5.7109375" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" customWidth="1"/>
-    <col min="37" max="37" width="8.5703125" style="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="4" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="3" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="4" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="7.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1453,129 +1370,129 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="str">
-        <f>price!B1</f>
+        <f aca="false">price!B1</f>
         <v>a:titi</v>
       </c>
       <c r="J1" s="7" t="str">
-        <f>price!C1</f>
+        <f aca="false">price!C1</f>
         <v>a:bed</v>
       </c>
       <c r="K1" s="7" t="str">
-        <f>price!D1</f>
+        <f aca="false">price!D1</f>
         <v>a:sleeptime</v>
       </c>
       <c r="L1" s="7" t="str">
-        <f>price!E1</f>
+        <f aca="false">price!E1</f>
         <v>z:stroll</v>
       </c>
       <c r="M1" s="7" t="str">
-        <f>price!F1</f>
+        <f aca="false">price!F1</f>
         <v>z:family_stroll</v>
       </c>
       <c r="N1" s="7" t="str">
-        <f>price!G1</f>
+        <f aca="false">price!G1</f>
         <v>z:sleeptime</v>
       </c>
       <c r="O1" s="7" t="str">
-        <f>price!H1</f>
+        <f aca="false">price!H1</f>
         <v>z:dreams</v>
       </c>
       <c r="P1" s="7" t="str">
-        <f>price!I1</f>
+        <f aca="false">price!I1</f>
         <v>z:teeth</v>
       </c>
       <c r="Q1" s="7" t="str">
-        <f>price!J1</f>
+        <f aca="false">price!J1</f>
         <v>z:edu</v>
       </c>
       <c r="R1" s="7" t="str">
-        <f>price!K1</f>
+        <f aca="false">price!K1</f>
         <v>z:tele</v>
       </c>
       <c r="S1" s="7" t="str">
-        <f>price!L1</f>
+        <f aca="false">price!L1</f>
         <v>h:vacuum</v>
       </c>
       <c r="T1" s="7" t="str">
-        <f>price!M1</f>
+        <f aca="false">price!M1</f>
         <v>h:dishwash</v>
       </c>
       <c r="U1" s="7" t="str">
-        <f>price!N1</f>
+        <f aca="false">price!N1</f>
         <v>h:kitchen</v>
       </c>
       <c r="V1" s="7" t="str">
-        <f>price!O1</f>
+        <f aca="false">price!O1</f>
         <v>h:vestibule</v>
       </c>
       <c r="W1" s="7" t="str">
-        <f>price!P1</f>
+        <f aca="false">price!P1</f>
         <v>e:hygiene</v>
       </c>
       <c r="X1" s="7" t="str">
-        <f>price!Q1</f>
+        <f aca="false">price!Q1</f>
         <v>e:plan</v>
       </c>
       <c r="Y1" s="7" t="str">
-        <f>price!R1</f>
+        <f aca="false">price!R1</f>
         <v>e:silence</v>
       </c>
       <c r="Z1" s="7" t="str">
-        <f>price!S1</f>
+        <f aca="false">price!S1</f>
         <v>e:siesta</v>
       </c>
       <c r="AA1" s="7" t="str">
-        <f>price!T1</f>
+        <f aca="false">price!T1</f>
         <v>e:dev</v>
       </c>
       <c r="AB1" s="7" t="str">
-        <f>price!U1</f>
+        <f aca="false">price!U1</f>
         <v>e:sleeptime</v>
       </c>
       <c r="AC1" s="7" t="str">
-        <f>price!V1</f>
+        <f aca="false">price!V1</f>
         <v>e:diet</v>
       </c>
       <c r="AD1" s="7" t="str">
-        <f>price!W1</f>
+        <f aca="false">price!W1</f>
         <v>e:meals</v>
       </c>
       <c r="AE1" s="7" t="str">
-        <f>price!X1</f>
+        <f aca="false">price!X1</f>
         <v>l:teeth</v>
       </c>
       <c r="AF1" s="7" t="str">
-        <f>price!Y1</f>
+        <f aca="false">price!Y1</f>
         <v>l:plan</v>
       </c>
       <c r="AG1" s="7" t="str">
-        <f>price!Z1</f>
+        <f aca="false">price!Z1</f>
         <v>l:siesta</v>
       </c>
       <c r="AH1" s="7" t="str">
-        <f>price!AA1</f>
+        <f aca="false">price!AA1</f>
         <v>l:sleeptime</v>
       </c>
       <c r="AI1" s="7" t="str">
-        <f>price!AB1</f>
+        <f aca="false">price!AB1</f>
         <v>l:diet</v>
       </c>
       <c r="AJ1" s="7" t="str">
-        <f>price!AC1</f>
+        <f aca="false">price!AC1</f>
         <v>l:meals</v>
       </c>
       <c r="AK1" s="7"/>
       <c r="AL1" s="6" t="str">
-        <f>IFERROR(IF(INDEX(#REF!,MATCH(AK1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AK1,#REF!,0)+1)), "")</f>
+        <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AK1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AK1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>45078</v>
       </c>
-      <c r="B2" s="6">
-        <f t="shared" ref="B2:B31" si="0">IFERROR(WEEKDAY(A2,2),"")</f>
+      <c r="B2" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1677,16 +1594,16 @@
       <c r="AI2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>45079</v>
       </c>
-      <c r="B3" s="6">
-        <f t="shared" si="0"/>
+      <c r="B3" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1788,16 +1705,16 @@
       <c r="AI3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>45080</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
+      <c r="B4" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1899,16 +1816,16 @@
       <c r="AI4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>45081</v>
       </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
+      <c r="B5" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1926,7 +1843,7 @@
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2014,12 +1931,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>45082</v>
       </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
+      <c r="B6" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2037,7 +1954,7 @@
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -2125,12 +2042,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>45083</v>
       </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
+      <c r="B7" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2148,7 +2065,7 @@
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -2236,12 +2153,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>45084</v>
       </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
+      <c r="B8" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2259,7 +2176,7 @@
       <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -2347,12 +2264,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>45085</v>
       </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
+      <c r="B9" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2370,7 +2287,7 @@
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -2458,12 +2375,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>45086</v>
       </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
+      <c r="B10" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2481,7 +2398,7 @@
       <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -2569,12 +2486,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>45087</v>
       </c>
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
+      <c r="B11" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2592,7 +2509,7 @@
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -2680,12 +2597,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>45088</v>
       </c>
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
+      <c r="B12" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2703,7 +2620,7 @@
       <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -2791,12 +2708,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>45089</v>
       </c>
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
+      <c r="B13" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2814,7 +2731,7 @@
       <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="0" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -2902,12 +2819,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>45090</v>
       </c>
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
+      <c r="B14" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2925,7 +2842,7 @@
       <c r="G14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -3013,12 +2930,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>45091</v>
       </c>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
+      <c r="B15" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3036,7 +2953,7 @@
       <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -3124,12 +3041,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>45092</v>
       </c>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
+      <c r="B16" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3147,7 +3064,7 @@
       <c r="G16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -3231,16 +3148,16 @@
       <c r="AI16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>45093</v>
       </c>
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
+      <c r="B17" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3258,7 +3175,7 @@
       <c r="G17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -3342,16 +3259,16 @@
       <c r="AI17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>45094</v>
       </c>
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
+      <c r="B18" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3369,7 +3286,7 @@
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -3453,16 +3370,16 @@
       <c r="AI18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>45095</v>
       </c>
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
+      <c r="B19" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3480,7 +3397,7 @@
       <c r="G19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -3564,16 +3481,16 @@
       <c r="AI19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>45096</v>
       </c>
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
+      <c r="B20" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -3591,7 +3508,7 @@
       <c r="G20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -3679,12 +3596,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>45097</v>
       </c>
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
+      <c r="B21" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -3699,10 +3616,10 @@
       <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -3790,12 +3707,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>45098</v>
       </c>
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
+      <c r="B22" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -3813,7 +3730,7 @@
       <c r="G22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -3901,12 +3818,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>45099</v>
       </c>
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
+      <c r="B23" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>4</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3924,7 +3841,7 @@
       <c r="G23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -4012,12 +3929,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>45100</v>
       </c>
-      <c r="B24" s="6">
-        <f t="shared" si="0"/>
+      <c r="B24" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -4035,7 +3952,7 @@
       <c r="G24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -4119,16 +4036,16 @@
       <c r="AI24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>45101</v>
       </c>
-      <c r="B25" s="6">
-        <f t="shared" si="0"/>
+      <c r="B25" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>6</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -4146,7 +4063,7 @@
       <c r="G25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -4234,12 +4151,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>45102</v>
       </c>
-      <c r="B26" s="6">
-        <f t="shared" si="0"/>
+      <c r="B26" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>7</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -4257,7 +4174,7 @@
       <c r="G26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -4341,16 +4258,16 @@
       <c r="AI26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ26" s="12" t="s">
+      <c r="AJ26" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>45103</v>
       </c>
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
+      <c r="B27" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -4362,13 +4279,13 @@
       <c r="E27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -4456,12 +4373,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>45104</v>
       </c>
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
+      <c r="B28" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4479,7 +4396,7 @@
       <c r="G28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -4563,16 +4480,16 @@
       <c r="AI28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>45105</v>
       </c>
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
+      <c r="B29" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -4590,7 +4507,7 @@
       <c r="G29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="8" t="s">
@@ -4609,7 +4526,7 @@
         <v>18</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>25</v>
@@ -4671,19 +4588,19 @@
       <c r="AH29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ29">
+      <c r="AI29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>45106</v>
       </c>
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
+      <c r="B30" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -4695,13 +4612,13 @@
       <c r="E30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -4711,7 +4628,7 @@
         <v>17</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>15</v>
@@ -4720,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>18</v>
@@ -4759,7 +4676,7 @@
         <v>79</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>60</v>
@@ -4780,21 +4697,21 @@
         <v>65</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="AI30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>45107</v>
       </c>
-      <c r="B31" s="6">
-        <f t="shared" si="0"/>
+      <c r="B31" s="6" t="n">
+        <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4812,7 +4729,7 @@
       <c r="G31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -4822,7 +4739,7 @@
         <v>33</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>67</v>
@@ -4849,7 +4766,7 @@
         <v>18</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="U31" s="6" t="s">
         <v>20</v>
@@ -4893,14 +4810,14 @@
       <c r="AH31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ31">
+      <c r="AI31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ31" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4916,7 +4833,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="13"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
@@ -4931,2041 +4848,2056 @@
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="11"/>
-      <c r="AG32" s="13"/>
+      <c r="AG32" s="12"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B28:B32 AK2:AL4 A3:A32 M3:M32 I29:L32 N29:AJ32 B3:B25 F3:H4 H1:AL1 A1:G2 C3:E14 F5:F15 H2 D15:E16 C17:F17 D18:E23 G2:G20 C21:C26 F22:F23 E25:F25 C32:F32 D24:D29 E24 E26:E29 C30:E31 G22:G31">
-    <cfRule type="beginsWith" dxfId="19" priority="2" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="2" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="0">
       <formula>LEFT(A1,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 X4">
-    <cfRule type="beginsWith" dxfId="18" priority="3" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="3" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="1">
       <formula>LEFT(B4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:T28 W24:AD25 W28:AD28 K28:L28 U24:V28 AE25:AJ28 I24:J28 M24:M28 N24:T25 K24:K25 AE24 AG24:AJ24 C27:C29 C15:C16 C23:D23 C18:C20">
-    <cfRule type="beginsWith" dxfId="17" priority="4" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="4" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="2">
       <formula>LEFT(C15,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26:T27 W26:AD27 K26:L27">
-    <cfRule type="beginsWith" dxfId="16" priority="5" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="5" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="3">
       <formula>LEFT(K26,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:AD23 Y2:AJ3 L2:W2 I3:W3 I2:J2 U5:V23 W5:W19 Y5:AD19 N11:T21 I5:M20 M21 M22:T22 I21:L22 I23:T23 AE5:AJ23 AF24 L24:L25 O5:T10">
-    <cfRule type="beginsWith" dxfId="15" priority="6" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="6" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="4">
       <formula>LEFT(I2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3 X5:X19">
-    <cfRule type="beginsWith" dxfId="14" priority="7" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="7" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="5">
       <formula>LEFT(X2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="beginsWith" dxfId="13" priority="8" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="8" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="6">
       <formula>LEFT(K2,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:W4 Y4:AJ4 N5:N10">
-    <cfRule type="beginsWith" dxfId="12" priority="9" operator="beginsWith" text="!">
+    <cfRule type="beginsWith" priority="9" operator="beginsWith" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="!" dxfId="7">
       <formula>LEFT(I4,LEN("!"))="!"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="53">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число,число" prompt="Время сна Арины" sqref="K32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число,число" prompt="Время сна Златы" sqref="N32:O32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N32:O32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Златы. _x000a_T - да_x000a_F - нет" sqref="P32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без телевизера_x000a_T - да_x000a_F - нет" sqref="R32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число,число" prompt="Время сна Леры" sqref="AH32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число,число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без перекусов, Лера!_x000a_T - да_x000a_F - нет" sqref="AI32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да&#10;F - нет" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число приемов пищи без сладостей, бутиков и т.д" sqref="AJ29:AJ32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ29:AJ32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Выполнение задания_x000a_E - ЕГР_x000a_L - ЛЕРА" sqref="Q29:Q32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q29:Q32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" prompt="Кодируем дефицит сна_x000a_C - не выспался из-за детей_x000a_D - не выспался на дежурстве_x000a_I - бессонница_x000a_F - не выспался по сем. делам_x000a_P - не выспался, развлекался_x000a__x000a_+ если был сон_x000a_например: С+" sqref="AG32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;+ если был сон&#10;например: С+" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="число чашек" sqref="I32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число чашек" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" prompt="Кодируем дефицит сна_x000a_C - не выспался из-за детей_x000a_D - не выспался на дежурстве_x000a_I - бессонница_x000a_F - не выспался по сем. делам_x000a_P - не выспался, развлекался_x000a__x000a_&quot;+&quot; если был сон, &quot;-&quot; ели не было_x000a_например: +С" sqref="AG29:AG31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG29:AG31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Леры" sqref="AH29:AH31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH29:AH31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без перекусов, Лера!_x000a_T - да" sqref="AI29:AI31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI29:AI31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Прогулки кодируем так:_x000a_Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:_x000a_L2,E1" sqref="L29:L32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L29:L32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число убранных комнат пылесосом" sqref="S29:S32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S29:S32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Мытье посуды:_x000a_Имя родителя, число подходов в день (без пробела)_x000a_Например: _x000a_L2,E3" sqref="T29:T32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T29:T32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Арины" sqref="K29:K31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K29:K31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Златы" sqref="N29:N31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N29:N31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Сколько снов у Златы" sqref="O29:O31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O29:O31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Златы. _x000a_T - да_x000a_" sqref="P29:P31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P29:P31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без телевизера_x000a_T - да" sqref="R29:R31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R29:R31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="число всесемейных прогулок" sqref="M29:M32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M29:M32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик_x000a_T - да" sqref="V29:V32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V29:V32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число выполненных заданий" sqref="AF29:AF32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF29:AF32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)_x000a_T - да" sqref="U29:U32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U29:U32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Приучаем чертовку к кровати:_x000a_Имя родителя, число процедур в день. _x000a_Напирмер: L2,E1" sqref="J32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число процедур в день. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Леры. _x000a_T - да_x000a_9 - чистка до 9 утра" sqref="AE29:AE32">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE29:AE32" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" sqref="I29:I31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I29:I31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Приучаем чертовку к кровати:_x000a_Имя родителя, число укладываний в сутки. _x000a_Напирмер: L2,E1" sqref="J29:J31">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J29:J31" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" sqref="I2:I28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="сколько было кормлений титей днем (кллючая кормление перед сном)" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I2:I28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Приучаем чертовку к кровати:_x000a_Имя родителя, число укладываний в сутки. _x000a_Напирмер: L2,E1" sqref="J3:J28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Приучаем чертовку к кровати:&#10;Имя родителя, число укладываний в сутки. &#10;Напирмер: L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Арины" sqref="K2:K28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Арины" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2:K28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Прогулки кодируем так:_x000a_Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:_x000a_L2,E1" sqref="L2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Прогулки кодируем так:_x000a_Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:_x000a_L2,E1" sqref="L3:L28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Прогулки кодируем так:&#10;Имя родителя, число прогулок в день (или 2 если прогулка с 2мя детьми). Напирмер:&#10;L2,E1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L3:L28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="число всесемейных прогулок" sqref="M2:M28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="число всесемейных прогулок" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M2:M28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Златы" sqref="N2:N28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Златы" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N2:N28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Сколько снов у Златы" sqref="O2:O28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Сколько снов у Златы" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Златы. _x000a_T - да_x000a_" sqref="P2:P28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Златы. &#10;T - да&#10;" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="P2:P28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги_x000a_E - ЕГР_x000a_L - ЛЕРА" sqref="Q2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания. Сюда входит: тетрадь логопеда, конструкторы, развивающие книги&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Выполнение задания_x000a_E - ЕГР_x000a_L - ЛЕРА" sqref="Q3:Q28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение задания&#10;E - ЕГР&#10;L - ЛЕРА" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Q3:Q28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без телевизера_x000a_T - да" sqref="R2:R28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без телевизера&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R2:R28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число убранных комнат пылесосом" sqref="S2:S7 S9:S28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число убранных комнат пылесосом" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S2:S7 S9:S28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Мытье посуды:_x000a_Имя родителя, число подходов в день (без пробела)_x000a_Например: _x000a_L2,E3" sqref="T2:T7 T9:T28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Мытье посуды:&#10;Имя родителя, число подходов в день (без пробела)&#10;Например: &#10;L2,E3" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T2:T7 T9:T28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)_x000a_T - да" sqref="U2:U28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная кухня. Посуда помыта, убрана. НИКАКИХ ГРЯЗНЫХ НОЖЕЙ. Столы протерты. Допускается маслянная сковорода многократного применения (чтоб вкуснее)&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U2:U28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик_x000a_T - да" sqref="V2:V28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Убранная пирхожка. Все по местам. Никаких обуток и шмоток. Допускается пыльный коврик&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V2:V28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" prompt="Выполнение ранее запланированных заданий. Кто сколько сделал:_x000a_L1,E5 например" sqref="X2:X19">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Выполнение ранее запланированных заданий. Кто сколько сделал:&#10;L1,E5 например" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВАчисло" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X2:X19" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Чистка зубов Леры. _x000a_T - да_x000a_9 - чистка до 9 утра" sqref="AE2:AE28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Чистка зубов Леры. &#10;T - да&#10;9 - чистка до 9 утра" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AE2:AE28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число выполненных заданий за вычетом невыполненных" sqref="AF2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий за вычетом невыполненных" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число выполненных заданий" sqref="AF3:AF28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число выполненных заданий" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF3:AF28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" prompt="Кодируем дефицит сна_x000a_C - не выспался из-за детей_x000a_D - не выспался на дежурстве_x000a_I - бессонница_x000a_F - не выспался по сем. делам_x000a_P - не выспался, развлекался_x000a__x000a_&quot;+&quot; если был сон, &quot;-&quot; ели не было_x000a_например: +С" sqref="AG2:AG28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Кодируем дефицит сна&#10;C - не выспался из-за детей&#10;D - не выспался на дежурстве&#10;I - бессонница&#10;F - не выспался по сем. делам&#10;P - не выспался, развлекался&#10;&#10;&quot;+&quot; если был сон, &quot;-&quot; ели не было&#10;например: +С" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА+" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AG2:AG28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число:число" prompt="Время сна Леры" sqref="AH2:AH28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Время сна Леры" promptTitle="синтаксис: число:число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH2:AH28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" prompt="Без перекусов, Лера!_x000a_T - да" sqref="AI2:AI28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Без перекусов, Лера!&#10;T - да" promptTitle="синтаксис: ЗАГЛАВНАЯ БУКВА" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI2:AI28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="синтаксис: число" prompt="Число приемов пищи без сладостей, бутиков и т.д" sqref="AJ2:AJ28">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Число приемов пищи без сладостей, бутиков и т.д" promptTitle="синтаксис: число" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ2:AJ28" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="15"/>
-    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9" style="15" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" style="15" customWidth="1"/>
-    <col min="10" max="1024" width="9.140625" style="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="14" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="str">
-        <f>vedomost!A1</f>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="str">
+        <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="17" t="str">
-        <f>vedomost!B1</f>
+      <c r="B1" s="16" t="str">
+        <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="18" t="e">
-        <f>vedomost!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="C1" s="17" t="e">
+        <f aca="false">vedomost!#ref!</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
-        <f>vedomost!A2</f>
+      <c r="F1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="n">
+        <f aca="false">vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="22">
-        <f>vedomost!B2</f>
+      <c r="B2" s="21" t="n">
+        <f aca="false">vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <f>vedomost!A3</f>
+      <c r="C2" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="n">
+        <f aca="false">vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="22">
-        <f>vedomost!B3</f>
+      <c r="B3" s="21" t="n">
+        <f aca="false">vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <f>vedomost!A4</f>
+      <c r="C3" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
+        <f aca="false">vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="22">
-        <f>vedomost!B4</f>
+      <c r="B4" s="21" t="n">
+        <f aca="false">vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <f>vedomost!A5</f>
+      <c r="C4" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="n">
+        <f aca="false">vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="22">
-        <f>vedomost!B5</f>
+      <c r="B5" s="21" t="n">
+        <f aca="false">vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <f>vedomost!A6</f>
+      <c r="C5" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="n">
+        <f aca="false">vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="22">
-        <f>vedomost!B6</f>
+      <c r="B6" s="21" t="n">
+        <f aca="false">vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
+      <c r="C6" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <f>vedomost!A7</f>
+      <c r="G6" s="21"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="n">
+        <f aca="false">vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="22">
-        <f>vedomost!B7</f>
+      <c r="B7" s="21" t="n">
+        <f aca="false">vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <f>vedomost!A8</f>
+      <c r="C7" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="n">
+        <f aca="false">vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="22">
-        <f>vedomost!B8</f>
+      <c r="B8" s="21" t="n">
+        <f aca="false">vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="s">
+      <c r="C8" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="n">
+        <f aca="false">vedomost!A9</f>
+        <v>45085</v>
+      </c>
+      <c r="B9" s="21" t="n">
+        <f aca="false">vedomost!B9</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="n">
+        <f aca="false">vedomost!A10</f>
+        <v>45086</v>
+      </c>
+      <c r="B10" s="21" t="n">
+        <f aca="false">vedomost!B10</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="n">
+        <f aca="false">vedomost!A11</f>
+        <v>45087</v>
+      </c>
+      <c r="B11" s="21" t="n">
+        <f aca="false">vedomost!B11</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
+        <f aca="false">vedomost!A12</f>
+        <v>45088</v>
+      </c>
+      <c r="B12" s="21" t="n">
+        <f aca="false">vedomost!B12</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
+        <f aca="false">vedomost!A13</f>
+        <v>45089</v>
+      </c>
+      <c r="B13" s="21" t="n">
+        <f aca="false">vedomost!B13</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <f aca="false">vedomost!A14</f>
+        <v>45090</v>
+      </c>
+      <c r="B14" s="21" t="n">
+        <f aca="false">vedomost!B14</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <f aca="false">vedomost!A15</f>
+        <v>45091</v>
+      </c>
+      <c r="B15" s="21" t="n">
+        <f aca="false">vedomost!B15</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <f aca="false">vedomost!A16</f>
+        <v>45092</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <f aca="false">vedomost!B16</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <f>vedomost!A9</f>
-        <v>45085</v>
-      </c>
-      <c r="B9" s="22">
-        <f>vedomost!B9</f>
+      <c r="H16" s="23"/>
+      <c r="I16" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
+        <f aca="false">vedomost!A17</f>
+        <v>45093</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <f aca="false">vedomost!B17</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="n">
+        <f aca="false">vedomost!A18</f>
+        <v>45094</v>
+      </c>
+      <c r="B18" s="21" t="n">
+        <f aca="false">vedomost!B18</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="n">
+        <f aca="false">vedomost!A19</f>
+        <v>45095</v>
+      </c>
+      <c r="B19" s="21" t="n">
+        <f aca="false">vedomost!B19</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20" t="n">
+        <f aca="false">vedomost!A20</f>
+        <v>45096</v>
+      </c>
+      <c r="B20" s="21" t="n">
+        <f aca="false">vedomost!B20</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="n">
+        <f aca="false">vedomost!A21</f>
+        <v>45097</v>
+      </c>
+      <c r="B21" s="21" t="n">
+        <f aca="false">vedomost!B21</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20" t="n">
+        <f aca="false">vedomost!A22</f>
+        <v>45098</v>
+      </c>
+      <c r="B22" s="21" t="n">
+        <f aca="false">vedomost!B22</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="n">
+        <f aca="false">vedomost!A23</f>
+        <v>45099</v>
+      </c>
+      <c r="B23" s="21" t="n">
+        <f aca="false">vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <f>vedomost!A10</f>
-        <v>45086</v>
-      </c>
-      <c r="B10" s="22">
-        <f>vedomost!B10</f>
+      <c r="C23" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="n">
+        <f aca="false">vedomost!A24</f>
+        <v>45100</v>
+      </c>
+      <c r="B24" s="21" t="n">
+        <f aca="false">vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <f>vedomost!A11</f>
-        <v>45087</v>
-      </c>
-      <c r="B11" s="22">
-        <f>vedomost!B11</f>
+      <c r="C24" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="n">
+        <f aca="false">vedomost!A25</f>
+        <v>45101</v>
+      </c>
+      <c r="B25" s="21" t="n">
+        <f aca="false">vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <f>vedomost!A12</f>
-        <v>45088</v>
-      </c>
-      <c r="B12" s="22">
-        <f>vedomost!B12</f>
+      <c r="C25" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="n">
+        <f aca="false">vedomost!A26</f>
+        <v>45102</v>
+      </c>
+      <c r="B26" s="21" t="n">
+        <f aca="false">vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <f>vedomost!A13</f>
-        <v>45089</v>
-      </c>
-      <c r="B13" s="22">
-        <f>vedomost!B13</f>
+      <c r="C26" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20" t="n">
+        <f aca="false">vedomost!A27</f>
+        <v>45103</v>
+      </c>
+      <c r="B27" s="21" t="n">
+        <f aca="false">vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C13" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <f>vedomost!A14</f>
-        <v>45090</v>
-      </c>
-      <c r="B14" s="22">
-        <f>vedomost!B14</f>
+      <c r="C27" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20" t="n">
+        <f aca="false">vedomost!A28</f>
+        <v>45104</v>
+      </c>
+      <c r="B28" s="21" t="n">
+        <f aca="false">vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C14" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <f>vedomost!A15</f>
-        <v>45091</v>
-      </c>
-      <c r="B15" s="22">
-        <f>vedomost!B15</f>
+      <c r="C28" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20" t="n">
+        <f aca="false">vedomost!A29</f>
+        <v>45105</v>
+      </c>
+      <c r="B29" s="21" t="n">
+        <f aca="false">vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C15" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <f>vedomost!A16</f>
-        <v>45092</v>
-      </c>
-      <c r="B16" s="22">
-        <f>vedomost!B16</f>
+      <c r="C29" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="n">
+        <f aca="false">vedomost!A30</f>
+        <v>45106</v>
+      </c>
+      <c r="B30" s="21" t="n">
+        <f aca="false">vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C16" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <f>vedomost!A17</f>
-        <v>45093</v>
-      </c>
-      <c r="B17" s="22">
-        <f>vedomost!B17</f>
+      <c r="C30" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="n">
+        <f aca="false">vedomost!A31</f>
+        <v>45107</v>
+      </c>
+      <c r="B31" s="21" t="n">
+        <f aca="false">vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C17" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <f>vedomost!A18</f>
-        <v>45094</v>
-      </c>
-      <c r="B18" s="22">
-        <f>vedomost!B18</f>
-        <v>6</v>
-      </c>
-      <c r="C18" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <f>vedomost!A19</f>
-        <v>45095</v>
-      </c>
-      <c r="B19" s="22">
-        <f>vedomost!B19</f>
-        <v>7</v>
-      </c>
-      <c r="C19" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <f>vedomost!A20</f>
-        <v>45096</v>
-      </c>
-      <c r="B20" s="22">
-        <f>vedomost!B20</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <f>vedomost!A21</f>
-        <v>45097</v>
-      </c>
-      <c r="B21" s="22">
-        <f>vedomost!B21</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <f>vedomost!A22</f>
-        <v>45098</v>
-      </c>
-      <c r="B22" s="22">
-        <f>vedomost!B22</f>
-        <v>3</v>
-      </c>
-      <c r="C22" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <f>vedomost!A23</f>
-        <v>45099</v>
-      </c>
-      <c r="B23" s="22">
-        <f>vedomost!B23</f>
-        <v>4</v>
-      </c>
-      <c r="C23" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <f>vedomost!A24</f>
-        <v>45100</v>
-      </c>
-      <c r="B24" s="22">
-        <f>vedomost!B24</f>
-        <v>5</v>
-      </c>
-      <c r="C24" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <f>vedomost!A25</f>
-        <v>45101</v>
-      </c>
-      <c r="B25" s="22">
-        <f>vedomost!B25</f>
-        <v>6</v>
-      </c>
-      <c r="C25" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <f>vedomost!A26</f>
-        <v>45102</v>
-      </c>
-      <c r="B26" s="22">
-        <f>vedomost!B26</f>
-        <v>7</v>
-      </c>
-      <c r="C26" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <f>vedomost!A27</f>
-        <v>45103</v>
-      </c>
-      <c r="B27" s="22">
-        <f>vedomost!B27</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <f>vedomost!A28</f>
-        <v>45104</v>
-      </c>
-      <c r="B28" s="22">
-        <f>vedomost!B28</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <f>vedomost!A29</f>
-        <v>45105</v>
-      </c>
-      <c r="B29" s="22">
-        <f>vedomost!B29</f>
-        <v>3</v>
-      </c>
-      <c r="C29" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <f>vedomost!A30</f>
-        <v>45106</v>
-      </c>
-      <c r="B30" s="22">
-        <f>vedomost!B30</f>
-        <v>4</v>
-      </c>
-      <c r="C30" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
-        <f>vedomost!A31</f>
-        <v>45107</v>
-      </c>
-      <c r="B31" s="22">
-        <f>vedomost!B31</f>
-        <v>5</v>
-      </c>
-      <c r="C31" s="23" t="e">
-        <f>IF(vedomost!#REF!=0,"",vedomost!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+      <c r="C31" s="22" t="e">
+        <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J19:J22">
+    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J19:J22" type="list">
       <formula1>$M$2:$M$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.747916666666667" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" customWidth="1"/>
-    <col min="5" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36" customWidth="1"/>
-    <col min="14" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" customWidth="1"/>
-    <col min="17" max="18" width="23.85546875" customWidth="1"/>
-    <col min="19" max="19" width="41.5703125" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" customWidth="1"/>
-    <col min="21" max="21" width="40" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" customWidth="1"/>
-    <col min="23" max="23" width="36.140625" customWidth="1"/>
-    <col min="24" max="24" width="28.42578125" customWidth="1"/>
-    <col min="25" max="25" width="23.85546875" customWidth="1"/>
-    <col min="26" max="26" width="47.140625" customWidth="1"/>
-    <col min="27" max="27" width="40" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" customWidth="1"/>
-    <col min="29" max="29" width="36.140625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="41.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="36.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="23.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="47.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="40"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="28" t="s">
+    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="O1" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="Q1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="W1" s="25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="X1" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="Y1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="Z1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="AA1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="AB1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="AC1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="32" t="s">
+    </row>
+    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="C2" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="P2" s="33" t="s">
+      <c r="G2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="U2" s="32" t="s">
+      <c r="K2" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="W2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="N2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA2" s="32" t="s">
+      <c r="O2" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="R2" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="T2" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="U2" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC3" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="V2" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="W4" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="X4" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="R5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="T5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="U5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="V5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="W5" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="X5" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB5" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC5" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="40" t="s">
+      <c r="B4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="X4" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB4" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC4" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="Q5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="R5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="S5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="T5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="U5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="V5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="W5" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="X5" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="Y5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="Z5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="AA5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="46" t="s">
+      <c r="AB5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="AC5" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="48" t="s">
+    </row>
+    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="W6" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="S6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="W6" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB6" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC6" s="46" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="N7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="O7" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="X7" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC7" s="51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="N7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="U7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="V7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="W7" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="X7" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC7" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="53" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O8" s="56" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="S8" s="58"/>
       <c r="T8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="U8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="W8" s="56" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="X8" s="57" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Z8" s="58"/>
       <c r="AA8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AB8" s="55" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AC8" s="55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="62" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="61"/>
       <c r="D9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E9" s="60"/>
       <c r="F9" s="61"/>
       <c r="G9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H9" s="61"/>
       <c r="I9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="J9" s="61"/>
       <c r="K9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L9" s="61"/>
       <c r="M9" s="61"/>
       <c r="N9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="O9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="61"/>
       <c r="R9" s="61"/>
       <c r="S9" s="61"/>
       <c r="T9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="U9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="V9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="W9" s="59"/>
       <c r="X9" s="60"/>
       <c r="Y9" s="61"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AB9" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AC9" s="61"/>
     </row>
-    <row r="10" spans="1:29" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="59" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B10" s="60"/>
       <c r="C10" s="61"/>
-      <c r="D10" s="59">
+      <c r="D10" s="59" t="n">
         <v>3</v>
       </c>
       <c r="E10" s="60"/>
       <c r="F10" s="61"/>
-      <c r="G10" s="61">
+      <c r="G10" s="61" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="61"/>
-      <c r="I10" s="61">
+      <c r="I10" s="61" t="n">
         <v>3</v>
       </c>
       <c r="J10" s="61"/>
-      <c r="K10" s="61">
+      <c r="K10" s="61" t="n">
         <v>2</v>
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
-      <c r="N10" s="61">
+      <c r="N10" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="60" t="n">
         <v>3</v>
       </c>
       <c r="Q10" s="61"/>
       <c r="R10" s="61"/>
       <c r="S10" s="61"/>
-      <c r="T10" s="61">
-        <v>3</v>
-      </c>
-      <c r="U10" s="61">
+      <c r="T10" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="61">
+      <c r="V10" s="61" t="n">
         <v>2</v>
       </c>
       <c r="W10" s="59"/>
       <c r="X10" s="60"/>
       <c r="Y10" s="61"/>
       <c r="Z10" s="61"/>
-      <c r="AA10" s="61">
+      <c r="AA10" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="61">
+      <c r="AB10" s="61" t="n">
         <v>2</v>
       </c>
       <c r="AC10" s="61"/>
     </row>
-    <row r="11" spans="1:29" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="59" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="59">
+      <c r="D11" s="59" t="n">
         <v>25</v>
       </c>
       <c r="E11" s="60"/>
       <c r="F11" s="61"/>
-      <c r="G11" s="61">
+      <c r="G11" s="61" t="n">
         <v>25</v>
       </c>
       <c r="H11" s="61"/>
-      <c r="I11" s="61">
+      <c r="I11" s="61" t="n">
         <v>50</v>
       </c>
       <c r="J11" s="61"/>
-      <c r="K11" s="61">
+      <c r="K11" s="61" t="n">
         <v>100</v>
       </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
-      <c r="N11" s="61">
+      <c r="N11" s="61" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="59">
+      <c r="O11" s="59" t="n">
         <v>30</v>
       </c>
       <c r="P11" s="60" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="61"/>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
       <c r="T11" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="U11" s="61">
-        <v>25</v>
-      </c>
-      <c r="V11" s="61">
+        <v>201</v>
+      </c>
+      <c r="U11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" s="61" t="n">
         <v>25</v>
       </c>
       <c r="W11" s="59"/>
       <c r="X11" s="60"/>
       <c r="Y11" s="61"/>
       <c r="Z11" s="61"/>
-      <c r="AA11" s="61">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="61">
+      <c r="AA11" s="61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="61" t="n">
         <v>25</v>
       </c>
       <c r="AC11" s="61"/>
     </row>
-    <row r="12" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">
         <v>52</v>
       </c>
@@ -6978,66 +6910,71 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9 I10:I11 K10:K11 N10:P11 T10:T11 A5:AC8">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -642,7 +642,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -686,12 +686,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -827,7 +821,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1008,23 +1002,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,10 +1015,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,7 +1285,7 @@
       <selection pane="bottomLeft" activeCell="AC30" activeCellId="0" sqref="AC30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -6018,10 +5996,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
@@ -6474,428 +6452,428 @@
       <c r="B6" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="45" t="s">
+      <c r="K6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="O6" s="46" t="s">
+      <c r="O6" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="42"/>
+      <c r="V6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="W6" s="46" t="s">
+      <c r="W6" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="X6" s="47" t="s">
+      <c r="X6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="Y6" s="45" t="s">
+      <c r="Y6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="Z6" s="45" t="s">
+      <c r="Z6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45" t="s">
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="AC6" s="45" t="s">
+      <c r="AC6" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M7" s="50" t="s">
+      <c r="M7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="O7" s="51" t="s">
+      <c r="O7" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="T7" s="50" t="s">
+      <c r="T7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="U7" s="50" t="s">
+      <c r="U7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="V7" s="50" t="s">
+      <c r="V7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="W7" s="51" t="s">
+      <c r="W7" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="X7" s="52" t="s">
+      <c r="X7" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="Y7" s="50" t="s">
+      <c r="Y7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="Z7" s="50" t="s">
+      <c r="Z7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" s="50" t="s">
+      <c r="AA7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" s="50" t="s">
+      <c r="AB7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" s="50" t="s">
+      <c r="AC7" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="R8" s="55" t="s">
+      <c r="R8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="55" t="s">
+      <c r="S8" s="54"/>
+      <c r="T8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="U8" s="55" t="s">
+      <c r="U8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="55" t="s">
+      <c r="V8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="W8" s="56" t="s">
+      <c r="W8" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="X8" s="57" t="s">
+      <c r="X8" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="Y8" s="55" t="s">
+      <c r="Y8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="55" t="s">
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="AB8" s="55" t="s">
+      <c r="AB8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AC8" s="51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="s">
+    <row r="9" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="59" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="59" t="s">
+      <c r="H9" s="57"/>
+      <c r="I9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="59" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="59" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="59" t="s">
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="U9" s="59" t="s">
+      <c r="U9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="V9" s="59" t="s">
+      <c r="V9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="W9" s="59"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="59" t="s">
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="AB9" s="59" t="s">
+      <c r="AB9" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="AC9" s="61"/>
-    </row>
-    <row r="10" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="s">
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59" t="n">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61" t="n">
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61" t="n">
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61" t="n">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61" t="n">
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="O10" s="59" t="n">
+      <c r="O10" s="55" t="n">
         <v>3</v>
       </c>
-      <c r="P10" s="60" t="n">
+      <c r="P10" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61" t="s">
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="61" t="n">
+      <c r="U10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="61" t="n">
+      <c r="V10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61" t="n">
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="61" t="n">
+      <c r="AB10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" s="61"/>
-    </row>
-    <row r="11" s="62" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61" t="n">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61" t="n">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61" t="n">
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="59" t="n">
+      <c r="O11" s="55" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61" t="s">
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="V11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="W11" s="59"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="61" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC11" s="61"/>
+      <c r="U11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="V11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="57"/>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K12" s="4" t="s">

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="206">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">COM</t>
   </si>
   <si>
-    <t xml:space="preserve">HOME</t>
+    <t xml:space="preserve">PLACE</t>
   </si>
   <si>
     <t xml:space="preserve">DUTY</t>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">22:40</t>
   </si>
   <si>
+    <t xml:space="preserve">can`t</t>
+  </si>
+  <si>
     <t xml:space="preserve">T</t>
   </si>
   <si>
@@ -99,9 +102,6 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">can`t</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:10</t>
   </si>
   <si>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">23:40</t>
   </si>
   <si>
-    <t xml:space="preserve">Eh</t>
+    <t xml:space="preserve">Eh, Ld</t>
   </si>
   <si>
     <t xml:space="preserve">E1</t>
@@ -147,6 +147,9 @@
     <t xml:space="preserve">22:30</t>
   </si>
   <si>
+    <t xml:space="preserve">Ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ed24(1)</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t xml:space="preserve">!</t>
   </si>
   <si>
+    <t xml:space="preserve">Ed, Ld</t>
+  </si>
+  <si>
     <t xml:space="preserve">L4</t>
   </si>
   <si>
@@ -528,22 +534,25 @@
     <t xml:space="preserve">{"&lt;.22": "1.5*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;.0": "25*", "0": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "75*", "0": -50}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"1": 50, "0": -150}</t>
+    <t xml:space="preserve">{"&gt;.0": "20*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "40*", "0": -50}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&lt;.22": "1*", "&lt;.23": 0, "&gt;=.23": " -2*"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"1": 20, "0": -150}</t>
   </si>
   <si>
     <t xml:space="preserve">{"+": 0, "-": -50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 50, "-": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": 50, "-": -50}</t>
+    <t xml:space="preserve">{"+": 20, "-": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 30, "-": -100}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
@@ -582,13 +591,19 @@
     <t xml:space="preserve">0.25*</t>
   </si>
   <si>
-    <t xml:space="preserve">{"True": "0.25*", "False": "0.12*"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.25*</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.12*</t>
+    <t xml:space="preserve">dacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
   </si>
   <si>
     <t xml:space="preserve">d24</t>
@@ -597,19 +612,16 @@
     <t xml:space="preserve">d8</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12*</t>
+    <t xml:space="preserve">0.1*</t>
   </si>
   <si>
     <t xml:space="preserve">weak</t>
   </si>
   <si>
+    <t xml:space="preserve">0.15*</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
   </si>
   <si>
     <t xml:space="preserve">logic</t>
@@ -642,7 +654,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -673,6 +685,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -688,7 +706,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,13 +722,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7E7"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -821,7 +845,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -866,6 +890,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,31 +902,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -922,19 +950,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,15 +990,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -978,27 +1006,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,15 +1026,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,23 +1034,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,7 +1046,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1253,12 +1257,12 @@
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1279,10 +1283,10 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="AC30" activeCellId="0" sqref="AC30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1510,10 +1514,10 @@
         <v>19</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>13</v>
@@ -1522,55 +1526,55 @@
         <v>13</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ2" s="0" t="n">
         <v>1</v>
@@ -1615,31 +1619,31 @@
         <v>33</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>13</v>
@@ -1651,43 +1655,43 @@
         <v>27</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>45080</v>
       </c>
@@ -1723,34 +1727,34 @@
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T4" s="6" t="s">
         <v>39</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>13</v>
@@ -1759,13 +1763,13 @@
         <v>13</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>13</v>
@@ -1777,28 +1781,28 @@
         <v>13</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>45081</v>
       </c>
@@ -1813,19 +1817,19 @@
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>15</v>
@@ -1834,19 +1838,19 @@
         <v>16</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>13</v>
@@ -1855,10 +1859,10 @@
         <v>13</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>13</v>
@@ -1867,49 +1871,49 @@
         <v>13</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>45082</v>
       </c>
@@ -1927,16 +1931,16 @@
         <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>15</v>
@@ -1945,13 +1949,13 @@
         <v>40</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>18</v>
@@ -1966,19 +1970,19 @@
         <v>13</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>18</v>
@@ -1987,16 +1991,16 @@
         <v>18</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD6" s="6" t="s">
         <v>14</v>
@@ -2005,22 +2009,22 @@
         <v>13</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>45083</v>
       </c>
@@ -2035,19 +2039,19 @@
         <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>15</v>
@@ -2056,13 +2060,13 @@
         <v>40</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>18</v>
@@ -2077,10 +2081,10 @@
         <v>13</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>13</v>
@@ -2089,7 +2093,7 @@
         <v>13</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>18</v>
@@ -2098,40 +2102,40 @@
         <v>18</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>45084</v>
       </c>
@@ -2155,10 +2159,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>15</v>
@@ -2167,13 +2171,13 @@
         <v>40</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>18</v>
@@ -2191,58 +2195,58 @@
         <v>18</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z8" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>45085</v>
       </c>
@@ -2266,10 +2270,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>15</v>
@@ -2278,19 +2282,19 @@
         <v>16</v>
       </c>
       <c r="L9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N9" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>13</v>
@@ -2305,55 +2309,55 @@
         <v>34</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="Z9" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>45086</v>
       </c>
@@ -2368,19 +2372,19 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>15</v>
@@ -2389,19 +2393,19 @@
         <v>40</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N10" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>13</v>
@@ -2410,10 +2414,10 @@
         <v>13</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U10" s="6" t="s">
         <v>13</v>
@@ -2422,46 +2426,46 @@
         <v>13</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2483,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
@@ -2488,22 +2492,22 @@
         <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>19</v>
@@ -2512,7 +2516,7 @@
         <v>18</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>13</v>
@@ -2521,10 +2525,10 @@
         <v>13</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>13</v>
@@ -2533,37 +2537,37 @@
         <v>13</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>35</v>
@@ -2572,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="AJ11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,25 +2603,25 @@
         <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>18</v>
@@ -2629,40 +2633,40 @@
         <v>13</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="W12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="Z12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD12" s="6" t="s">
         <v>36</v>
@@ -2671,19 +2675,19 @@
         <v>13</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AI12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AJ12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2714,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>14</v>
@@ -2722,19 +2726,19 @@
         <v>26</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>13</v>
@@ -2743,19 +2747,19 @@
         <v>13</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X13" s="6" t="s">
         <v>36</v>
@@ -2764,34 +2768,34 @@
         <v>36</v>
       </c>
       <c r="Z13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="AG13" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ13" s="6" t="s">
         <v>18</v>
@@ -2830,28 +2834,28 @@
         <v>31</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>18</v>
@@ -2860,10 +2864,10 @@
         <v>34</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>13</v>
@@ -2872,40 +2876,40 @@
         <v>36</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,7 +2930,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>12</v>
@@ -2935,13 +2939,13 @@
         <v>13</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>17</v>
@@ -2950,73 +2954,73 @@
         <v>18</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="Z15" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE15" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,10 +3053,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>15</v>
@@ -3061,64 +3065,64 @@
         <v>18</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AE16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>40</v>
@@ -3157,13 +3161,13 @@
         <v>13</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>17</v>
@@ -3172,13 +3176,13 @@
         <v>18</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>13</v>
@@ -3187,34 +3191,34 @@
         <v>13</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W17" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>13</v>
@@ -3223,19 +3227,19 @@
         <v>18</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ17" s="0" t="n">
         <v>1</v>
@@ -3268,85 +3272,85 @@
         <v>13</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AG18" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH18" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AI18" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ18" s="0" t="n">
         <v>0</v>
@@ -3379,7 +3383,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>15</v>
@@ -3388,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M19" s="6" t="s">
         <v>18</v>
@@ -3400,7 +3404,7 @@
         <v>18</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>13</v>
@@ -3409,55 +3413,55 @@
         <v>13</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="Z19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB19" s="6" t="s">
+      <c r="AE19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="AG19" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ19" s="0" t="n">
         <v>2</v>
@@ -3484,91 +3488,91 @@
         <v>13</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ20" s="6" t="s">
         <v>36</v>
@@ -3589,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>11</v>
@@ -3610,10 +3614,10 @@
         <v>26</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>40</v>
@@ -3622,7 +3626,7 @@
         <v>18</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>13</v>
@@ -3631,10 +3635,10 @@
         <v>13</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U21" s="6" t="s">
         <v>13</v>
@@ -3643,25 +3647,25 @@
         <v>13</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD21" s="6" t="s">
         <v>14</v>
@@ -3670,22 +3674,22 @@
         <v>13</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>45098</v>
       </c>
@@ -3699,7 +3703,7 @@
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3712,7 +3716,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>15</v>
@@ -3721,10 +3725,10 @@
         <v>26</v>
       </c>
       <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>40</v>
@@ -3733,7 +3737,7 @@
         <v>18</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>13</v>
@@ -3745,58 +3749,58 @@
         <v>14</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="Z22" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG22" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH22" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AI22" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>45099</v>
       </c>
@@ -3810,7 +3814,7 @@
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -3823,7 +3827,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>15</v>
@@ -3832,10 +3836,10 @@
         <v>40</v>
       </c>
       <c r="L23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>28</v>
@@ -3844,7 +3848,7 @@
         <v>18</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>13</v>
@@ -3853,37 +3857,37 @@
         <v>13</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="Z23" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD23" s="6" t="s">
         <v>14</v>
@@ -3892,19 +3896,19 @@
         <v>13</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,10 +3926,10 @@
         <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -3936,17 +3940,17 @@
       <c r="I24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>35</v>
@@ -3955,7 +3959,7 @@
         <v>18</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>13</v>
@@ -3964,10 +3968,10 @@
         <v>13</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U24" s="6" t="s">
         <v>13</v>
@@ -3976,49 +3980,49 @@
         <v>13</v>
       </c>
       <c r="W24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>81</v>
+      <c r="Z24" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>45101</v>
       </c>
@@ -4032,7 +4036,7 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -4047,17 +4051,17 @@
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>40</v>
@@ -4066,7 +4070,7 @@
         <v>18</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>13</v>
@@ -4075,58 +4079,58 @@
         <v>13</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T25" s="6" t="s">
         <v>34</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="AE25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF25" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>21</v>
+      <c r="AI25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ25" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,10 +4148,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -4156,28 +4160,28 @@
         <v>13</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>13</v>
@@ -4186,10 +4190,10 @@
         <v>13</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>13</v>
@@ -4198,45 +4202,45 @@
         <v>13</v>
       </c>
       <c r="W26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>25</v>
+      <c r="Z26" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF26" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="AG26" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ26" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4269,16 +4273,16 @@
       <c r="I27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -4294,60 +4298,60 @@
         <v>13</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>64</v>
+      <c r="Z27" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ27" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4378,85 +4382,85 @@
         <v>13</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="N28" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>18</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y28" s="11" t="s">
+      <c r="X28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="11" t="s">
+      <c r="Y28" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="Z28" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI28" s="11" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="AI28" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="AJ28" s="0" t="n">
         <v>2</v>
@@ -4480,7 +4484,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>12</v>
@@ -4491,26 +4495,26 @@
       <c r="I29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>13</v>
@@ -4519,55 +4523,55 @@
         <v>13</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>81</v>
+      <c r="Z29" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="AE29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI29" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ29" s="0" t="n">
         <v>0</v>
@@ -4600,22 +4604,22 @@
         <v>13</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>18</v>
@@ -4624,60 +4628,60 @@
         <v>13</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>33</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="W30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>79</v>
+      <c r="Z30" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="AA30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF30" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="AF30" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI30" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AJ30" s="0" t="n">
@@ -4713,83 +4717,83 @@
       <c r="I31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="12" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>13</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>18</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>25</v>
+      <c r="Z31" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AE31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF31" s="11" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="AF31" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AH31" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AI31" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" s="0" t="n">
         <v>5</v>
@@ -4803,30 +4807,30 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="11"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="12"/>
+      <c r="R32" s="13"/>
       <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="13"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
@@ -5107,870 +5111,870 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="15" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="16" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="17" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="17" t="e">
+      <c r="C1" s="18" t="e">
         <f aca="false">vedomost!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>104</v>
       </c>
+      <c r="J1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="21" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="22" t="n">
         <f aca="false">vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="e">
+      <c r="C2" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="21" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="22" t="n">
         <f aca="false">vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="22" t="e">
+      <c r="C3" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="G3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="16" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="21" t="n">
+      <c r="B4" s="22" t="n">
         <f aca="false">vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="e">
+      <c r="C4" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="16" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="22" t="n">
         <f aca="false">vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="e">
+      <c r="C5" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+      <c r="A6" s="21" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="22" t="n">
         <f aca="false">vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="e">
+      <c r="C6" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
+      <c r="D6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="21" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="22" t="n">
         <f aca="false">vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="e">
+      <c r="C7" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="21" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="22" t="n">
         <f aca="false">vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="e">
+      <c r="C8" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="21" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45085</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="22" t="n">
         <f aca="false">vedomost!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="e">
+      <c r="C9" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="21" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45086</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="22" t="n">
         <f aca="false">vedomost!B10</f>
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="e">
+      <c r="C10" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="16" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45087</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="22" t="n">
         <f aca="false">vedomost!B11</f>
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="e">
+      <c r="C11" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
+      <c r="F11" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="16" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45088</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="22" t="n">
         <f aca="false">vedomost!B12</f>
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="e">
+      <c r="C12" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="16" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45089</v>
       </c>
-      <c r="B13" s="21" t="n">
+      <c r="B13" s="22" t="n">
         <f aca="false">vedomost!B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="22" t="e">
+      <c r="C13" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="21" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45090</v>
       </c>
-      <c r="B14" s="21" t="n">
+      <c r="B14" s="22" t="n">
         <f aca="false">vedomost!B14</f>
         <v>2</v>
       </c>
-      <c r="C14" s="22" t="e">
+      <c r="C14" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="D14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="H14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="21" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45091</v>
       </c>
-      <c r="B15" s="21" t="n">
+      <c r="B15" s="22" t="n">
         <f aca="false">vedomost!B15</f>
         <v>3</v>
       </c>
-      <c r="C15" s="22" t="e">
+      <c r="C15" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="21" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45092</v>
       </c>
-      <c r="B16" s="21" t="n">
+      <c r="B16" s="22" t="n">
         <f aca="false">vedomost!B16</f>
         <v>4</v>
       </c>
-      <c r="C16" s="22" t="e">
+      <c r="C16" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="G16" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="21" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45093</v>
       </c>
-      <c r="B17" s="21" t="n">
+      <c r="B17" s="22" t="n">
         <f aca="false">vedomost!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="22" t="e">
+      <c r="C17" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="16" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45094</v>
       </c>
-      <c r="B18" s="21" t="n">
+      <c r="B18" s="22" t="n">
         <f aca="false">vedomost!B18</f>
         <v>6</v>
       </c>
-      <c r="C18" s="22" t="e">
+      <c r="C18" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="16" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45095</v>
       </c>
-      <c r="B19" s="21" t="n">
+      <c r="B19" s="22" t="n">
         <f aca="false">vedomost!B19</f>
         <v>7</v>
       </c>
-      <c r="C19" s="22" t="e">
+      <c r="C19" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="n">
+      <c r="A20" s="21" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45096</v>
       </c>
-      <c r="B20" s="21" t="n">
+      <c r="B20" s="22" t="n">
         <f aca="false">vedomost!B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="22" t="e">
+      <c r="C20" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="n">
+      <c r="A21" s="21" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45097</v>
       </c>
-      <c r="B21" s="21" t="n">
+      <c r="B21" s="22" t="n">
         <f aca="false">vedomost!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="22" t="e">
+      <c r="C21" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="n">
+      <c r="A22" s="21" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45098</v>
       </c>
-      <c r="B22" s="21" t="n">
+      <c r="B22" s="22" t="n">
         <f aca="false">vedomost!B22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="22" t="e">
+      <c r="C22" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
+      <c r="D22" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="n">
+      <c r="A23" s="21" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45099</v>
       </c>
-      <c r="B23" s="21" t="n">
+      <c r="B23" s="22" t="n">
         <f aca="false">vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C23" s="22" t="e">
+      <c r="C23" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="n">
+      <c r="A24" s="21" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45100</v>
       </c>
-      <c r="B24" s="21" t="n">
+      <c r="B24" s="22" t="n">
         <f aca="false">vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C24" s="22" t="e">
+      <c r="C24" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="n">
+      <c r="A25" s="16" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45101</v>
       </c>
-      <c r="B25" s="21" t="n">
+      <c r="B25" s="22" t="n">
         <f aca="false">vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C25" s="22" t="e">
+      <c r="C25" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="n">
+      <c r="A26" s="16" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45102</v>
       </c>
-      <c r="B26" s="21" t="n">
+      <c r="B26" s="22" t="n">
         <f aca="false">vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="22" t="e">
+      <c r="C26" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
+      <c r="A27" s="21" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45103</v>
       </c>
-      <c r="B27" s="21" t="n">
+      <c r="B27" s="22" t="n">
         <f aca="false">vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="22" t="e">
+      <c r="C27" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
+      <c r="A28" s="21" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45104</v>
       </c>
-      <c r="B28" s="21" t="n">
+      <c r="B28" s="22" t="n">
         <f aca="false">vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C28" s="22" t="e">
+      <c r="C28" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
+      <c r="D28" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
+      <c r="A29" s="21" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45105</v>
       </c>
-      <c r="B29" s="21" t="n">
+      <c r="B29" s="22" t="n">
         <f aca="false">vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C29" s="22" t="e">
+      <c r="C29" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
+      <c r="A30" s="21" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45106</v>
       </c>
-      <c r="B30" s="21" t="n">
+      <c r="B30" s="22" t="n">
         <f aca="false">vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C30" s="22" t="e">
+      <c r="C30" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="21" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
+      <c r="G30" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
+      <c r="A31" s="21" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45107</v>
       </c>
-      <c r="B31" s="21" t="n">
+      <c r="B31" s="22" t="n">
         <f aca="false">vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C31" s="22" t="e">
+      <c r="C31" s="23" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J19:J22" type="list">
-      <formula1>$M$2:$M$6</formula1>
+      <formula1>$M$2:$M$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5989,17 +5993,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
@@ -6028,921 +6032,979 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="27" t="s">
+    <row r="1" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="L1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="M1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="N1" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="Q1" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="R1" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="S1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="T1" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="U1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="V1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="Y1" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="Z1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AA1" s="28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="AB1" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="AC1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="M2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="U2" s="31" t="s">
+      <c r="O2" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="V2" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="29" t="s">
+      <c r="Q2" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="R2" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z2" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA2" s="31" t="s">
+      <c r="T2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC2" s="31" t="s">
+      <c r="V2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="30" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="X2" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="Y2" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA2" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="AB2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>186</v>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N3" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="W3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="Y3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Z3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AA3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB3" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AC3" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="W4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB5" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC5" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC4" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="U5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="V5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="W5" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="X5" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB5" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC5" s="42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="Q6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="T7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="W7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="X7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC7" s="38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="T8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="U8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="W8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC8" s="47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="Q6" s="42" t="s">
+      <c r="Q9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S9" s="49"/>
+      <c r="T9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="U9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42" t="s">
+      <c r="V9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="X6" s="44" t="s">
+      <c r="X9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="Y6" s="42" t="s">
+      <c r="Y9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="Z6" s="42" t="s">
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42" t="s">
+      <c r="AB9" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="AC6" s="42" t="s">
+      <c r="AC9" s="49" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="M7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="R7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="V7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="W7" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="X7" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB7" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC7" s="47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="L8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="N8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="O8" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="U8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="V8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="W8" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="X8" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB8" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC8" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="O9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="P9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="U9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="V9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB9" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55" t="n">
+    <row r="10" s="53" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="O10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="V10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="W10" s="50"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB10" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC10" s="52"/>
+    </row>
+    <row r="11" s="53" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57" t="n">
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57" t="n">
+      <c r="H11" s="52"/>
+      <c r="I11" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57" t="n">
+      <c r="J11" s="52"/>
+      <c r="K11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" s="55" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" s="56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="57" t="n">
+      <c r="V11" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="V10" s="57" t="n">
+      <c r="W11" s="50"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57" t="n">
+      <c r="AB11" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="AB10" s="57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="55" t="n">
+      <c r="AC11" s="52"/>
+    </row>
+    <row r="12" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57" t="n">
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57" t="n">
+      <c r="H12" s="52"/>
+      <c r="I12" s="52" t="n">
         <v>50</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57" t="n">
+      <c r="J12" s="52"/>
+      <c r="K12" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57" t="n">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="n">
         <v>30</v>
       </c>
-      <c r="O11" s="55" t="n">
+      <c r="O12" s="50" t="n">
         <v>30</v>
       </c>
-      <c r="P11" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="U11" s="57" t="n">
+      <c r="P12" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="U12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="V11" s="57" t="n">
+      <c r="V12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57" t="n">
+      <c r="W12" s="50"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="AB11" s="57" t="n">
+      <c r="AB12" s="52" t="n">
         <v>25</v>
       </c>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
+      <c r="AC12" s="52"/>
+    </row>
+    <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="D9 I10:I11 K10:K11 N10:P11 T10:T11 A5:AC8">
+  <conditionalFormatting sqref="I11:I12 K11:K12 N11:P12 T11:T12 D7:D10 D4 A6:AC6 A5:AB6 AC5 A7:C9 H4:I4 E7:AC9">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9">
+  <conditionalFormatting sqref="AB10">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="K10">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="N10">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
+  <conditionalFormatting sqref="P10">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9">
+  <conditionalFormatting sqref="T10">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
+  <conditionalFormatting sqref="U10">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9">
+  <conditionalFormatting sqref="AA10">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA9">
+  <conditionalFormatting sqref="V10">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>

--- a/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23NEW_VERSION.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="207">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -546,21 +546,24 @@
     <t xml:space="preserve">{"1": 20, "0": -150}</t>
   </si>
   <si>
+    <t xml:space="preserve">{"+": 0, "-": -100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 20, "-": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"+": 30, "-": -100}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{"+": 0, "-": -50}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 20, "-": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"+": 30, "-": -100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;.0": "20*", "0": 0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"&gt;=.4": "15*", "&gt;=.2": "5*", "&lt;.2": 0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"9": 0, "+": -25, "-": -50}</t>
   </si>
   <si>
@@ -591,6 +594,9 @@
     <t xml:space="preserve">0.25*</t>
   </si>
   <si>
+    <t xml:space="preserve">0.15*</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.25*</t>
   </si>
   <si>
@@ -616,9 +622,6 @@
   </si>
   <si>
     <t xml:space="preserve">weak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15*</t>
   </si>
   <si>
     <t xml:space="preserve">sleep</t>
@@ -654,7 +657,7 @@
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -683,12 +686,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -845,7 +842,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -890,10 +887,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -902,31 +895,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,19 +943,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,7 +999,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1014,11 +1007,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1286,7 +1279,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3703,7 +3696,7 @@
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3814,7 +3807,7 @@
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -3940,7 +3933,7 @@
       <c r="I24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -3949,7 +3942,7 @@
       <c r="L24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>25</v>
       </c>
       <c r="N24" s="6" t="s">
@@ -3982,13 +3975,13 @@
       <c r="W24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X24" s="12" t="s">
+      <c r="X24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Y24" s="12" t="s">
+      <c r="Y24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="11" t="s">
         <v>83</v>
       </c>
       <c r="AA24" s="6" t="s">
@@ -4036,7 +4029,7 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -4051,7 +4044,7 @@
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
@@ -4060,7 +4053,7 @@
       <c r="L25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="6" t="s">
@@ -4093,13 +4086,13 @@
       <c r="W25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="X25" s="12" t="s">
+      <c r="X25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y25" s="12" t="s">
+      <c r="Y25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AA25" s="6" t="s">
@@ -4117,7 +4110,7 @@
       <c r="AE25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF25" s="12" t="s">
+      <c r="AF25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AG25" s="6" t="s">
@@ -4126,10 +4119,10 @@
       <c r="AH25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ25" s="12" t="s">
+      <c r="AI25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4162,7 +4155,7 @@
       <c r="I26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="6" t="s">
@@ -4171,7 +4164,7 @@
       <c r="L26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="6" t="s">
@@ -4204,13 +4197,13 @@
       <c r="W26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X26" s="12" t="s">
+      <c r="X26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Y26" s="12" t="s">
+      <c r="Y26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="Z26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AA26" s="6" t="s">
@@ -4228,7 +4221,7 @@
       <c r="AE26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF26" s="12" t="s">
+      <c r="AF26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AG26" s="6" t="s">
@@ -4237,10 +4230,10 @@
       <c r="AH26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AI26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ26" s="12" t="s">
+      <c r="AI26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4273,7 +4266,7 @@
       <c r="I27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -4282,7 +4275,7 @@
       <c r="L27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>18</v>
       </c>
       <c r="N27" s="6" t="s">
@@ -4315,13 +4308,13 @@
       <c r="W27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X27" s="12" t="s">
+      <c r="X27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y27" s="12" t="s">
+      <c r="Y27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AA27" s="6" t="s">
@@ -4339,7 +4332,7 @@
       <c r="AE27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AF27" s="12" t="s">
+      <c r="AF27" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AG27" s="6" t="s">
@@ -4348,10 +4341,10 @@
       <c r="AH27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ27" s="12" t="s">
+      <c r="AI27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4384,7 +4377,7 @@
       <c r="I28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -4393,7 +4386,7 @@
       <c r="L28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="N28" s="6" t="s">
@@ -4426,13 +4419,13 @@
       <c r="W28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X28" s="12" t="s">
+      <c r="X28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y28" s="12" t="s">
+      <c r="Y28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Z28" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AA28" s="6" t="s">
@@ -4450,7 +4443,7 @@
       <c r="AE28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF28" s="12" t="s">
+      <c r="AF28" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AG28" s="6" t="s">
@@ -4459,7 +4452,7 @@
       <c r="AH28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI28" s="12" t="s">
+      <c r="AI28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="AJ28" s="0" t="n">
@@ -4495,7 +4488,7 @@
       <c r="I29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="6" t="s">
@@ -4504,7 +4497,7 @@
       <c r="L29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="6" t="s">
@@ -4537,13 +4530,13 @@
       <c r="W29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X29" s="12" t="s">
+      <c r="X29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y29" s="12" t="s">
+      <c r="Y29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z29" s="12" t="s">
+      <c r="Z29" s="11" t="s">
         <v>83</v>
       </c>
       <c r="AA29" s="6" t="s">
@@ -4561,7 +4554,7 @@
       <c r="AE29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF29" s="12" t="s">
+      <c r="AF29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="AG29" s="6" t="s">
@@ -4606,7 +4599,7 @@
       <c r="I30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="6" t="s">
@@ -4615,7 +4608,7 @@
       <c r="L30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="11" t="s">
         <v>18</v>
       </c>
       <c r="N30" s="6" t="s">
@@ -4648,13 +4641,13 @@
       <c r="W30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X30" s="12" t="s">
+      <c r="X30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Y30" s="12" t="s">
+      <c r="Y30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z30" s="12" t="s">
+      <c r="Z30" s="11" t="s">
         <v>81</v>
       </c>
       <c r="AA30" s="6" t="s">
@@ -4672,7 +4665,7 @@
       <c r="AE30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AF30" s="12" t="s">
+      <c r="AF30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="AG30" s="6" t="s">
@@ -4681,7 +4674,7 @@
       <c r="AH30" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AI30" s="12" t="s">
+      <c r="AI30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="AJ30" s="0" t="n">
@@ -4717,7 +4710,7 @@
       <c r="I31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="6" t="s">
@@ -4726,7 +4719,7 @@
       <c r="L31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="11" t="s">
         <v>22</v>
       </c>
       <c r="N31" s="6" t="s">
@@ -4759,13 +4752,13 @@
       <c r="W31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="12" t="s">
+      <c r="X31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Y31" s="12" t="s">
+      <c r="Y31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z31" s="12" t="s">
+      <c r="Z31" s="11" t="s">
         <v>20</v>
       </c>
       <c r="AA31" s="6" t="s">
@@ -4783,7 +4776,7 @@
       <c r="AE31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AF31" s="12" t="s">
+      <c r="AF31" s="11" t="s">
         <v>45</v>
       </c>
       <c r="AG31" s="6" t="s">
@@ -4807,30 +4800,30 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="12"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="6"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="12"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="13"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="13"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="12"/>
       <c r="AH32" s="6"/>
     </row>
   </sheetData>
@@ -5111,865 +5104,865 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="5.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="14" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="14" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="14" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="14" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="15" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="17" t="str">
+      <c r="B1" s="16" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="18" t="e">
+      <c r="C1" s="17" t="e">
         <f aca="false">vedomost!#ref!</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="20" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45078</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <f aca="false">vedomost!B2</f>
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="e">
+      <c r="C2" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="20" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45079</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="21" t="n">
         <f aca="false">vedomost!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="e">
+      <c r="C3" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="15" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45080</v>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="21" t="n">
         <f aca="false">vedomost!B4</f>
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="e">
+      <c r="C4" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="15" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45081</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="21" t="n">
         <f aca="false">vedomost!B5</f>
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="e">
+      <c r="C5" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="20" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45082</v>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="21" t="n">
         <f aca="false">vedomost!B6</f>
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="e">
+      <c r="C6" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="20" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45083</v>
       </c>
-      <c r="B7" s="22" t="n">
+      <c r="B7" s="21" t="n">
         <f aca="false">vedomost!B7</f>
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="e">
+      <c r="C7" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="20" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45084</v>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="21" t="n">
         <f aca="false">vedomost!B8</f>
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="e">
+      <c r="C8" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="20" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45085</v>
       </c>
-      <c r="B9" s="22" t="n">
+      <c r="B9" s="21" t="n">
         <f aca="false">vedomost!B9</f>
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="e">
+      <c r="C9" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="20" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45086</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="21" t="n">
         <f aca="false">vedomost!B10</f>
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="e">
+      <c r="C10" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="15" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45087</v>
       </c>
-      <c r="B11" s="22" t="n">
+      <c r="B11" s="21" t="n">
         <f aca="false">vedomost!B11</f>
         <v>6</v>
       </c>
-      <c r="C11" s="23" t="e">
+      <c r="C11" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="15" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45088</v>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="21" t="n">
         <f aca="false">vedomost!B12</f>
         <v>7</v>
       </c>
-      <c r="C12" s="23" t="e">
+      <c r="C12" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="15" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45089</v>
       </c>
-      <c r="B13" s="22" t="n">
+      <c r="B13" s="21" t="n">
         <f aca="false">vedomost!B13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="23" t="e">
+      <c r="C13" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="20" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45090</v>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="21" t="n">
         <f aca="false">vedomost!B14</f>
         <v>2</v>
       </c>
-      <c r="C14" s="23" t="e">
+      <c r="C14" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="20" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45091</v>
       </c>
-      <c r="B15" s="22" t="n">
+      <c r="B15" s="21" t="n">
         <f aca="false">vedomost!B15</f>
         <v>3</v>
       </c>
-      <c r="C15" s="23" t="e">
+      <c r="C15" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="20" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45092</v>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="21" t="n">
         <f aca="false">vedomost!B16</f>
         <v>4</v>
       </c>
-      <c r="C16" s="23" t="e">
+      <c r="C16" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="20" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45093</v>
       </c>
-      <c r="B17" s="22" t="n">
+      <c r="B17" s="21" t="n">
         <f aca="false">vedomost!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="23" t="e">
+      <c r="C17" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="15" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45094</v>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="21" t="n">
         <f aca="false">vedomost!B18</f>
         <v>6</v>
       </c>
-      <c r="C18" s="23" t="e">
+      <c r="C18" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="15" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45095</v>
       </c>
-      <c r="B19" s="22" t="n">
+      <c r="B19" s="21" t="n">
         <f aca="false">vedomost!B19</f>
         <v>7</v>
       </c>
-      <c r="C19" s="23" t="e">
+      <c r="C19" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
+      <c r="A20" s="20" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45096</v>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="21" t="n">
         <f aca="false">vedomost!B20</f>
         <v>1</v>
       </c>
-      <c r="C20" s="23" t="e">
+      <c r="C20" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+      <c r="A21" s="20" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45097</v>
       </c>
-      <c r="B21" s="22" t="n">
+      <c r="B21" s="21" t="n">
         <f aca="false">vedomost!B21</f>
         <v>2</v>
       </c>
-      <c r="C21" s="23" t="e">
+      <c r="C21" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="n">
+      <c r="A22" s="20" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45098</v>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="21" t="n">
         <f aca="false">vedomost!B22</f>
         <v>3</v>
       </c>
-      <c r="C22" s="23" t="e">
+      <c r="C22" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+      <c r="A23" s="20" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45099</v>
       </c>
-      <c r="B23" s="22" t="n">
+      <c r="B23" s="21" t="n">
         <f aca="false">vedomost!B23</f>
         <v>4</v>
       </c>
-      <c r="C23" s="23" t="e">
+      <c r="C23" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="15" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="n">
+      <c r="A24" s="20" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45100</v>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="21" t="n">
         <f aca="false">vedomost!B24</f>
         <v>5</v>
       </c>
-      <c r="C24" s="23" t="e">
+      <c r="C24" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="15" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45101</v>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="21" t="n">
         <f aca="false">vedomost!B25</f>
         <v>6</v>
       </c>
-      <c r="C25" s="23" t="e">
+      <c r="C25" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="15" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45102</v>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="21" t="n">
         <f aca="false">vedomost!B26</f>
         <v>7</v>
       </c>
-      <c r="C26" s="23" t="e">
+      <c r="C26" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
+      <c r="A27" s="20" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45103</v>
       </c>
-      <c r="B27" s="22" t="n">
+      <c r="B27" s="21" t="n">
         <f aca="false">vedomost!B27</f>
         <v>1</v>
       </c>
-      <c r="C27" s="23" t="e">
+      <c r="C27" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="n">
+      <c r="A28" s="20" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45104</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B28" s="21" t="n">
         <f aca="false">vedomost!B28</f>
         <v>2</v>
       </c>
-      <c r="C28" s="23" t="e">
+      <c r="C28" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="15" t="s">
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="n">
+      <c r="A29" s="20" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45105</v>
       </c>
-      <c r="B29" s="22" t="n">
+      <c r="B29" s="21" t="n">
         <f aca="false">vedomost!B29</f>
         <v>3</v>
       </c>
-      <c r="C29" s="23" t="e">
+      <c r="C29" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+      <c r="A30" s="20" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45106</v>
       </c>
-      <c r="B30" s="22" t="n">
+      <c r="B30" s="21" t="n">
         <f aca="false">vedomost!B30</f>
         <v>4</v>
       </c>
-      <c r="C30" s="23" t="e">
+      <c r="C30" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="A31" s="20" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45107</v>
       </c>
-      <c r="B31" s="22" t="n">
+      <c r="B31" s="21" t="n">
         <f aca="false">vedomost!B31</f>
         <v>5</v>
       </c>
-      <c r="C31" s="23" t="e">
+      <c r="C31" s="22" t="e">
         <f aca="false">IF(vedomost!#ref!=0,"",vedomost!#ref!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5996,14 +5989,14 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
@@ -6032,909 +6025,909 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Y1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AC1" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="P2" s="33" t="s">
+      <c r="N2" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="O2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="V2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="U2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AA2" s="31" t="s">
         <v>186</v>
       </c>
+      <c r="AB2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="R3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="S3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="V3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="W3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="X3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB3" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC3" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB3" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC3" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="V4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="W4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB4" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC4" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="R5" s="39"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y5" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB5" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC5" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="Q6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="R6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="S6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="T6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="U6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="36" t="s">
+      <c r="V6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="W6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="X6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="Y6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="Z6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="AA6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="AB6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="AC6" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="R4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+    </row>
+    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="W7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC7" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="K5" s="37" t="s">
+      <c r="C8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="X8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC8" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y5" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB5" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC5" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="R6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="S6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="U6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="V6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="W6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="X6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB6" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC6" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="P7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="S7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="T7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="W7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="X7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC7" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="R8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="V8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="W8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB8" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC8" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="O9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="P9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="R9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="U9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="V9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="W9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="X9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB9" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC9" s="49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" s="53" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="50" t="s">
+      <c r="C9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="O9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="R9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="V9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="W9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="X9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC9" s="48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" s="52" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="U10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="V10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="W10" s="50"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC10" s="52"/>
-    </row>
-    <row r="11" s="53" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="50" t="n">
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="51"/>
+      <c r="K10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="U10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="V10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB10" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC10" s="51"/>
+    </row>
+    <row r="11" s="52" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52" t="n">
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52" t="n">
+      <c r="H11" s="51"/>
+      <c r="I11" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52" t="s">
+      <c r="J11" s="51"/>
+      <c r="K11" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52" t="n">
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="O11" s="50" t="n">
+      <c r="O11" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="51" t="n">
+      <c r="P11" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52" t="s">
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="52" t="n">
+      <c r="U11" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="V11" s="52" t="n">
+      <c r="V11" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="50"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52" t="n">
+      <c r="W11" s="49"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="AB11" s="52" t="n">
+      <c r="AB11" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="AC11" s="52"/>
-    </row>
-    <row r="12" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="50" t="n">
+      <c r="AC11" s="51"/>
+    </row>
+    <row r="12" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="49" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52" t="n">
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52" t="n">
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52" t="n">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51" t="n">
         <v>100</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="n">
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51" t="n">
         <v>30</v>
       </c>
-      <c r="O12" s="50" t="n">
+      <c r="O12" s="49" t="n">
         <v>30</v>
       </c>
-      <c r="P12" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52" t="s">
+      <c r="P12" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="U12" s="52" t="n">
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="U12" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="V12" s="52" t="n">
+      <c r="V12" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52" t="n">
+      <c r="W12" s="49"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="AB12" s="52" t="n">
+      <c r="AB12" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="AC12" s="52"/>
+      <c r="AC12" s="51"/>
     </row>
     <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="4" t="s">
@@ -6949,7 +6942,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="I11:I12 K11:K12 N11:P12 T11:T12 D7:D10 D4 A6:AC6 A5:AB6 AC5 A7:C9 H4:I4 E7:AC9">
+  <conditionalFormatting sqref="I11:I12 K11:K12 N11:P12 T11:T12 D7:D10 D4 AA6:AC6 AA5:AB6 AC5 A7:C9 H4:I4 AA7:AC9 A5:Y6 E7:Y9 Z5:Z9">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>0</formula>
     </cfRule>
